--- a/examples/data/20220927 ITR V2 Sample Data.xlsx
+++ b/examples/data/20220927 ITR V2 Sample Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/ITR-MichaelTiemannOSC/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E93C148-8777-6745-ACDB-2258061F1D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B2DE2B-EA4D-D14E-9F96-CBD5758A2A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="6840" windowWidth="53580" windowHeight="26600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7365,7 +7365,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H111" sqref="H111"/>
+      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10683,8 +10683,14 @@
         <f>K109+K110</f>
         <v>1032498</v>
       </c>
-      <c r="L111" s="102"/>
-      <c r="M111" s="103"/>
+      <c r="L111" s="103">
+        <f>L109+L110</f>
+        <v>809057</v>
+      </c>
+      <c r="M111" s="103">
+        <f>M109+M110</f>
+        <v>834562</v>
+      </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="116"/>
@@ -22819,69 +22825,162 @@
     </row>
   </sheetData>
   <mergeCells count="243">
-    <mergeCell ref="A109:A121"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A122:A127"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="A134:A139"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A152:A157"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="A164:A169"/>
-    <mergeCell ref="A170:A175"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A182:A187"/>
-    <mergeCell ref="A188:A193"/>
-    <mergeCell ref="A194:A199"/>
-    <mergeCell ref="A200:A205"/>
-    <mergeCell ref="A206:A211"/>
-    <mergeCell ref="A212:A217"/>
-    <mergeCell ref="A218:A223"/>
-    <mergeCell ref="A224:A229"/>
-    <mergeCell ref="A230:A235"/>
-    <mergeCell ref="A236:A241"/>
-    <mergeCell ref="A242:A247"/>
-    <mergeCell ref="A248:A253"/>
-    <mergeCell ref="A254:A259"/>
-    <mergeCell ref="A260:A265"/>
-    <mergeCell ref="A266:A271"/>
-    <mergeCell ref="A272:A277"/>
-    <mergeCell ref="A278:A283"/>
-    <mergeCell ref="A284:A289"/>
-    <mergeCell ref="A290:A295"/>
-    <mergeCell ref="A296:A301"/>
-    <mergeCell ref="A302:A307"/>
-    <mergeCell ref="A308:A313"/>
-    <mergeCell ref="A314:A319"/>
-    <mergeCell ref="A320:A325"/>
-    <mergeCell ref="A326:A331"/>
-    <mergeCell ref="A332:A337"/>
-    <mergeCell ref="A338:A343"/>
-    <mergeCell ref="A344:A349"/>
-    <mergeCell ref="A350:A355"/>
-    <mergeCell ref="A356:A361"/>
-    <mergeCell ref="A362:A367"/>
-    <mergeCell ref="A368:A373"/>
-    <mergeCell ref="A374:A379"/>
-    <mergeCell ref="A380:A385"/>
-    <mergeCell ref="A386:A391"/>
-    <mergeCell ref="A392:A397"/>
-    <mergeCell ref="A398:A403"/>
-    <mergeCell ref="A404:A409"/>
-    <mergeCell ref="A410:A415"/>
-    <mergeCell ref="A416:A421"/>
-    <mergeCell ref="A422:A427"/>
-    <mergeCell ref="A428:A433"/>
-    <mergeCell ref="A434:A439"/>
-    <mergeCell ref="A440:A445"/>
-    <mergeCell ref="A446:A451"/>
-    <mergeCell ref="A452:A457"/>
-    <mergeCell ref="A458:A463"/>
-    <mergeCell ref="A464:A469"/>
-    <mergeCell ref="A470:A475"/>
-    <mergeCell ref="A476:A481"/>
-    <mergeCell ref="A482:A487"/>
+    <mergeCell ref="C512:C517"/>
+    <mergeCell ref="C518:C523"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="A96:A108"/>
+    <mergeCell ref="B96:B108"/>
+    <mergeCell ref="C96:C108"/>
+    <mergeCell ref="A83:A95"/>
+    <mergeCell ref="B83:B95"/>
+    <mergeCell ref="C83:C95"/>
+    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="C458:C463"/>
+    <mergeCell ref="C464:C469"/>
+    <mergeCell ref="C470:C475"/>
+    <mergeCell ref="C476:C481"/>
+    <mergeCell ref="C482:C487"/>
+    <mergeCell ref="C488:C493"/>
+    <mergeCell ref="C494:C499"/>
+    <mergeCell ref="C500:C505"/>
+    <mergeCell ref="C506:C511"/>
+    <mergeCell ref="C404:C409"/>
+    <mergeCell ref="C410:C415"/>
+    <mergeCell ref="C416:C421"/>
+    <mergeCell ref="C422:C427"/>
+    <mergeCell ref="C428:C433"/>
+    <mergeCell ref="C434:C439"/>
+    <mergeCell ref="C440:C445"/>
+    <mergeCell ref="C446:C451"/>
+    <mergeCell ref="C452:C457"/>
+    <mergeCell ref="C350:C355"/>
+    <mergeCell ref="C356:C361"/>
+    <mergeCell ref="C362:C367"/>
+    <mergeCell ref="C368:C373"/>
+    <mergeCell ref="C374:C379"/>
+    <mergeCell ref="C380:C385"/>
+    <mergeCell ref="C386:C391"/>
+    <mergeCell ref="C392:C397"/>
+    <mergeCell ref="C398:C403"/>
+    <mergeCell ref="C296:C301"/>
+    <mergeCell ref="C302:C307"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="C320:C325"/>
+    <mergeCell ref="C326:C331"/>
+    <mergeCell ref="C332:C337"/>
+    <mergeCell ref="C338:C343"/>
+    <mergeCell ref="C344:C349"/>
+    <mergeCell ref="C242:C247"/>
+    <mergeCell ref="C248:C253"/>
+    <mergeCell ref="C254:C259"/>
+    <mergeCell ref="C260:C265"/>
+    <mergeCell ref="C266:C271"/>
+    <mergeCell ref="C272:C277"/>
+    <mergeCell ref="C278:C283"/>
+    <mergeCell ref="C284:C289"/>
+    <mergeCell ref="C290:C295"/>
+    <mergeCell ref="C188:C193"/>
+    <mergeCell ref="C194:C199"/>
+    <mergeCell ref="C200:C205"/>
+    <mergeCell ref="C206:C211"/>
+    <mergeCell ref="C212:C217"/>
+    <mergeCell ref="C218:C223"/>
+    <mergeCell ref="C224:C229"/>
+    <mergeCell ref="C230:C235"/>
+    <mergeCell ref="C236:C241"/>
+    <mergeCell ref="B500:B505"/>
+    <mergeCell ref="B506:B511"/>
+    <mergeCell ref="B512:B517"/>
+    <mergeCell ref="B518:B523"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="C122:C127"/>
+    <mergeCell ref="C128:C133"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="C140:C145"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="C158:C163"/>
+    <mergeCell ref="C164:C169"/>
+    <mergeCell ref="C170:C175"/>
+    <mergeCell ref="C176:C181"/>
+    <mergeCell ref="C182:C187"/>
+    <mergeCell ref="B446:B451"/>
+    <mergeCell ref="B452:B457"/>
+    <mergeCell ref="B458:B463"/>
+    <mergeCell ref="B464:B469"/>
+    <mergeCell ref="B470:B475"/>
+    <mergeCell ref="B476:B481"/>
+    <mergeCell ref="B482:B487"/>
+    <mergeCell ref="B488:B493"/>
+    <mergeCell ref="B494:B499"/>
+    <mergeCell ref="B392:B397"/>
+    <mergeCell ref="B398:B403"/>
+    <mergeCell ref="B404:B409"/>
+    <mergeCell ref="B410:B415"/>
+    <mergeCell ref="B416:B421"/>
+    <mergeCell ref="B422:B427"/>
+    <mergeCell ref="B428:B433"/>
+    <mergeCell ref="B434:B439"/>
+    <mergeCell ref="B440:B445"/>
+    <mergeCell ref="B338:B343"/>
+    <mergeCell ref="B344:B349"/>
+    <mergeCell ref="B350:B355"/>
+    <mergeCell ref="B356:B361"/>
+    <mergeCell ref="B362:B367"/>
+    <mergeCell ref="B368:B373"/>
+    <mergeCell ref="B374:B379"/>
+    <mergeCell ref="B380:B385"/>
+    <mergeCell ref="B386:B391"/>
+    <mergeCell ref="B284:B289"/>
+    <mergeCell ref="B290:B295"/>
+    <mergeCell ref="B296:B301"/>
+    <mergeCell ref="B302:B307"/>
+    <mergeCell ref="B308:B313"/>
+    <mergeCell ref="B314:B319"/>
+    <mergeCell ref="B320:B325"/>
+    <mergeCell ref="B326:B331"/>
+    <mergeCell ref="B332:B337"/>
+    <mergeCell ref="B230:B235"/>
+    <mergeCell ref="B236:B241"/>
+    <mergeCell ref="B242:B247"/>
+    <mergeCell ref="B248:B253"/>
+    <mergeCell ref="B254:B259"/>
+    <mergeCell ref="B260:B265"/>
+    <mergeCell ref="B266:B271"/>
+    <mergeCell ref="B272:B277"/>
+    <mergeCell ref="B278:B283"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="B182:B187"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="B194:B199"/>
+    <mergeCell ref="B200:B205"/>
+    <mergeCell ref="B206:B211"/>
+    <mergeCell ref="B212:B217"/>
+    <mergeCell ref="B218:B223"/>
+    <mergeCell ref="B224:B229"/>
     <mergeCell ref="A488:A493"/>
     <mergeCell ref="A494:A499"/>
     <mergeCell ref="A500:A505"/>
@@ -22906,162 +23005,69 @@
     <mergeCell ref="B158:B163"/>
     <mergeCell ref="B164:B169"/>
     <mergeCell ref="B170:B175"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B182:B187"/>
-    <mergeCell ref="B188:B193"/>
-    <mergeCell ref="B194:B199"/>
-    <mergeCell ref="B200:B205"/>
-    <mergeCell ref="B206:B211"/>
-    <mergeCell ref="B212:B217"/>
-    <mergeCell ref="B218:B223"/>
-    <mergeCell ref="B224:B229"/>
-    <mergeCell ref="B230:B235"/>
-    <mergeCell ref="B236:B241"/>
-    <mergeCell ref="B242:B247"/>
-    <mergeCell ref="B248:B253"/>
-    <mergeCell ref="B254:B259"/>
-    <mergeCell ref="B260:B265"/>
-    <mergeCell ref="B266:B271"/>
-    <mergeCell ref="B272:B277"/>
-    <mergeCell ref="B278:B283"/>
-    <mergeCell ref="B284:B289"/>
-    <mergeCell ref="B290:B295"/>
-    <mergeCell ref="B296:B301"/>
-    <mergeCell ref="B302:B307"/>
-    <mergeCell ref="B308:B313"/>
-    <mergeCell ref="B314:B319"/>
-    <mergeCell ref="B320:B325"/>
-    <mergeCell ref="B326:B331"/>
-    <mergeCell ref="B332:B337"/>
-    <mergeCell ref="B338:B343"/>
-    <mergeCell ref="B344:B349"/>
-    <mergeCell ref="B350:B355"/>
-    <mergeCell ref="B356:B361"/>
-    <mergeCell ref="B362:B367"/>
-    <mergeCell ref="B368:B373"/>
-    <mergeCell ref="B374:B379"/>
-    <mergeCell ref="B380:B385"/>
-    <mergeCell ref="B386:B391"/>
-    <mergeCell ref="B392:B397"/>
-    <mergeCell ref="B398:B403"/>
-    <mergeCell ref="B404:B409"/>
-    <mergeCell ref="B410:B415"/>
-    <mergeCell ref="B416:B421"/>
-    <mergeCell ref="B422:B427"/>
-    <mergeCell ref="B428:B433"/>
-    <mergeCell ref="B434:B439"/>
-    <mergeCell ref="B440:B445"/>
-    <mergeCell ref="B446:B451"/>
-    <mergeCell ref="B452:B457"/>
-    <mergeCell ref="B458:B463"/>
-    <mergeCell ref="B464:B469"/>
-    <mergeCell ref="B470:B475"/>
-    <mergeCell ref="B476:B481"/>
-    <mergeCell ref="B482:B487"/>
-    <mergeCell ref="B488:B493"/>
-    <mergeCell ref="B494:B499"/>
-    <mergeCell ref="B500:B505"/>
-    <mergeCell ref="B506:B511"/>
-    <mergeCell ref="B512:B517"/>
-    <mergeCell ref="B518:B523"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="C122:C127"/>
-    <mergeCell ref="C128:C133"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="C140:C145"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="C158:C163"/>
-    <mergeCell ref="C164:C169"/>
-    <mergeCell ref="C170:C175"/>
-    <mergeCell ref="C176:C181"/>
-    <mergeCell ref="C182:C187"/>
-    <mergeCell ref="C188:C193"/>
-    <mergeCell ref="C194:C199"/>
-    <mergeCell ref="C200:C205"/>
-    <mergeCell ref="C206:C211"/>
-    <mergeCell ref="C212:C217"/>
-    <mergeCell ref="C218:C223"/>
-    <mergeCell ref="C224:C229"/>
-    <mergeCell ref="C230:C235"/>
-    <mergeCell ref="C236:C241"/>
-    <mergeCell ref="C242:C247"/>
-    <mergeCell ref="C248:C253"/>
-    <mergeCell ref="C254:C259"/>
-    <mergeCell ref="C260:C265"/>
-    <mergeCell ref="C266:C271"/>
-    <mergeCell ref="C272:C277"/>
-    <mergeCell ref="C278:C283"/>
-    <mergeCell ref="C284:C289"/>
-    <mergeCell ref="C290:C295"/>
-    <mergeCell ref="C296:C301"/>
-    <mergeCell ref="C302:C307"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="C320:C325"/>
-    <mergeCell ref="C326:C331"/>
-    <mergeCell ref="C332:C337"/>
-    <mergeCell ref="C338:C343"/>
-    <mergeCell ref="C344:C349"/>
-    <mergeCell ref="C350:C355"/>
-    <mergeCell ref="C356:C361"/>
-    <mergeCell ref="C362:C367"/>
-    <mergeCell ref="C368:C373"/>
-    <mergeCell ref="C374:C379"/>
-    <mergeCell ref="C380:C385"/>
-    <mergeCell ref="C386:C391"/>
-    <mergeCell ref="C392:C397"/>
-    <mergeCell ref="C398:C403"/>
-    <mergeCell ref="C404:C409"/>
-    <mergeCell ref="C410:C415"/>
-    <mergeCell ref="C416:C421"/>
-    <mergeCell ref="C422:C427"/>
-    <mergeCell ref="C428:C433"/>
-    <mergeCell ref="C434:C439"/>
-    <mergeCell ref="C440:C445"/>
-    <mergeCell ref="C446:C451"/>
-    <mergeCell ref="C452:C457"/>
-    <mergeCell ref="C458:C463"/>
-    <mergeCell ref="C464:C469"/>
-    <mergeCell ref="C470:C475"/>
-    <mergeCell ref="C476:C481"/>
-    <mergeCell ref="C482:C487"/>
-    <mergeCell ref="C488:C493"/>
-    <mergeCell ref="C494:C499"/>
-    <mergeCell ref="C500:C505"/>
-    <mergeCell ref="C506:C511"/>
-    <mergeCell ref="C512:C517"/>
-    <mergeCell ref="C518:C523"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="C11:C20"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="A96:A108"/>
-    <mergeCell ref="B96:B108"/>
-    <mergeCell ref="C96:C108"/>
-    <mergeCell ref="A83:A95"/>
-    <mergeCell ref="B83:B95"/>
-    <mergeCell ref="C83:C95"/>
-    <mergeCell ref="A21:A30"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A434:A439"/>
+    <mergeCell ref="A440:A445"/>
+    <mergeCell ref="A446:A451"/>
+    <mergeCell ref="A452:A457"/>
+    <mergeCell ref="A458:A463"/>
+    <mergeCell ref="A464:A469"/>
+    <mergeCell ref="A470:A475"/>
+    <mergeCell ref="A476:A481"/>
+    <mergeCell ref="A482:A487"/>
+    <mergeCell ref="A380:A385"/>
+    <mergeCell ref="A386:A391"/>
+    <mergeCell ref="A392:A397"/>
+    <mergeCell ref="A398:A403"/>
+    <mergeCell ref="A404:A409"/>
+    <mergeCell ref="A410:A415"/>
+    <mergeCell ref="A416:A421"/>
+    <mergeCell ref="A422:A427"/>
+    <mergeCell ref="A428:A433"/>
+    <mergeCell ref="A326:A331"/>
+    <mergeCell ref="A332:A337"/>
+    <mergeCell ref="A338:A343"/>
+    <mergeCell ref="A344:A349"/>
+    <mergeCell ref="A350:A355"/>
+    <mergeCell ref="A356:A361"/>
+    <mergeCell ref="A362:A367"/>
+    <mergeCell ref="A368:A373"/>
+    <mergeCell ref="A374:A379"/>
+    <mergeCell ref="A272:A277"/>
+    <mergeCell ref="A278:A283"/>
+    <mergeCell ref="A284:A289"/>
+    <mergeCell ref="A290:A295"/>
+    <mergeCell ref="A296:A301"/>
+    <mergeCell ref="A302:A307"/>
+    <mergeCell ref="A308:A313"/>
+    <mergeCell ref="A314:A319"/>
+    <mergeCell ref="A320:A325"/>
+    <mergeCell ref="A218:A223"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="A230:A235"/>
+    <mergeCell ref="A236:A241"/>
+    <mergeCell ref="A242:A247"/>
+    <mergeCell ref="A248:A253"/>
+    <mergeCell ref="A254:A259"/>
+    <mergeCell ref="A260:A265"/>
+    <mergeCell ref="A266:A271"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A182:A187"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="A194:A199"/>
+    <mergeCell ref="A200:A205"/>
+    <mergeCell ref="A206:A211"/>
+    <mergeCell ref="A212:A217"/>
+    <mergeCell ref="A109:A121"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A122:A127"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="A158:A163"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L30" r:id="rId1" xr:uid="{0B00E541-600E-124F-8530-7CF03623D698}"/>
@@ -38699,7 +38705,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>222587708</v>
+        <v>53807700</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -38717,7 +38723,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>202902030</v>
+        <v>181209960</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -38735,7 +38741,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>37756880</v>
+        <v>223089968</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -38753,7 +38759,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>146973042</v>
+        <v>78534720</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -38771,7 +38777,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>240779433</v>
+        <v>80120240</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -38789,7 +38795,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>188394765</v>
+        <v>165312707</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -38807,7 +38813,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>59522814</v>
+        <v>139146044</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -38825,7 +38831,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>50230292</v>
+        <v>56760876</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -38843,7 +38849,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>143602465</v>
+        <v>89155408</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -38861,7 +38867,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>171004750</v>
+        <v>111742680</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -38879,7 +38885,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>100991820</v>
+        <v>158968084</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -38897,7 +38903,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>79908452</v>
+        <v>94129060</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -38915,7 +38921,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>62183640</v>
+        <v>97145860</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -38933,7 +38939,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>225538950</v>
+        <v>87841455</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -38951,7 +38957,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>134965320</v>
+        <v>240109632</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -38969,7 +38975,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>173578563</v>
+        <v>195168402</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -38987,7 +38993,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>148352254</v>
+        <v>173944316</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -39005,7 +39011,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>95075977</v>
+        <v>72882801</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -39023,7 +39029,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>139777386</v>
+        <v>123364408</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -39041,7 +39047,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>81976488</v>
+        <v>54345746</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -39059,7 +39065,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>159383748</v>
+        <v>190230397</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -39077,7 +39083,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>84671118</v>
+        <v>168419412</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -39095,7 +39101,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>152181897</v>
+        <v>57811131</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -39113,7 +39119,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>170292096</v>
+        <v>86247408</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -39131,7 +39137,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>147779541</v>
+        <v>263152125</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -39149,7 +39155,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>52182423</v>
+        <v>105507432</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -39167,7 +39173,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>148477968</v>
+        <v>53306856</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -39185,7 +39191,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>78579858</v>
+        <v>74529563</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -39203,7 +39209,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>87121775</v>
+        <v>204601320</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -39221,7 +39227,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>154820064</v>
+        <v>85736835</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -39239,7 +39245,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>49996941</v>
+        <v>177301980</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -39257,7 +39263,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>168110487</v>
+        <v>162051120</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -39275,7 +39281,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>260415748</v>
+        <v>142147460</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -39293,7 +39299,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>125891616</v>
+        <v>90356789</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -39311,7 +39317,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>99585864</v>
+        <v>75372750</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -39329,7 +39335,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>117109244</v>
+        <v>236009256</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -39347,7 +39353,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>41629110</v>
+        <v>89950768</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -39365,7 +39371,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>167340508</v>
+        <v>110745240</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -39383,7 +39389,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>68834921</v>
+        <v>185294325</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -39401,7 +39407,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>54207021</v>
+        <v>134619111</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -39419,7 +39425,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>157929184</v>
+        <v>212122612</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -39437,7 +39443,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>165328052</v>
+        <v>138767648</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -39455,7 +39461,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>158034732</v>
+        <v>88706457</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -39473,7 +39479,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>80534293</v>
+        <v>78461328</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -39491,7 +39497,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>144363222</v>
+        <v>58904592</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -39509,7 +39515,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>191311860</v>
+        <v>46117565</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -39527,7 +39533,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>124624170</v>
+        <v>41545819</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -39545,7 +39551,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>54760992</v>
+        <v>135474649</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -39563,7 +39569,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>159231526</v>
+        <v>194834304</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -39581,7 +39587,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>132468049</v>
+        <v>243317382</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -39599,7 +39605,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>130938552</v>
+        <v>172638588</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -39617,7 +39623,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>126329712</v>
+        <v>201195954</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -39635,7 +39641,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>292065480</v>
+        <v>264227990</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -39653,7 +39659,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>168725952</v>
+        <v>112045038</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -39671,7 +39677,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>94209800</v>
+        <v>157112634</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -39689,7 +39695,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>240084000</v>
+        <v>49154235</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -39707,7 +39713,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>84229800</v>
+        <v>158965521</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -39725,7 +39731,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>241851799</v>
+        <v>72738699</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -39743,7 +39749,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>57684838</v>
+        <v>199525529</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -39761,7 +39767,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>208946400</v>
+        <v>192131433</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -39779,7 +39785,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>77123310</v>
+        <v>173485528</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -39797,7 +39803,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>247614628</v>
+        <v>53507430</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -39815,7 +39821,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>65678704</v>
+        <v>244184005</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -39833,7 +39839,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>204792074</v>
+        <v>39726207</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -39851,7 +39857,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E77" ca="1" si="2">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>229314564</v>
+        <v>170594082</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -39869,7 +39875,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>194720094</v>
+        <v>149704495</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -39887,7 +39893,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>166396778</v>
+        <v>132802620</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -39905,7 +39911,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>186117720</v>
+        <v>146999628</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -39923,7 +39929,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>66843090</v>
+        <v>166414070</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -39941,7 +39947,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>114058848</v>
+        <v>175784764</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -39959,7 +39965,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>217846845</v>
+        <v>122850660</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -39977,7 +39983,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>166425996</v>
+        <v>41995944</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -39995,7 +40001,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>115861039</v>
+        <v>47755008</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -40013,7 +40019,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>63698490</v>
+        <v>62139792</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -40031,7 +40037,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>156961722</v>
+        <v>116744285</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -40049,7 +40055,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>60225659</v>
+        <v>183501214</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/20220927 ITR V2 Sample Data.xlsx
+++ b/examples/data/20220927 ITR V2 Sample Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/ITR-MichaelTiemannOSC/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B2DE2B-EA4D-D14E-9F96-CBD5758A2A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266AE08E-560F-D347-8176-C6302813C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="6840" windowWidth="53580" windowHeight="26600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24800" yWindow="8080" windowWidth="38400" windowHeight="28140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4320" uniqueCount="462">
   <si>
     <t>company_name</t>
   </si>
@@ -1714,9 +1714,6 @@
     <t>metric</t>
   </si>
   <si>
-    <t>sub_metric</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -1835,6 +1832,15 @@
   </si>
   <si>
     <t>https://www.bmwgroup.com/content/dam/grpw/websites/bmwgroup_com/responsibility/downloads/en/2020/2020-BMW-Group-SVR-2019-Englisch.pdf</t>
+  </si>
+  <si>
+    <t>Fuel- and Energy-related activities</t>
+  </si>
+  <si>
+    <t>Business Travel</t>
+  </si>
+  <si>
+    <t>submetric</t>
   </si>
 </sst>
 </file>
@@ -7362,10 +7368,10 @@
   <dimension ref="A1:M523"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7393,10 +7399,10 @@
         <v>418</v>
       </c>
       <c r="E1" s="97" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1" s="98" t="s">
         <v>419</v>
-      </c>
-      <c r="F1" s="98" t="s">
-        <v>420</v>
       </c>
       <c r="G1" s="99" t="s">
         <v>8</v>
@@ -7431,10 +7437,10 @@
         <v>53</v>
       </c>
       <c r="D2" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G2" s="96">
         <v>43523</v>
@@ -7457,13 +7463,13 @@
       <c r="B3" s="116"/>
       <c r="C3" s="116"/>
       <c r="D3" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E3" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>423</v>
-      </c>
       <c r="F3" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G3" s="96">
         <v>43523</v>
@@ -7486,13 +7492,13 @@
       <c r="B4" s="116"/>
       <c r="C4" s="116"/>
       <c r="D4" s="97" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G4" s="96">
         <v>43523</v>
@@ -7515,13 +7521,13 @@
       <c r="B5" s="116"/>
       <c r="C5" s="116"/>
       <c r="D5" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G5" s="96">
         <v>43523</v>
@@ -7547,13 +7553,13 @@
       <c r="B6" s="116"/>
       <c r="C6" s="116"/>
       <c r="D6" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="E6" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="E6" s="70" t="s">
-        <v>426</v>
-      </c>
       <c r="F6" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G6" s="96">
         <v>43523</v>
@@ -7579,13 +7585,13 @@
       <c r="B7" s="116"/>
       <c r="C7" s="116"/>
       <c r="D7" s="97" t="s">
-        <v>425</v>
-      </c>
-      <c r="E7" s="78">
-        <v>3</v>
+        <v>424</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>459</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G7" s="96">
         <v>43523</v>
@@ -7608,13 +7614,13 @@
       <c r="B8" s="116"/>
       <c r="C8" s="116"/>
       <c r="D8" s="97" t="s">
-        <v>425</v>
-      </c>
-      <c r="E8" s="78">
-        <v>6</v>
+        <v>424</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>460</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G8" s="96">
         <v>43523</v>
@@ -7637,7 +7643,7 @@
       <c r="B9" s="116"/>
       <c r="C9" s="116"/>
       <c r="D9" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9" s="78" t="s">
         <v>56</v>
@@ -7662,7 +7668,7 @@
       <c r="B10" s="116"/>
       <c r="C10" s="116"/>
       <c r="D10" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G10" s="96">
         <v>43523</v>
@@ -7670,7 +7676,7 @@
       <c r="H10" s="102"/>
       <c r="I10" s="103"/>
       <c r="J10" s="104" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K10" s="103"/>
       <c r="L10" s="103"/>
@@ -7687,10 +7693,10 @@
         <v>53</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G11" s="96">
         <v>43888</v>
@@ -7715,13 +7721,13 @@
       <c r="B12" s="116"/>
       <c r="C12" s="116"/>
       <c r="D12" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E12" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="E12" s="78" t="s">
-        <v>423</v>
-      </c>
       <c r="F12" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G12" s="96">
         <v>43888</v>
@@ -7746,13 +7752,13 @@
       <c r="B13" s="116"/>
       <c r="C13" s="116"/>
       <c r="D13" s="97" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G13" s="96">
         <v>43888</v>
@@ -7777,13 +7783,13 @@
       <c r="B14" s="116"/>
       <c r="C14" s="116"/>
       <c r="D14" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G14" s="96">
         <v>43888</v>
@@ -7812,13 +7818,13 @@
       <c r="B15" s="116"/>
       <c r="C15" s="116"/>
       <c r="D15" s="106" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G15" s="96">
         <v>43888</v>
@@ -7847,13 +7853,13 @@
       <c r="B16" s="116"/>
       <c r="C16" s="116"/>
       <c r="D16" s="97" t="s">
-        <v>425</v>
-      </c>
-      <c r="E16" s="78">
-        <v>3</v>
+        <v>424</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>459</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G16" s="96">
         <v>43888</v>
@@ -7878,13 +7884,13 @@
       <c r="B17" s="116"/>
       <c r="C17" s="116"/>
       <c r="D17" s="97" t="s">
-        <v>425</v>
-      </c>
-      <c r="E17" s="78">
-        <v>6</v>
+        <v>424</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>460</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G17" s="96">
         <v>43888</v>
@@ -7909,7 +7915,7 @@
       <c r="B18" s="116"/>
       <c r="C18" s="116"/>
       <c r="D18" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E18" s="78" t="s">
         <v>56</v>
@@ -7936,10 +7942,10 @@
       <c r="B19" s="116"/>
       <c r="C19" s="116"/>
       <c r="D19" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E19" s="78" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F19" s="78" t="s">
         <v>59</v>
@@ -7963,7 +7969,7 @@
       <c r="B20" s="116"/>
       <c r="C20" s="116"/>
       <c r="D20" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G20" s="96">
         <v>43888</v>
@@ -7972,7 +7978,7 @@
       <c r="I20" s="103"/>
       <c r="J20" s="102"/>
       <c r="K20" s="105" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L20" s="103"/>
       <c r="M20" s="103"/>
@@ -7988,11 +7994,11 @@
         <v>53</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G21" s="96">
         <v>44440</v>
@@ -8017,13 +8023,13 @@
       <c r="B22" s="116"/>
       <c r="C22" s="116"/>
       <c r="D22" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E22" t="s">
         <v>422</v>
       </c>
-      <c r="E22" t="s">
-        <v>423</v>
-      </c>
       <c r="F22" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G22" s="96">
         <v>44440</v>
@@ -8048,13 +8054,13 @@
       <c r="B23" s="116"/>
       <c r="C23" s="116"/>
       <c r="D23" s="97" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E23" s="78" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G23" s="96">
         <v>44440</v>
@@ -8079,13 +8085,13 @@
       <c r="B24" s="116"/>
       <c r="C24" s="116"/>
       <c r="D24" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G24" s="96">
         <v>44440</v>
@@ -8114,13 +8120,13 @@
       <c r="B25" s="116"/>
       <c r="C25" s="116"/>
       <c r="D25" s="106" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G25" s="96">
         <v>44440</v>
@@ -8145,13 +8151,13 @@
       <c r="B26" s="116"/>
       <c r="C26" s="116"/>
       <c r="D26" s="97" t="s">
-        <v>425</v>
-      </c>
-      <c r="E26" s="78">
-        <v>3</v>
+        <v>424</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>459</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G26" s="96">
         <v>44440</v>
@@ -8176,13 +8182,13 @@
       <c r="B27" s="116"/>
       <c r="C27" s="116"/>
       <c r="D27" s="97" t="s">
-        <v>425</v>
-      </c>
-      <c r="E27" s="78">
-        <v>6</v>
+        <v>424</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>460</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G27" s="96">
         <v>44440</v>
@@ -8207,7 +8213,7 @@
       <c r="B28" s="116"/>
       <c r="C28" s="116"/>
       <c r="D28" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E28" t="s">
         <v>56</v>
@@ -8236,10 +8242,10 @@
       <c r="B29" s="116"/>
       <c r="C29" s="116"/>
       <c r="D29" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E29" s="78" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F29" s="78" t="s">
         <v>59</v>
@@ -8265,7 +8271,7 @@
       <c r="B30" s="116"/>
       <c r="C30" s="116"/>
       <c r="D30" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -8277,7 +8283,7 @@
       <c r="J30" s="102"/>
       <c r="K30" s="103"/>
       <c r="L30" s="104" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M30" s="103"/>
     </row>
@@ -8292,10 +8298,10 @@
         <v>53</v>
       </c>
       <c r="D31" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G31" s="96">
         <v>44699</v>
@@ -8314,13 +8320,13 @@
       <c r="B32" s="116"/>
       <c r="C32" s="116"/>
       <c r="D32" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E32" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="E32" s="78" t="s">
-        <v>423</v>
-      </c>
       <c r="F32" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G32" s="96">
         <v>44699</v>
@@ -8339,13 +8345,13 @@
       <c r="B33" s="116"/>
       <c r="C33" s="116"/>
       <c r="D33" s="97" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E33" s="78" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F33" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G33" s="96">
         <v>44699</v>
@@ -8364,13 +8370,13 @@
       <c r="B34" s="116"/>
       <c r="C34" s="116"/>
       <c r="D34" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G34" s="96">
         <v>44699</v>
@@ -8389,11 +8395,11 @@
       <c r="B35" s="116"/>
       <c r="C35" s="116"/>
       <c r="D35" s="106" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E35" s="70"/>
       <c r="F35" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G35" s="96">
         <v>44699</v>
@@ -8412,13 +8418,13 @@
       <c r="B36" s="116"/>
       <c r="C36" s="116"/>
       <c r="D36" s="97" t="s">
-        <v>425</v>
-      </c>
-      <c r="E36" s="78">
-        <v>3</v>
+        <v>424</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>459</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G36" s="96">
         <v>44699</v>
@@ -8437,13 +8443,13 @@
       <c r="B37" s="116"/>
       <c r="C37" s="116"/>
       <c r="D37" s="97" t="s">
-        <v>425</v>
-      </c>
-      <c r="E37" s="78">
-        <v>6</v>
+        <v>424</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>460</v>
       </c>
       <c r="F37" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G37" s="96">
         <v>44699</v>
@@ -8462,10 +8468,10 @@
       <c r="B38" s="116"/>
       <c r="C38" s="116"/>
       <c r="D38" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E38" s="78" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F38" s="78" t="s">
         <v>59</v>
@@ -8487,10 +8493,10 @@
       <c r="B39" s="116"/>
       <c r="C39" s="116"/>
       <c r="D39" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E39" s="78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F39" s="78" t="s">
         <v>59</v>
@@ -8512,7 +8518,7 @@
       <c r="B40" s="116"/>
       <c r="C40" s="116"/>
       <c r="D40" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G40" s="96">
         <v>44699</v>
@@ -8523,7 +8529,7 @@
       <c r="K40" s="103"/>
       <c r="L40" s="103"/>
       <c r="M40" s="105" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -8537,11 +8543,11 @@
         <v>62</v>
       </c>
       <c r="D41" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G41" s="96">
         <v>44561</v>
@@ -8570,13 +8576,13 @@
       <c r="B42" s="116"/>
       <c r="C42" s="116"/>
       <c r="D42" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E42" t="s">
         <v>422</v>
       </c>
-      <c r="E42" t="s">
-        <v>423</v>
-      </c>
       <c r="F42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G42" s="96">
         <v>44561</v>
@@ -8605,13 +8611,13 @@
       <c r="B43" s="116"/>
       <c r="C43" s="116"/>
       <c r="D43" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G43" s="96">
         <v>44561</v>
@@ -8640,13 +8646,13 @@
       <c r="B44" s="116"/>
       <c r="C44" s="116"/>
       <c r="D44" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E44" t="s">
         <v>425</v>
       </c>
-      <c r="E44" t="s">
-        <v>426</v>
-      </c>
       <c r="F44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G44" s="96">
         <v>44561</v>
@@ -8663,7 +8669,7 @@
       <c r="B45" s="116"/>
       <c r="C45" s="116"/>
       <c r="D45" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
@@ -8696,7 +8702,7 @@
       <c r="B46" s="116"/>
       <c r="C46" s="116"/>
       <c r="D46" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -8719,11 +8725,11 @@
         <v>68</v>
       </c>
       <c r="D47" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G47" s="96">
         <v>44561</v>
@@ -8750,13 +8756,13 @@
       <c r="B48" s="116"/>
       <c r="C48" s="116"/>
       <c r="D48" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E48" t="s">
         <v>422</v>
       </c>
-      <c r="E48" t="s">
-        <v>423</v>
-      </c>
       <c r="F48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G48" s="96">
         <v>44561</v>
@@ -8783,13 +8789,13 @@
       <c r="B49" s="116"/>
       <c r="C49" s="116"/>
       <c r="D49" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G49" s="96">
         <v>44561</v>
@@ -8816,13 +8822,13 @@
       <c r="B50" s="116"/>
       <c r="C50" s="116"/>
       <c r="D50" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E50" t="s">
         <v>425</v>
       </c>
-      <c r="E50" t="s">
-        <v>426</v>
-      </c>
       <c r="F50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G50" s="96">
         <v>44561</v>
@@ -8839,7 +8845,7 @@
       <c r="B51" s="116"/>
       <c r="C51" s="116"/>
       <c r="D51" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
@@ -8870,7 +8876,7 @@
       <c r="B52" s="116"/>
       <c r="C52" s="116"/>
       <c r="D52" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
@@ -8893,11 +8899,11 @@
         <v>71</v>
       </c>
       <c r="D53" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G53" s="96">
         <v>44561</v>
@@ -8924,13 +8930,13 @@
       <c r="B54" s="116"/>
       <c r="C54" s="116"/>
       <c r="D54" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E54" t="s">
         <v>422</v>
       </c>
-      <c r="E54" t="s">
-        <v>423</v>
-      </c>
       <c r="F54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G54" s="96">
         <v>44561</v>
@@ -8957,13 +8963,13 @@
       <c r="B55" s="116"/>
       <c r="C55" s="116"/>
       <c r="D55" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G55" s="96">
         <v>44561</v>
@@ -8990,13 +8996,13 @@
       <c r="B56" s="116"/>
       <c r="C56" s="116"/>
       <c r="D56" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E56" t="s">
         <v>425</v>
       </c>
-      <c r="E56" t="s">
-        <v>426</v>
-      </c>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G56" s="96">
         <v>44561</v>
@@ -9013,7 +9019,7 @@
       <c r="B57" s="116"/>
       <c r="C57" s="116"/>
       <c r="D57" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
@@ -9044,7 +9050,7 @@
       <c r="B58" s="116"/>
       <c r="C58" s="116"/>
       <c r="D58" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
@@ -9067,11 +9073,11 @@
         <v>74</v>
       </c>
       <c r="D59" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G59" s="96">
         <v>44561</v>
@@ -9098,13 +9104,13 @@
       <c r="B60" s="116"/>
       <c r="C60" s="116"/>
       <c r="D60" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E60" t="s">
         <v>422</v>
       </c>
-      <c r="E60" t="s">
-        <v>423</v>
-      </c>
       <c r="F60" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G60" s="96">
         <v>44561</v>
@@ -9131,13 +9137,13 @@
       <c r="B61" s="116"/>
       <c r="C61" s="116"/>
       <c r="D61" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F61" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G61" s="96">
         <v>44561</v>
@@ -9164,13 +9170,13 @@
       <c r="B62" s="116"/>
       <c r="C62" s="116"/>
       <c r="D62" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E62" t="s">
         <v>425</v>
       </c>
-      <c r="E62" t="s">
-        <v>426</v>
-      </c>
       <c r="F62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G62" s="96">
         <v>44561</v>
@@ -9187,7 +9193,7 @@
       <c r="B63" s="116"/>
       <c r="C63" s="116"/>
       <c r="D63" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
@@ -9218,7 +9224,7 @@
       <c r="B64" s="116"/>
       <c r="C64" s="116"/>
       <c r="D64" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
@@ -9241,11 +9247,11 @@
         <v>77</v>
       </c>
       <c r="D65" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G65" s="96">
         <v>44561</v>
@@ -9274,13 +9280,13 @@
       <c r="B66" s="116"/>
       <c r="C66" s="116"/>
       <c r="D66" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E66" t="s">
         <v>422</v>
       </c>
-      <c r="E66" t="s">
-        <v>423</v>
-      </c>
       <c r="F66" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G66" s="96">
         <v>44561</v>
@@ -9309,13 +9315,13 @@
       <c r="B67" s="116"/>
       <c r="C67" s="116"/>
       <c r="D67" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F67" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G67" s="96">
         <v>44561</v>
@@ -9344,13 +9350,13 @@
       <c r="B68" s="116"/>
       <c r="C68" s="116"/>
       <c r="D68" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E68" t="s">
         <v>425</v>
       </c>
-      <c r="E68" t="s">
-        <v>426</v>
-      </c>
       <c r="F68" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G68" s="96">
         <v>44561</v>
@@ -9375,7 +9381,7 @@
       <c r="B69" s="116"/>
       <c r="C69" s="116"/>
       <c r="D69" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
@@ -9408,7 +9414,7 @@
       <c r="B70" s="116"/>
       <c r="C70" s="116"/>
       <c r="D70" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
@@ -9431,11 +9437,11 @@
         <v>79</v>
       </c>
       <c r="D71" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G71" s="96">
         <v>44561</v>
@@ -9464,13 +9470,13 @@
       <c r="B72" s="116"/>
       <c r="C72" s="116"/>
       <c r="D72" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E72" t="s">
         <v>422</v>
       </c>
-      <c r="E72" t="s">
-        <v>423</v>
-      </c>
       <c r="F72" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G72" s="96">
         <v>44561</v>
@@ -9499,13 +9505,13 @@
       <c r="B73" s="116"/>
       <c r="C73" s="116"/>
       <c r="D73" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G73" s="96">
         <v>44561</v>
@@ -9534,13 +9540,13 @@
       <c r="B74" s="116"/>
       <c r="C74" s="116"/>
       <c r="D74" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E74" t="s">
         <v>425</v>
       </c>
-      <c r="E74" t="s">
-        <v>426</v>
-      </c>
       <c r="F74" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G74" s="96">
         <v>44561</v>
@@ -9565,7 +9571,7 @@
       <c r="B75" s="116"/>
       <c r="C75" s="116"/>
       <c r="D75" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
@@ -9598,7 +9604,7 @@
       <c r="B76" s="116"/>
       <c r="C76" s="116"/>
       <c r="D76" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
@@ -9621,11 +9627,11 @@
         <v>83</v>
       </c>
       <c r="D77" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G77" s="96">
         <v>44561</v>
@@ -9648,13 +9654,13 @@
       <c r="B78" s="116"/>
       <c r="C78" s="116"/>
       <c r="D78" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E78" t="s">
         <v>422</v>
       </c>
-      <c r="E78" t="s">
-        <v>423</v>
-      </c>
       <c r="F78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G78" s="96">
         <v>44561</v>
@@ -9677,13 +9683,13 @@
       <c r="B79" s="116"/>
       <c r="C79" s="116"/>
       <c r="D79" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E79" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F79" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G79" s="96">
         <v>44561</v>
@@ -9706,13 +9712,13 @@
       <c r="B80" s="116"/>
       <c r="C80" s="116"/>
       <c r="D80" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E80" t="s">
         <v>425</v>
       </c>
-      <c r="E80" t="s">
-        <v>426</v>
-      </c>
       <c r="F80" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G80" s="96">
         <v>44561</v>
@@ -9729,7 +9735,7 @@
       <c r="B81" s="116"/>
       <c r="C81" s="116"/>
       <c r="D81" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
@@ -9756,7 +9762,7 @@
       <c r="B82" s="116"/>
       <c r="C82" s="116"/>
       <c r="D82" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
@@ -9779,10 +9785,10 @@
         <v>87</v>
       </c>
       <c r="D83" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F83" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G83" s="96">
         <v>44196</v>
@@ -9807,13 +9813,13 @@
       <c r="B84" s="116"/>
       <c r="C84" s="116"/>
       <c r="D84" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E84" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="E84" s="78" t="s">
-        <v>423</v>
-      </c>
       <c r="F84" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G84" s="96">
         <v>44196</v>
@@ -9838,13 +9844,13 @@
       <c r="B85" s="116"/>
       <c r="C85" s="116"/>
       <c r="D85" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E85" s="78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F85" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G85" s="96">
         <v>44196</v>
@@ -9873,13 +9879,13 @@
       <c r="B86" s="116"/>
       <c r="C86" s="116"/>
       <c r="D86" s="107" t="s">
+        <v>424</v>
+      </c>
+      <c r="E86" s="108" t="s">
         <v>425</v>
       </c>
-      <c r="E86" s="108" t="s">
-        <v>426</v>
-      </c>
       <c r="F86" s="108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G86" s="109">
         <v>44196</v>
@@ -9904,10 +9910,10 @@
       <c r="B87" s="116"/>
       <c r="C87" s="116"/>
       <c r="D87" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E87" s="111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F87" s="108" t="s">
         <v>58</v>
@@ -9935,7 +9941,7 @@
       <c r="B88" s="116"/>
       <c r="C88" s="116"/>
       <c r="D88" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E88" s="111">
         <v>6</v>
@@ -9966,7 +9972,7 @@
       <c r="B89" s="116"/>
       <c r="C89" s="116"/>
       <c r="D89" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E89" s="111">
         <v>7</v>
@@ -9997,7 +10003,7 @@
       <c r="B90" s="116"/>
       <c r="C90" s="116"/>
       <c r="D90" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E90" s="111">
         <v>1</v>
@@ -10028,7 +10034,7 @@
       <c r="B91" s="116"/>
       <c r="C91" s="116"/>
       <c r="D91" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E91" s="111">
         <v>11</v>
@@ -10059,7 +10065,7 @@
       <c r="B92" s="116"/>
       <c r="C92" s="116"/>
       <c r="D92" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E92" s="111">
         <v>12</v>
@@ -10090,11 +10096,11 @@
       <c r="B93" s="116"/>
       <c r="C93" s="116"/>
       <c r="D93" s="107" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E93" s="111"/>
       <c r="F93" s="108" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G93" s="109">
         <v>44196</v>
@@ -10119,7 +10125,7 @@
       <c r="B94" s="116"/>
       <c r="C94" s="116"/>
       <c r="D94" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F94" s="78" t="s">
         <v>173</v>
@@ -10151,14 +10157,14 @@
       <c r="B95" s="116"/>
       <c r="C95" s="116"/>
       <c r="D95" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G95" s="96"/>
       <c r="H95" s="102"/>
       <c r="I95" s="103"/>
       <c r="J95" s="102"/>
       <c r="K95" s="105" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L95" s="104"/>
       <c r="M95" s="103"/>
@@ -10174,10 +10180,10 @@
         <v>87</v>
       </c>
       <c r="D96" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F96" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G96" s="96">
         <v>44196</v>
@@ -10204,13 +10210,13 @@
       <c r="B97" s="116"/>
       <c r="C97" s="116"/>
       <c r="D97" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E97" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="E97" s="78" t="s">
-        <v>423</v>
-      </c>
       <c r="F97" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G97" s="96">
         <v>44196</v>
@@ -10237,13 +10243,13 @@
       <c r="B98" s="116"/>
       <c r="C98" s="116"/>
       <c r="D98" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E98" s="78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F98" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G98" s="96">
         <v>44196</v>
@@ -10275,13 +10281,13 @@
       <c r="B99" s="116"/>
       <c r="C99" s="116"/>
       <c r="D99" s="107" t="s">
+        <v>424</v>
+      </c>
+      <c r="E99" s="108" t="s">
         <v>425</v>
       </c>
-      <c r="E99" s="108" t="s">
-        <v>426</v>
-      </c>
       <c r="F99" s="108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G99" s="109">
         <v>44196</v>
@@ -10308,10 +10314,10 @@
       <c r="B100" s="116"/>
       <c r="C100" s="116"/>
       <c r="D100" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E100" s="111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F100" s="108" t="s">
         <v>58</v>
@@ -10341,7 +10347,7 @@
       <c r="B101" s="116"/>
       <c r="C101" s="116"/>
       <c r="D101" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E101" s="111">
         <v>6</v>
@@ -10374,7 +10380,7 @@
       <c r="B102" s="116"/>
       <c r="C102" s="116"/>
       <c r="D102" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E102" s="111">
         <v>7</v>
@@ -10407,7 +10413,7 @@
       <c r="B103" s="116"/>
       <c r="C103" s="116"/>
       <c r="D103" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E103" s="111">
         <v>1</v>
@@ -10440,7 +10446,7 @@
       <c r="B104" s="116"/>
       <c r="C104" s="116"/>
       <c r="D104" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E104" s="111">
         <v>11</v>
@@ -10473,7 +10479,7 @@
       <c r="B105" s="116"/>
       <c r="C105" s="116"/>
       <c r="D105" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E105" s="111">
         <v>12</v>
@@ -10506,11 +10512,11 @@
       <c r="B106" s="116"/>
       <c r="C106" s="116"/>
       <c r="D106" s="107" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E106" s="111"/>
       <c r="F106" s="108" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G106" s="109">
         <v>44196</v>
@@ -10537,7 +10543,7 @@
       <c r="B107" s="116"/>
       <c r="C107" s="116"/>
       <c r="D107" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F107" s="78" t="s">
         <v>173</v>
@@ -10572,7 +10578,7 @@
       <c r="B108" s="116"/>
       <c r="C108" s="116"/>
       <c r="D108" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G108" s="96"/>
       <c r="H108" s="102"/>
@@ -10580,7 +10586,7 @@
       <c r="J108" s="102"/>
       <c r="K108" s="103"/>
       <c r="L108" s="104" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M108" s="103"/>
     </row>
@@ -10595,11 +10601,11 @@
         <v>87</v>
       </c>
       <c r="D109" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G109" s="96">
         <v>44561</v>
@@ -10626,13 +10632,13 @@
       <c r="B110" s="116"/>
       <c r="C110" s="116"/>
       <c r="D110" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E110" t="s">
         <v>422</v>
       </c>
-      <c r="E110" t="s">
-        <v>423</v>
-      </c>
       <c r="F110" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G110" s="96">
         <v>44561</v>
@@ -10659,13 +10665,13 @@
       <c r="B111" s="116"/>
       <c r="C111" s="116"/>
       <c r="D111" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E111" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F111" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G111" s="96">
         <v>44561</v>
@@ -10697,13 +10703,13 @@
       <c r="B112" s="116"/>
       <c r="C112" s="116"/>
       <c r="D112" s="107" t="s">
+        <v>424</v>
+      </c>
+      <c r="E112" s="108" t="s">
         <v>425</v>
       </c>
-      <c r="E112" s="108" t="s">
-        <v>426</v>
-      </c>
       <c r="F112" s="108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G112" s="109">
         <v>44561</v>
@@ -10730,10 +10736,10 @@
       <c r="B113" s="116"/>
       <c r="C113" s="116"/>
       <c r="D113" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E113" s="111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F113" s="108" t="s">
         <v>58</v>
@@ -10763,7 +10769,7 @@
       <c r="B114" s="116"/>
       <c r="C114" s="116"/>
       <c r="D114" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E114" s="111">
         <v>6</v>
@@ -10796,7 +10802,7 @@
       <c r="B115" s="116"/>
       <c r="C115" s="116"/>
       <c r="D115" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E115" s="111">
         <v>7</v>
@@ -10829,7 +10835,7 @@
       <c r="B116" s="116"/>
       <c r="C116" s="116"/>
       <c r="D116" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E116" s="111">
         <v>1</v>
@@ -10862,7 +10868,7 @@
       <c r="B117" s="116"/>
       <c r="C117" s="116"/>
       <c r="D117" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E117" s="111">
         <v>11</v>
@@ -10895,7 +10901,7 @@
       <c r="B118" s="116"/>
       <c r="C118" s="116"/>
       <c r="D118" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E118" s="111">
         <v>12</v>
@@ -10928,11 +10934,11 @@
       <c r="B119" s="116"/>
       <c r="C119" s="116"/>
       <c r="D119" s="107" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E119" s="111"/>
       <c r="F119" s="108" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G119" s="109"/>
       <c r="H119" s="110"/>
@@ -10957,7 +10963,7 @@
       <c r="B120" s="116"/>
       <c r="C120" s="116"/>
       <c r="D120" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E120"/>
       <c r="F120" t="s">
@@ -10993,7 +10999,7 @@
       <c r="B121" s="116"/>
       <c r="C121" s="116"/>
       <c r="D121" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E121"/>
       <c r="F121"/>
@@ -11004,7 +11010,7 @@
       <c r="K121" s="103"/>
       <c r="L121" s="102"/>
       <c r="M121" s="105" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -11018,11 +11024,11 @@
         <v>93</v>
       </c>
       <c r="D122" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G122" s="96">
         <v>44561</v>
@@ -11049,13 +11055,13 @@
       <c r="B123" s="116"/>
       <c r="C123" s="116"/>
       <c r="D123" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E123" t="s">
         <v>422</v>
       </c>
-      <c r="E123" t="s">
-        <v>423</v>
-      </c>
       <c r="F123" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G123" s="96">
         <v>44561</v>
@@ -11082,13 +11088,13 @@
       <c r="B124" s="116"/>
       <c r="C124" s="116"/>
       <c r="D124" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E124" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F124" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G124" s="96">
         <v>44561</v>
@@ -11115,13 +11121,13 @@
       <c r="B125" s="116"/>
       <c r="C125" s="116"/>
       <c r="D125" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E125" t="s">
         <v>425</v>
       </c>
-      <c r="E125" t="s">
-        <v>426</v>
-      </c>
       <c r="F125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G125" s="96">
         <v>44561</v>
@@ -11148,7 +11154,7 @@
       <c r="B126" s="116"/>
       <c r="C126" s="116"/>
       <c r="D126" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E126"/>
       <c r="F126" t="s">
@@ -11179,7 +11185,7 @@
       <c r="B127" s="116"/>
       <c r="C127" s="116"/>
       <c r="D127" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E127"/>
       <c r="F127"/>
@@ -11202,11 +11208,11 @@
         <v>100</v>
       </c>
       <c r="D128" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G128" s="96">
         <v>44561</v>
@@ -11233,13 +11239,13 @@
       <c r="B129" s="116"/>
       <c r="C129" s="116"/>
       <c r="D129" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E129" t="s">
         <v>422</v>
       </c>
-      <c r="E129" t="s">
-        <v>423</v>
-      </c>
       <c r="F129" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G129" s="96">
         <v>44561</v>
@@ -11266,13 +11272,13 @@
       <c r="B130" s="116"/>
       <c r="C130" s="116"/>
       <c r="D130" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E130" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F130" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G130" s="96">
         <v>44561</v>
@@ -11299,13 +11305,13 @@
       <c r="B131" s="116"/>
       <c r="C131" s="116"/>
       <c r="D131" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E131" t="s">
         <v>425</v>
       </c>
-      <c r="E131" t="s">
-        <v>426</v>
-      </c>
       <c r="F131" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G131" s="96">
         <v>44561</v>
@@ -11322,7 +11328,7 @@
       <c r="B132" s="116"/>
       <c r="C132" s="116"/>
       <c r="D132" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E132"/>
       <c r="F132" t="s">
@@ -11353,7 +11359,7 @@
       <c r="B133" s="116"/>
       <c r="C133" s="116"/>
       <c r="D133" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E133"/>
       <c r="F133"/>
@@ -11376,11 +11382,11 @@
         <v>105</v>
       </c>
       <c r="D134" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E134"/>
       <c r="F134" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G134" s="96">
         <v>44561</v>
@@ -11407,13 +11413,13 @@
       <c r="B135" s="116"/>
       <c r="C135" s="116"/>
       <c r="D135" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E135" t="s">
         <v>422</v>
       </c>
-      <c r="E135" t="s">
-        <v>423</v>
-      </c>
       <c r="F135" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G135" s="96">
         <v>44561</v>
@@ -11440,13 +11446,13 @@
       <c r="B136" s="116"/>
       <c r="C136" s="116"/>
       <c r="D136" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E136" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F136" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G136" s="96">
         <v>44561</v>
@@ -11473,13 +11479,13 @@
       <c r="B137" s="116"/>
       <c r="C137" s="116"/>
       <c r="D137" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E137" t="s">
         <v>425</v>
       </c>
-      <c r="E137" t="s">
-        <v>426</v>
-      </c>
       <c r="F137" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G137" s="96">
         <v>44561</v>
@@ -11506,7 +11512,7 @@
       <c r="B138" s="116"/>
       <c r="C138" s="116"/>
       <c r="D138" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E138"/>
       <c r="F138" t="s">
@@ -11537,7 +11543,7 @@
       <c r="B139" s="116"/>
       <c r="C139" s="116"/>
       <c r="D139" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E139"/>
       <c r="F139"/>
@@ -11560,11 +11566,11 @@
         <v>108</v>
       </c>
       <c r="D140" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E140"/>
       <c r="F140" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G140" s="96">
         <v>44561</v>
@@ -11591,13 +11597,13 @@
       <c r="B141" s="116"/>
       <c r="C141" s="116"/>
       <c r="D141" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E141" t="s">
         <v>422</v>
       </c>
-      <c r="E141" t="s">
-        <v>423</v>
-      </c>
       <c r="F141" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G141" s="96">
         <v>44561</v>
@@ -11624,13 +11630,13 @@
       <c r="B142" s="116"/>
       <c r="C142" s="116"/>
       <c r="D142" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E142" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F142" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G142" s="96">
         <v>44561</v>
@@ -11657,13 +11663,13 @@
       <c r="B143" s="116"/>
       <c r="C143" s="116"/>
       <c r="D143" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E143" t="s">
         <v>425</v>
       </c>
-      <c r="E143" t="s">
-        <v>426</v>
-      </c>
       <c r="F143" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G143" s="96">
         <v>44561</v>
@@ -11690,7 +11696,7 @@
       <c r="B144" s="116"/>
       <c r="C144" s="116"/>
       <c r="D144" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E144"/>
       <c r="F144" t="s">
@@ -11721,7 +11727,7 @@
       <c r="B145" s="116"/>
       <c r="C145" s="116"/>
       <c r="D145" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E145"/>
       <c r="F145"/>
@@ -11744,11 +11750,11 @@
         <v>111</v>
       </c>
       <c r="D146" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E146"/>
       <c r="F146" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G146" s="96">
         <v>44561</v>
@@ -11775,13 +11781,13 @@
       <c r="B147" s="116"/>
       <c r="C147" s="116"/>
       <c r="D147" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E147" t="s">
         <v>422</v>
       </c>
-      <c r="E147" t="s">
-        <v>423</v>
-      </c>
       <c r="F147" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G147" s="96">
         <v>44561</v>
@@ -11808,13 +11814,13 @@
       <c r="B148" s="116"/>
       <c r="C148" s="116"/>
       <c r="D148" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E148" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F148" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G148" s="96">
         <v>44561</v>
@@ -11841,13 +11847,13 @@
       <c r="B149" s="116"/>
       <c r="C149" s="116"/>
       <c r="D149" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E149" t="s">
         <v>425</v>
       </c>
-      <c r="E149" t="s">
-        <v>426</v>
-      </c>
       <c r="F149" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G149" s="96">
         <v>44561</v>
@@ -11864,7 +11870,7 @@
       <c r="B150" s="116"/>
       <c r="C150" s="116"/>
       <c r="D150" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E150"/>
       <c r="F150" t="s">
@@ -11895,7 +11901,7 @@
       <c r="B151" s="116"/>
       <c r="C151" s="116"/>
       <c r="D151" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E151"/>
       <c r="F151"/>
@@ -11918,11 +11924,11 @@
         <v>114</v>
       </c>
       <c r="D152" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E152"/>
       <c r="F152" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G152" s="96">
         <v>44561</v>
@@ -11949,13 +11955,13 @@
       <c r="B153" s="116"/>
       <c r="C153" s="116"/>
       <c r="D153" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E153" t="s">
         <v>422</v>
       </c>
-      <c r="E153" t="s">
-        <v>423</v>
-      </c>
       <c r="F153" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G153" s="96">
         <v>44561</v>
@@ -11982,13 +11988,13 @@
       <c r="B154" s="116"/>
       <c r="C154" s="116"/>
       <c r="D154" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F154" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G154" s="96">
         <v>44561</v>
@@ -12015,13 +12021,13 @@
       <c r="B155" s="116"/>
       <c r="C155" s="116"/>
       <c r="D155" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E155" t="s">
         <v>425</v>
       </c>
-      <c r="E155" t="s">
-        <v>426</v>
-      </c>
       <c r="F155" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G155" s="96">
         <v>44561</v>
@@ -12038,7 +12044,7 @@
       <c r="B156" s="116"/>
       <c r="C156" s="116"/>
       <c r="D156" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E156"/>
       <c r="F156" t="s">
@@ -12069,7 +12075,7 @@
       <c r="B157" s="116"/>
       <c r="C157" s="116"/>
       <c r="D157" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E157"/>
       <c r="F157"/>
@@ -12092,11 +12098,11 @@
         <v>117</v>
       </c>
       <c r="D158" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E158"/>
       <c r="F158" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G158" s="96">
         <v>44561</v>
@@ -12123,13 +12129,13 @@
       <c r="B159" s="116"/>
       <c r="C159" s="116"/>
       <c r="D159" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E159" t="s">
         <v>422</v>
       </c>
-      <c r="E159" t="s">
-        <v>423</v>
-      </c>
       <c r="F159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G159" s="96">
         <v>44561</v>
@@ -12156,13 +12162,13 @@
       <c r="B160" s="116"/>
       <c r="C160" s="116"/>
       <c r="D160" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E160" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F160" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G160" s="96">
         <v>44561</v>
@@ -12189,13 +12195,13 @@
       <c r="B161" s="116"/>
       <c r="C161" s="116"/>
       <c r="D161" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E161" t="s">
         <v>425</v>
       </c>
-      <c r="E161" t="s">
-        <v>426</v>
-      </c>
       <c r="F161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G161" s="96">
         <v>44561</v>
@@ -12212,7 +12218,7 @@
       <c r="B162" s="116"/>
       <c r="C162" s="116"/>
       <c r="D162" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E162"/>
       <c r="F162" t="s">
@@ -12243,7 +12249,7 @@
       <c r="B163" s="116"/>
       <c r="C163" s="116"/>
       <c r="D163" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E163"/>
       <c r="F163"/>
@@ -12266,11 +12272,11 @@
         <v>120</v>
       </c>
       <c r="D164" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E164"/>
       <c r="F164" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G164" s="96">
         <v>44561</v>
@@ -12297,13 +12303,13 @@
       <c r="B165" s="116"/>
       <c r="C165" s="116"/>
       <c r="D165" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E165" t="s">
         <v>422</v>
       </c>
-      <c r="E165" t="s">
-        <v>423</v>
-      </c>
       <c r="F165" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G165" s="96">
         <v>44561</v>
@@ -12330,13 +12336,13 @@
       <c r="B166" s="116"/>
       <c r="C166" s="116"/>
       <c r="D166" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E166" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F166" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G166" s="96">
         <v>44561</v>
@@ -12363,13 +12369,13 @@
       <c r="B167" s="116"/>
       <c r="C167" s="116"/>
       <c r="D167" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E167" t="s">
         <v>425</v>
       </c>
-      <c r="E167" t="s">
-        <v>426</v>
-      </c>
       <c r="F167" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G167" s="96">
         <v>44561</v>
@@ -12386,7 +12392,7 @@
       <c r="B168" s="116"/>
       <c r="C168" s="116"/>
       <c r="D168" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E168"/>
       <c r="F168" t="s">
@@ -12417,7 +12423,7 @@
       <c r="B169" s="116"/>
       <c r="C169" s="116"/>
       <c r="D169" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E169"/>
       <c r="F169"/>
@@ -12440,11 +12446,11 @@
         <v>123</v>
       </c>
       <c r="D170" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E170"/>
       <c r="F170" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G170" s="96">
         <v>44561</v>
@@ -12473,13 +12479,13 @@
       <c r="B171" s="116"/>
       <c r="C171" s="116"/>
       <c r="D171" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E171" t="s">
         <v>422</v>
       </c>
-      <c r="E171" t="s">
-        <v>423</v>
-      </c>
       <c r="F171" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G171" s="96">
         <v>44561</v>
@@ -12508,13 +12514,13 @@
       <c r="B172" s="116"/>
       <c r="C172" s="116"/>
       <c r="D172" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E172" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F172" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G172" s="96">
         <v>44561</v>
@@ -12543,13 +12549,13 @@
       <c r="B173" s="116"/>
       <c r="C173" s="116"/>
       <c r="D173" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E173" t="s">
         <v>425</v>
       </c>
-      <c r="E173" t="s">
-        <v>426</v>
-      </c>
       <c r="F173" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G173" s="96">
         <v>44561</v>
@@ -12566,7 +12572,7 @@
       <c r="B174" s="116"/>
       <c r="C174" s="116"/>
       <c r="D174" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E174"/>
       <c r="F174" t="s">
@@ -12599,7 +12605,7 @@
       <c r="B175" s="116"/>
       <c r="C175" s="116"/>
       <c r="D175" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E175"/>
       <c r="F175"/>
@@ -12622,11 +12628,11 @@
         <v>126</v>
       </c>
       <c r="D176" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E176"/>
       <c r="F176" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G176" s="96">
         <v>44561</v>
@@ -12653,13 +12659,13 @@
       <c r="B177" s="116"/>
       <c r="C177" s="116"/>
       <c r="D177" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E177" t="s">
         <v>422</v>
       </c>
-      <c r="E177" t="s">
-        <v>423</v>
-      </c>
       <c r="F177" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G177" s="96">
         <v>44561</v>
@@ -12686,13 +12692,13 @@
       <c r="B178" s="116"/>
       <c r="C178" s="116"/>
       <c r="D178" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E178" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F178" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G178" s="96">
         <v>44561</v>
@@ -12719,13 +12725,13 @@
       <c r="B179" s="116"/>
       <c r="C179" s="116"/>
       <c r="D179" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E179" t="s">
         <v>425</v>
       </c>
-      <c r="E179" t="s">
-        <v>426</v>
-      </c>
       <c r="F179" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G179" s="96">
         <v>44561</v>
@@ -12742,7 +12748,7 @@
       <c r="B180" s="116"/>
       <c r="C180" s="116"/>
       <c r="D180" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E180"/>
       <c r="F180" t="s">
@@ -12773,7 +12779,7 @@
       <c r="B181" s="116"/>
       <c r="C181" s="116"/>
       <c r="D181" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E181"/>
       <c r="F181"/>
@@ -12796,11 +12802,11 @@
         <v>129</v>
       </c>
       <c r="D182" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E182"/>
       <c r="F182" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G182" s="96">
         <v>44561</v>
@@ -12827,13 +12833,13 @@
       <c r="B183" s="116"/>
       <c r="C183" s="116"/>
       <c r="D183" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E183" t="s">
         <v>422</v>
       </c>
-      <c r="E183" t="s">
-        <v>423</v>
-      </c>
       <c r="F183" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G183" s="96">
         <v>44561</v>
@@ -12860,13 +12866,13 @@
       <c r="B184" s="116"/>
       <c r="C184" s="116"/>
       <c r="D184" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E184" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F184" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G184" s="96">
         <v>44561</v>
@@ -12893,13 +12899,13 @@
       <c r="B185" s="116"/>
       <c r="C185" s="116"/>
       <c r="D185" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E185" t="s">
         <v>425</v>
       </c>
-      <c r="E185" t="s">
-        <v>426</v>
-      </c>
       <c r="F185" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G185" s="96">
         <v>44561</v>
@@ -12916,7 +12922,7 @@
       <c r="B186" s="116"/>
       <c r="C186" s="116"/>
       <c r="D186" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E186"/>
       <c r="F186" t="s">
@@ -12947,7 +12953,7 @@
       <c r="B187" s="116"/>
       <c r="C187" s="116"/>
       <c r="D187" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E187"/>
       <c r="F187"/>
@@ -12970,11 +12976,11 @@
         <v>132</v>
       </c>
       <c r="D188" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E188"/>
       <c r="F188" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G188" s="96">
         <v>44561</v>
@@ -12999,13 +13005,13 @@
       <c r="B189" s="116"/>
       <c r="C189" s="116"/>
       <c r="D189" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E189" t="s">
         <v>422</v>
       </c>
-      <c r="E189" t="s">
-        <v>423</v>
-      </c>
       <c r="F189" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G189" s="96">
         <v>44561</v>
@@ -13030,13 +13036,13 @@
       <c r="B190" s="116"/>
       <c r="C190" s="116"/>
       <c r="D190" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E190" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F190" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G190" s="96">
         <v>44561</v>
@@ -13061,13 +13067,13 @@
       <c r="B191" s="116"/>
       <c r="C191" s="116"/>
       <c r="D191" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E191" t="s">
         <v>425</v>
       </c>
-      <c r="E191" t="s">
-        <v>426</v>
-      </c>
       <c r="F191" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G191" s="96">
         <v>44561</v>
@@ -13092,7 +13098,7 @@
       <c r="B192" s="116"/>
       <c r="C192" s="116"/>
       <c r="D192" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E192"/>
       <c r="F192" t="s">
@@ -13123,7 +13129,7 @@
       <c r="B193" s="116"/>
       <c r="C193" s="116"/>
       <c r="D193" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E193"/>
       <c r="F193"/>
@@ -13146,11 +13152,11 @@
         <v>136</v>
       </c>
       <c r="D194" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E194"/>
       <c r="F194" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G194" s="96">
         <v>44561</v>
@@ -13179,13 +13185,13 @@
       <c r="B195" s="116"/>
       <c r="C195" s="116"/>
       <c r="D195" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E195" t="s">
         <v>422</v>
       </c>
-      <c r="E195" t="s">
-        <v>423</v>
-      </c>
       <c r="F195" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G195" s="96">
         <v>44561</v>
@@ -13214,13 +13220,13 @@
       <c r="B196" s="116"/>
       <c r="C196" s="116"/>
       <c r="D196" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E196" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F196" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G196" s="96">
         <v>44561</v>
@@ -13249,13 +13255,13 @@
       <c r="B197" s="116"/>
       <c r="C197" s="116"/>
       <c r="D197" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E197" t="s">
         <v>425</v>
       </c>
-      <c r="E197" t="s">
-        <v>426</v>
-      </c>
       <c r="F197" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G197" s="96">
         <v>44561</v>
@@ -13284,7 +13290,7 @@
       <c r="B198" s="116"/>
       <c r="C198" s="116"/>
       <c r="D198" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E198"/>
       <c r="F198" t="s">
@@ -13317,7 +13323,7 @@
       <c r="B199" s="116"/>
       <c r="C199" s="116"/>
       <c r="D199" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E199"/>
       <c r="F199"/>
@@ -13340,11 +13346,11 @@
         <v>139</v>
       </c>
       <c r="D200" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E200"/>
       <c r="F200" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G200" s="96">
         <v>44561</v>
@@ -13367,13 +13373,13 @@
       <c r="B201" s="116"/>
       <c r="C201" s="116"/>
       <c r="D201" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E201" t="s">
         <v>422</v>
       </c>
-      <c r="E201" t="s">
-        <v>423</v>
-      </c>
       <c r="F201" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G201" s="96">
         <v>44561</v>
@@ -13396,13 +13402,13 @@
       <c r="B202" s="116"/>
       <c r="C202" s="116"/>
       <c r="D202" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E202" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F202" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G202" s="96">
         <v>44561</v>
@@ -13425,13 +13431,13 @@
       <c r="B203" s="116"/>
       <c r="C203" s="116"/>
       <c r="D203" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E203" t="s">
         <v>425</v>
       </c>
-      <c r="E203" t="s">
-        <v>426</v>
-      </c>
       <c r="F203" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G203" s="96">
         <v>44561</v>
@@ -13454,7 +13460,7 @@
       <c r="B204" s="116"/>
       <c r="C204" s="116"/>
       <c r="D204" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E204"/>
       <c r="F204" t="s">
@@ -13481,7 +13487,7 @@
       <c r="B205" s="116"/>
       <c r="C205" s="116"/>
       <c r="D205" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E205"/>
       <c r="F205"/>
@@ -13504,11 +13510,11 @@
         <v>145</v>
       </c>
       <c r="D206" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E206"/>
       <c r="F206" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G206" s="96">
         <v>44561</v>
@@ -13535,13 +13541,13 @@
       <c r="B207" s="116"/>
       <c r="C207" s="116"/>
       <c r="D207" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E207" t="s">
         <v>422</v>
       </c>
-      <c r="E207" t="s">
-        <v>423</v>
-      </c>
       <c r="F207" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G207" s="96">
         <v>44561</v>
@@ -13568,13 +13574,13 @@
       <c r="B208" s="116"/>
       <c r="C208" s="116"/>
       <c r="D208" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E208" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F208" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G208" s="96">
         <v>44561</v>
@@ -13601,13 +13607,13 @@
       <c r="B209" s="116"/>
       <c r="C209" s="116"/>
       <c r="D209" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E209" t="s">
         <v>425</v>
       </c>
-      <c r="E209" t="s">
-        <v>426</v>
-      </c>
       <c r="F209" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G209" s="96">
         <v>44561</v>
@@ -13624,7 +13630,7 @@
       <c r="B210" s="116"/>
       <c r="C210" s="116"/>
       <c r="D210" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E210"/>
       <c r="F210" t="s">
@@ -13655,7 +13661,7 @@
       <c r="B211" s="116"/>
       <c r="C211" s="116"/>
       <c r="D211" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E211"/>
       <c r="F211"/>
@@ -13678,11 +13684,11 @@
         <v>148</v>
       </c>
       <c r="D212" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E212"/>
       <c r="F212" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G212" s="96">
         <v>44561</v>
@@ -13709,13 +13715,13 @@
       <c r="B213" s="116"/>
       <c r="C213" s="116"/>
       <c r="D213" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E213" t="s">
         <v>422</v>
       </c>
-      <c r="E213" t="s">
-        <v>423</v>
-      </c>
       <c r="F213" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G213" s="96">
         <v>44561</v>
@@ -13742,13 +13748,13 @@
       <c r="B214" s="116"/>
       <c r="C214" s="116"/>
       <c r="D214" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F214" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G214" s="96">
         <v>44561</v>
@@ -13775,13 +13781,13 @@
       <c r="B215" s="116"/>
       <c r="C215" s="116"/>
       <c r="D215" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E215" t="s">
         <v>425</v>
       </c>
-      <c r="E215" t="s">
-        <v>426</v>
-      </c>
       <c r="F215" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G215" s="96">
         <v>44561</v>
@@ -13798,7 +13804,7 @@
       <c r="B216" s="116"/>
       <c r="C216" s="116"/>
       <c r="D216" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E216"/>
       <c r="F216" t="s">
@@ -13829,7 +13835,7 @@
       <c r="B217" s="116"/>
       <c r="C217" s="116"/>
       <c r="D217" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E217"/>
       <c r="F217"/>
@@ -13852,11 +13858,11 @@
         <v>151</v>
       </c>
       <c r="D218" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E218"/>
       <c r="F218" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G218" s="96">
         <v>44561</v>
@@ -13883,13 +13889,13 @@
       <c r="B219" s="116"/>
       <c r="C219" s="116"/>
       <c r="D219" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E219" t="s">
         <v>422</v>
       </c>
-      <c r="E219" t="s">
-        <v>423</v>
-      </c>
       <c r="F219" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G219" s="96">
         <v>44561</v>
@@ -13916,13 +13922,13 @@
       <c r="B220" s="116"/>
       <c r="C220" s="116"/>
       <c r="D220" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G220" s="96">
         <v>44561</v>
@@ -13949,13 +13955,13 @@
       <c r="B221" s="116"/>
       <c r="C221" s="116"/>
       <c r="D221" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E221" t="s">
         <v>425</v>
       </c>
-      <c r="E221" t="s">
-        <v>426</v>
-      </c>
       <c r="F221" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G221" s="96">
         <v>44561</v>
@@ -13972,7 +13978,7 @@
       <c r="B222" s="116"/>
       <c r="C222" s="116"/>
       <c r="D222" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E222"/>
       <c r="F222" t="s">
@@ -14003,7 +14009,7 @@
       <c r="B223" s="116"/>
       <c r="C223" s="116"/>
       <c r="D223" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E223"/>
       <c r="F223"/>
@@ -14026,11 +14032,11 @@
         <v>154</v>
       </c>
       <c r="D224" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E224"/>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G224" s="96">
         <v>44561</v>
@@ -14057,13 +14063,13 @@
       <c r="B225" s="116"/>
       <c r="C225" s="116"/>
       <c r="D225" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E225" t="s">
         <v>422</v>
       </c>
-      <c r="E225" t="s">
-        <v>423</v>
-      </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G225" s="96">
         <v>44561</v>
@@ -14090,13 +14096,13 @@
       <c r="B226" s="116"/>
       <c r="C226" s="116"/>
       <c r="D226" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G226" s="96">
         <v>44561</v>
@@ -14123,13 +14129,13 @@
       <c r="B227" s="116"/>
       <c r="C227" s="116"/>
       <c r="D227" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E227" t="s">
         <v>425</v>
       </c>
-      <c r="E227" t="s">
-        <v>426</v>
-      </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G227" s="96">
         <v>44561</v>
@@ -14146,7 +14152,7 @@
       <c r="B228" s="116"/>
       <c r="C228" s="116"/>
       <c r="D228" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E228"/>
       <c r="F228" t="s">
@@ -14177,7 +14183,7 @@
       <c r="B229" s="116"/>
       <c r="C229" s="116"/>
       <c r="D229" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E229"/>
       <c r="F229"/>
@@ -14200,11 +14206,11 @@
         <v>157</v>
       </c>
       <c r="D230" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E230"/>
       <c r="F230" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G230" s="96">
         <v>44561</v>
@@ -14233,13 +14239,13 @@
       <c r="B231" s="116"/>
       <c r="C231" s="116"/>
       <c r="D231" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E231" t="s">
         <v>422</v>
       </c>
-      <c r="E231" t="s">
-        <v>423</v>
-      </c>
       <c r="F231" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G231" s="96">
         <v>44561</v>
@@ -14268,13 +14274,13 @@
       <c r="B232" s="116"/>
       <c r="C232" s="116"/>
       <c r="D232" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E232" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F232" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G232" s="96">
         <v>44561</v>
@@ -14303,13 +14309,13 @@
       <c r="B233" s="116"/>
       <c r="C233" s="116"/>
       <c r="D233" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E233" t="s">
         <v>425</v>
       </c>
-      <c r="E233" t="s">
-        <v>426</v>
-      </c>
       <c r="F233" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G233" s="96">
         <v>44561</v>
@@ -14338,7 +14344,7 @@
       <c r="B234" s="116"/>
       <c r="C234" s="116"/>
       <c r="D234" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E234"/>
       <c r="F234" t="s">
@@ -14371,7 +14377,7 @@
       <c r="B235" s="116"/>
       <c r="C235" s="116"/>
       <c r="D235" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E235"/>
       <c r="F235"/>
@@ -14394,11 +14400,11 @@
         <v>161</v>
       </c>
       <c r="D236" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E236"/>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G236" s="96">
         <v>44561</v>
@@ -14423,13 +14429,13 @@
       <c r="B237" s="116"/>
       <c r="C237" s="116"/>
       <c r="D237" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E237" t="s">
         <v>422</v>
       </c>
-      <c r="E237" t="s">
-        <v>423</v>
-      </c>
       <c r="F237" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G237" s="96">
         <v>44561</v>
@@ -14454,13 +14460,13 @@
       <c r="B238" s="116"/>
       <c r="C238" s="116"/>
       <c r="D238" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E238" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F238" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G238" s="96">
         <v>44561</v>
@@ -14485,13 +14491,13 @@
       <c r="B239" s="116"/>
       <c r="C239" s="116"/>
       <c r="D239" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E239" t="s">
         <v>425</v>
       </c>
-      <c r="E239" t="s">
-        <v>426</v>
-      </c>
       <c r="F239" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G239" s="96">
         <v>44561</v>
@@ -14508,7 +14514,7 @@
       <c r="B240" s="116"/>
       <c r="C240" s="116"/>
       <c r="D240" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E240"/>
       <c r="F240" t="s">
@@ -14537,7 +14543,7 @@
       <c r="B241" s="116"/>
       <c r="C241" s="116"/>
       <c r="D241" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E241"/>
       <c r="F241"/>
@@ -14560,11 +14566,11 @@
         <v>164</v>
       </c>
       <c r="D242" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E242"/>
       <c r="F242" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G242" s="96">
         <v>44561</v>
@@ -14589,13 +14595,13 @@
       <c r="B243" s="116"/>
       <c r="C243" s="116"/>
       <c r="D243" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E243" t="s">
         <v>422</v>
       </c>
-      <c r="E243" t="s">
-        <v>423</v>
-      </c>
       <c r="F243" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G243" s="96">
         <v>44561</v>
@@ -14620,13 +14626,13 @@
       <c r="B244" s="116"/>
       <c r="C244" s="116"/>
       <c r="D244" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E244" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G244" s="96">
         <v>44561</v>
@@ -14651,13 +14657,13 @@
       <c r="B245" s="116"/>
       <c r="C245" s="116"/>
       <c r="D245" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E245" t="s">
         <v>425</v>
       </c>
-      <c r="E245" t="s">
-        <v>426</v>
-      </c>
       <c r="F245" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G245" s="96">
         <v>44561</v>
@@ -14682,7 +14688,7 @@
       <c r="B246" s="116"/>
       <c r="C246" s="116"/>
       <c r="D246" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E246"/>
       <c r="F246" t="s">
@@ -14709,7 +14715,7 @@
       <c r="B247" s="116"/>
       <c r="C247" s="116"/>
       <c r="D247" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E247"/>
       <c r="F247"/>
@@ -14732,11 +14738,11 @@
         <v>168</v>
       </c>
       <c r="D248" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E248"/>
       <c r="F248" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G248" s="96">
         <v>44561</v>
@@ -14763,13 +14769,13 @@
       <c r="B249" s="116"/>
       <c r="C249" s="116"/>
       <c r="D249" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E249" t="s">
         <v>422</v>
       </c>
-      <c r="E249" t="s">
-        <v>423</v>
-      </c>
       <c r="F249" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G249" s="96">
         <v>44561</v>
@@ -14796,13 +14802,13 @@
       <c r="B250" s="116"/>
       <c r="C250" s="116"/>
       <c r="D250" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E250" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F250" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G250" s="96">
         <v>44561</v>
@@ -14829,13 +14835,13 @@
       <c r="B251" s="116"/>
       <c r="C251" s="116"/>
       <c r="D251" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E251" t="s">
         <v>425</v>
       </c>
-      <c r="E251" t="s">
-        <v>426</v>
-      </c>
       <c r="F251" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G251" s="96">
         <v>44561</v>
@@ -14852,7 +14858,7 @@
       <c r="B252" s="116"/>
       <c r="C252" s="116"/>
       <c r="D252" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E252"/>
       <c r="F252" t="s">
@@ -14883,7 +14889,7 @@
       <c r="B253" s="116"/>
       <c r="C253" s="116"/>
       <c r="D253" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E253"/>
       <c r="F253"/>
@@ -14906,11 +14912,11 @@
         <v>172</v>
       </c>
       <c r="D254" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E254"/>
       <c r="F254" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G254" s="96">
         <v>44561</v>
@@ -14933,13 +14939,13 @@
       <c r="B255" s="116"/>
       <c r="C255" s="116"/>
       <c r="D255" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E255" t="s">
         <v>422</v>
       </c>
-      <c r="E255" t="s">
-        <v>423</v>
-      </c>
       <c r="F255" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G255" s="96">
         <v>44561</v>
@@ -14962,13 +14968,13 @@
       <c r="B256" s="116"/>
       <c r="C256" s="116"/>
       <c r="D256" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E256" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F256" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G256" s="96">
         <v>44561</v>
@@ -14991,13 +14997,13 @@
       <c r="B257" s="116"/>
       <c r="C257" s="116"/>
       <c r="D257" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E257" t="s">
         <v>425</v>
       </c>
-      <c r="E257" t="s">
-        <v>426</v>
-      </c>
       <c r="F257" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G257" s="96">
         <v>44561</v>
@@ -15020,7 +15026,7 @@
       <c r="B258" s="116"/>
       <c r="C258" s="116"/>
       <c r="D258" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E258"/>
       <c r="F258" t="s">
@@ -15047,7 +15053,7 @@
       <c r="B259" s="116"/>
       <c r="C259" s="116"/>
       <c r="D259" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E259"/>
       <c r="F259"/>
@@ -15070,11 +15076,11 @@
         <v>176</v>
       </c>
       <c r="D260" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E260"/>
       <c r="F260" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G260" s="96">
         <v>44561</v>
@@ -15101,13 +15107,13 @@
       <c r="B261" s="116"/>
       <c r="C261" s="116"/>
       <c r="D261" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E261" t="s">
         <v>422</v>
       </c>
-      <c r="E261" t="s">
-        <v>423</v>
-      </c>
       <c r="F261" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G261" s="96">
         <v>44561</v>
@@ -15134,13 +15140,13 @@
       <c r="B262" s="116"/>
       <c r="C262" s="116"/>
       <c r="D262" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E262" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F262" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G262" s="96">
         <v>44561</v>
@@ -15167,13 +15173,13 @@
       <c r="B263" s="116"/>
       <c r="C263" s="116"/>
       <c r="D263" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E263" t="s">
         <v>425</v>
       </c>
-      <c r="E263" t="s">
-        <v>426</v>
-      </c>
       <c r="F263" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G263" s="96">
         <v>44561</v>
@@ -15190,7 +15196,7 @@
       <c r="B264" s="116"/>
       <c r="C264" s="116"/>
       <c r="D264" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E264"/>
       <c r="F264" t="s">
@@ -15221,7 +15227,7 @@
       <c r="B265" s="116"/>
       <c r="C265" s="116"/>
       <c r="D265" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E265"/>
       <c r="F265"/>
@@ -15244,11 +15250,11 @@
         <v>180</v>
       </c>
       <c r="D266" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E266"/>
       <c r="F266" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G266" s="96">
         <v>44561</v>
@@ -15275,13 +15281,13 @@
       <c r="B267" s="116"/>
       <c r="C267" s="116"/>
       <c r="D267" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E267" t="s">
         <v>422</v>
       </c>
-      <c r="E267" t="s">
-        <v>423</v>
-      </c>
       <c r="F267" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G267" s="96">
         <v>44561</v>
@@ -15308,13 +15314,13 @@
       <c r="B268" s="116"/>
       <c r="C268" s="116"/>
       <c r="D268" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E268" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F268" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G268" s="96">
         <v>44561</v>
@@ -15341,13 +15347,13 @@
       <c r="B269" s="116"/>
       <c r="C269" s="116"/>
       <c r="D269" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E269" t="s">
         <v>425</v>
       </c>
-      <c r="E269" t="s">
-        <v>426</v>
-      </c>
       <c r="F269" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G269" s="96">
         <v>44561</v>
@@ -15364,7 +15370,7 @@
       <c r="B270" s="116"/>
       <c r="C270" s="116"/>
       <c r="D270" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E270"/>
       <c r="F270" t="s">
@@ -15395,7 +15401,7 @@
       <c r="B271" s="116"/>
       <c r="C271" s="116"/>
       <c r="D271" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E271"/>
       <c r="F271"/>
@@ -15418,11 +15424,11 @@
         <v>183</v>
       </c>
       <c r="D272" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E272"/>
       <c r="F272" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G272" s="96">
         <v>44561</v>
@@ -15449,13 +15455,13 @@
       <c r="B273" s="116"/>
       <c r="C273" s="116"/>
       <c r="D273" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E273" t="s">
         <v>422</v>
       </c>
-      <c r="E273" t="s">
-        <v>423</v>
-      </c>
       <c r="F273" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G273" s="96">
         <v>44561</v>
@@ -15482,13 +15488,13 @@
       <c r="B274" s="116"/>
       <c r="C274" s="116"/>
       <c r="D274" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E274" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F274" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G274" s="96">
         <v>44561</v>
@@ -15515,13 +15521,13 @@
       <c r="B275" s="116"/>
       <c r="C275" s="116"/>
       <c r="D275" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E275" t="s">
         <v>425</v>
       </c>
-      <c r="E275" t="s">
-        <v>426</v>
-      </c>
       <c r="F275" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G275" s="96">
         <v>44561</v>
@@ -15548,7 +15554,7 @@
       <c r="B276" s="116"/>
       <c r="C276" s="116"/>
       <c r="D276" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E276"/>
       <c r="F276" t="s">
@@ -15579,7 +15585,7 @@
       <c r="B277" s="116"/>
       <c r="C277" s="116"/>
       <c r="D277" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E277"/>
       <c r="F277"/>
@@ -15602,11 +15608,11 @@
         <v>187</v>
       </c>
       <c r="D278" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E278"/>
       <c r="F278" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G278" s="96">
         <v>44561</v>
@@ -15633,13 +15639,13 @@
       <c r="B279" s="116"/>
       <c r="C279" s="116"/>
       <c r="D279" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E279" t="s">
         <v>422</v>
       </c>
-      <c r="E279" t="s">
-        <v>423</v>
-      </c>
       <c r="F279" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G279" s="96">
         <v>44561</v>
@@ -15666,13 +15672,13 @@
       <c r="B280" s="116"/>
       <c r="C280" s="116"/>
       <c r="D280" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E280" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F280" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G280" s="96">
         <v>44561</v>
@@ -15699,13 +15705,13 @@
       <c r="B281" s="116"/>
       <c r="C281" s="116"/>
       <c r="D281" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E281" t="s">
         <v>425</v>
       </c>
-      <c r="E281" t="s">
-        <v>426</v>
-      </c>
       <c r="F281" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G281" s="96">
         <v>44561</v>
@@ -15732,7 +15738,7 @@
       <c r="B282" s="116"/>
       <c r="C282" s="116"/>
       <c r="D282" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E282"/>
       <c r="F282" t="s">
@@ -15763,7 +15769,7 @@
       <c r="B283" s="116"/>
       <c r="C283" s="116"/>
       <c r="D283" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E283"/>
       <c r="F283"/>
@@ -15786,11 +15792,11 @@
         <v>191</v>
       </c>
       <c r="D284" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E284"/>
       <c r="F284" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G284" s="96">
         <v>44561</v>
@@ -15817,13 +15823,13 @@
       <c r="B285" s="116"/>
       <c r="C285" s="116"/>
       <c r="D285" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E285" t="s">
         <v>422</v>
       </c>
-      <c r="E285" t="s">
-        <v>423</v>
-      </c>
       <c r="F285" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G285" s="96">
         <v>44561</v>
@@ -15850,13 +15856,13 @@
       <c r="B286" s="116"/>
       <c r="C286" s="116"/>
       <c r="D286" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E286" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F286" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G286" s="96">
         <v>44561</v>
@@ -15883,13 +15889,13 @@
       <c r="B287" s="116"/>
       <c r="C287" s="116"/>
       <c r="D287" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E287" t="s">
         <v>425</v>
       </c>
-      <c r="E287" t="s">
-        <v>426</v>
-      </c>
       <c r="F287" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G287" s="96">
         <v>44561</v>
@@ -15906,7 +15912,7 @@
       <c r="B288" s="116"/>
       <c r="C288" s="116"/>
       <c r="D288" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E288"/>
       <c r="F288" t="s">
@@ -15937,7 +15943,7 @@
       <c r="B289" s="116"/>
       <c r="C289" s="116"/>
       <c r="D289" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E289"/>
       <c r="F289"/>
@@ -15960,11 +15966,11 @@
         <v>194</v>
       </c>
       <c r="D290" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E290"/>
       <c r="F290" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G290" s="96">
         <v>44561</v>
@@ -15991,13 +15997,13 @@
       <c r="B291" s="116"/>
       <c r="C291" s="116"/>
       <c r="D291" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E291" t="s">
         <v>422</v>
       </c>
-      <c r="E291" t="s">
-        <v>423</v>
-      </c>
       <c r="F291" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G291" s="96">
         <v>44561</v>
@@ -16024,13 +16030,13 @@
       <c r="B292" s="116"/>
       <c r="C292" s="116"/>
       <c r="D292" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E292" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F292" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G292" s="96">
         <v>44561</v>
@@ -16057,13 +16063,13 @@
       <c r="B293" s="116"/>
       <c r="C293" s="116"/>
       <c r="D293" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E293" t="s">
         <v>425</v>
       </c>
-      <c r="E293" t="s">
-        <v>426</v>
-      </c>
       <c r="F293" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G293" s="96">
         <v>44561</v>
@@ -16080,7 +16086,7 @@
       <c r="B294" s="116"/>
       <c r="C294" s="116"/>
       <c r="D294" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E294"/>
       <c r="F294" t="s">
@@ -16111,7 +16117,7 @@
       <c r="B295" s="116"/>
       <c r="C295" s="116"/>
       <c r="D295" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E295"/>
       <c r="F295"/>
@@ -16134,11 +16140,11 @@
         <v>197</v>
       </c>
       <c r="D296" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E296"/>
       <c r="F296" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G296" s="96">
         <v>44561</v>
@@ -16165,13 +16171,13 @@
       <c r="B297" s="116"/>
       <c r="C297" s="116"/>
       <c r="D297" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E297" t="s">
         <v>422</v>
       </c>
-      <c r="E297" t="s">
-        <v>423</v>
-      </c>
       <c r="F297" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G297" s="96">
         <v>44561</v>
@@ -16198,13 +16204,13 @@
       <c r="B298" s="116"/>
       <c r="C298" s="116"/>
       <c r="D298" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E298" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F298" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G298" s="96">
         <v>44561</v>
@@ -16231,13 +16237,13 @@
       <c r="B299" s="116"/>
       <c r="C299" s="116"/>
       <c r="D299" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E299" t="s">
         <v>425</v>
       </c>
-      <c r="E299" t="s">
-        <v>426</v>
-      </c>
       <c r="F299" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G299" s="96">
         <v>44561</v>
@@ -16254,7 +16260,7 @@
       <c r="B300" s="116"/>
       <c r="C300" s="116"/>
       <c r="D300" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E300"/>
       <c r="F300" t="s">
@@ -16285,7 +16291,7 @@
       <c r="B301" s="116"/>
       <c r="C301" s="116"/>
       <c r="D301" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E301"/>
       <c r="F301"/>
@@ -16308,11 +16314,11 @@
         <v>200</v>
       </c>
       <c r="D302" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E302"/>
       <c r="F302" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G302" s="96">
         <v>44561</v>
@@ -16339,13 +16345,13 @@
       <c r="B303" s="116"/>
       <c r="C303" s="116"/>
       <c r="D303" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E303" t="s">
         <v>422</v>
       </c>
-      <c r="E303" t="s">
-        <v>423</v>
-      </c>
       <c r="F303" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G303" s="96">
         <v>44561</v>
@@ -16372,13 +16378,13 @@
       <c r="B304" s="116"/>
       <c r="C304" s="116"/>
       <c r="D304" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E304" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F304" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G304" s="96">
         <v>44561</v>
@@ -16405,13 +16411,13 @@
       <c r="B305" s="116"/>
       <c r="C305" s="116"/>
       <c r="D305" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E305" t="s">
         <v>425</v>
       </c>
-      <c r="E305" t="s">
-        <v>426</v>
-      </c>
       <c r="F305" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G305" s="96">
         <v>44561</v>
@@ -16438,7 +16444,7 @@
       <c r="B306" s="116"/>
       <c r="C306" s="116"/>
       <c r="D306" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E306"/>
       <c r="F306" t="s">
@@ -16469,7 +16475,7 @@
       <c r="B307" s="116"/>
       <c r="C307" s="116"/>
       <c r="D307" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E307"/>
       <c r="F307"/>
@@ -16492,11 +16498,11 @@
         <v>205</v>
       </c>
       <c r="D308" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E308"/>
       <c r="F308" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G308" s="96">
         <v>44561</v>
@@ -16523,13 +16529,13 @@
       <c r="B309" s="116"/>
       <c r="C309" s="116"/>
       <c r="D309" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E309" t="s">
         <v>422</v>
       </c>
-      <c r="E309" t="s">
-        <v>423</v>
-      </c>
       <c r="F309" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G309" s="96">
         <v>44561</v>
@@ -16556,13 +16562,13 @@
       <c r="B310" s="116"/>
       <c r="C310" s="116"/>
       <c r="D310" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E310" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F310" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G310" s="96">
         <v>44561</v>
@@ -16589,13 +16595,13 @@
       <c r="B311" s="116"/>
       <c r="C311" s="116"/>
       <c r="D311" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E311" t="s">
         <v>425</v>
       </c>
-      <c r="E311" t="s">
-        <v>426</v>
-      </c>
       <c r="F311" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G311" s="96">
         <v>44561</v>
@@ -16612,7 +16618,7 @@
       <c r="B312" s="116"/>
       <c r="C312" s="116"/>
       <c r="D312" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E312"/>
       <c r="F312" t="s">
@@ -16643,7 +16649,7 @@
       <c r="B313" s="116"/>
       <c r="C313" s="116"/>
       <c r="D313" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E313"/>
       <c r="F313"/>
@@ -16666,11 +16672,11 @@
         <v>208</v>
       </c>
       <c r="D314" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E314"/>
       <c r="F314" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G314" s="96">
         <v>44561</v>
@@ -16697,13 +16703,13 @@
       <c r="B315" s="116"/>
       <c r="C315" s="116"/>
       <c r="D315" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E315" t="s">
         <v>422</v>
       </c>
-      <c r="E315" t="s">
-        <v>423</v>
-      </c>
       <c r="F315" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G315" s="96">
         <v>44561</v>
@@ -16730,13 +16736,13 @@
       <c r="B316" s="116"/>
       <c r="C316" s="116"/>
       <c r="D316" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E316" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F316" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G316" s="96">
         <v>44561</v>
@@ -16763,13 +16769,13 @@
       <c r="B317" s="116"/>
       <c r="C317" s="116"/>
       <c r="D317" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E317" t="s">
         <v>425</v>
       </c>
-      <c r="E317" t="s">
-        <v>426</v>
-      </c>
       <c r="F317" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G317" s="96">
         <v>44561</v>
@@ -16786,7 +16792,7 @@
       <c r="B318" s="116"/>
       <c r="C318" s="116"/>
       <c r="D318" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E318"/>
       <c r="F318" t="s">
@@ -16817,7 +16823,7 @@
       <c r="B319" s="116"/>
       <c r="C319" s="116"/>
       <c r="D319" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E319"/>
       <c r="F319"/>
@@ -16840,11 +16846,11 @@
         <v>211</v>
       </c>
       <c r="D320" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E320"/>
       <c r="F320" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G320" s="96">
         <v>44561</v>
@@ -16871,13 +16877,13 @@
       <c r="B321" s="116"/>
       <c r="C321" s="116"/>
       <c r="D321" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E321" t="s">
         <v>422</v>
       </c>
-      <c r="E321" t="s">
-        <v>423</v>
-      </c>
       <c r="F321" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G321" s="96">
         <v>44561</v>
@@ -16904,13 +16910,13 @@
       <c r="B322" s="116"/>
       <c r="C322" s="116"/>
       <c r="D322" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E322" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F322" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G322" s="96">
         <v>44561</v>
@@ -16937,13 +16943,13 @@
       <c r="B323" s="116"/>
       <c r="C323" s="116"/>
       <c r="D323" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E323" t="s">
         <v>425</v>
       </c>
-      <c r="E323" t="s">
-        <v>426</v>
-      </c>
       <c r="F323" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G323" s="96">
         <v>44561</v>
@@ -16970,7 +16976,7 @@
       <c r="B324" s="116"/>
       <c r="C324" s="116"/>
       <c r="D324" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E324"/>
       <c r="F324" t="s">
@@ -17001,7 +17007,7 @@
       <c r="B325" s="116"/>
       <c r="C325" s="116"/>
       <c r="D325" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E325"/>
       <c r="F325"/>
@@ -17024,11 +17030,11 @@
         <v>214</v>
       </c>
       <c r="D326" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E326"/>
       <c r="F326" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G326" s="96">
         <v>44561</v>
@@ -17055,13 +17061,13 @@
       <c r="B327" s="116"/>
       <c r="C327" s="116"/>
       <c r="D327" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E327" t="s">
         <v>422</v>
       </c>
-      <c r="E327" t="s">
-        <v>423</v>
-      </c>
       <c r="F327" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G327" s="96">
         <v>44561</v>
@@ -17088,13 +17094,13 @@
       <c r="B328" s="116"/>
       <c r="C328" s="116"/>
       <c r="D328" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E328" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F328" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G328" s="96">
         <v>44561</v>
@@ -17121,13 +17127,13 @@
       <c r="B329" s="116"/>
       <c r="C329" s="116"/>
       <c r="D329" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E329" t="s">
         <v>425</v>
       </c>
-      <c r="E329" t="s">
-        <v>426</v>
-      </c>
       <c r="F329" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G329" s="96">
         <v>44561</v>
@@ -17144,7 +17150,7 @@
       <c r="B330" s="116"/>
       <c r="C330" s="116"/>
       <c r="D330" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E330"/>
       <c r="F330" t="s">
@@ -17175,7 +17181,7 @@
       <c r="B331" s="116"/>
       <c r="C331" s="116"/>
       <c r="D331" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E331"/>
       <c r="F331"/>
@@ -17198,11 +17204,11 @@
         <v>217</v>
       </c>
       <c r="D332" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E332"/>
       <c r="F332" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G332" s="96">
         <v>44561</v>
@@ -17231,13 +17237,13 @@
       <c r="B333" s="116"/>
       <c r="C333" s="116"/>
       <c r="D333" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E333" t="s">
         <v>422</v>
       </c>
-      <c r="E333" t="s">
-        <v>423</v>
-      </c>
       <c r="F333" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G333" s="96">
         <v>44561</v>
@@ -17266,13 +17272,13 @@
       <c r="B334" s="116"/>
       <c r="C334" s="116"/>
       <c r="D334" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E334" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F334" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G334" s="96">
         <v>44561</v>
@@ -17301,13 +17307,13 @@
       <c r="B335" s="116"/>
       <c r="C335" s="116"/>
       <c r="D335" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E335" t="s">
         <v>425</v>
       </c>
-      <c r="E335" t="s">
-        <v>426</v>
-      </c>
       <c r="F335" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G335" s="96">
         <v>44561</v>
@@ -17336,7 +17342,7 @@
       <c r="B336" s="116"/>
       <c r="C336" s="116"/>
       <c r="D336" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E336"/>
       <c r="F336" t="s">
@@ -17369,7 +17375,7 @@
       <c r="B337" s="116"/>
       <c r="C337" s="116"/>
       <c r="D337" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E337"/>
       <c r="F337"/>
@@ -17392,11 +17398,11 @@
         <v>220</v>
       </c>
       <c r="D338" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E338"/>
       <c r="F338" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G338" s="96">
         <v>44561</v>
@@ -17413,13 +17419,13 @@
       <c r="B339" s="116"/>
       <c r="C339" s="116"/>
       <c r="D339" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E339" t="s">
         <v>422</v>
       </c>
-      <c r="E339" t="s">
-        <v>423</v>
-      </c>
       <c r="F339" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G339" s="96">
         <v>44561</v>
@@ -17436,13 +17442,13 @@
       <c r="B340" s="116"/>
       <c r="C340" s="116"/>
       <c r="D340" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E340" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F340" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G340" s="96">
         <v>44561</v>
@@ -17469,13 +17475,13 @@
       <c r="B341" s="116"/>
       <c r="C341" s="116"/>
       <c r="D341" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E341" t="s">
         <v>425</v>
       </c>
-      <c r="E341" t="s">
-        <v>426</v>
-      </c>
       <c r="F341" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G341" s="96">
         <v>44561</v>
@@ -17492,7 +17498,7 @@
       <c r="B342" s="116"/>
       <c r="C342" s="116"/>
       <c r="D342" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E342"/>
       <c r="F342" t="s">
@@ -17523,7 +17529,7 @@
       <c r="B343" s="116"/>
       <c r="C343" s="116"/>
       <c r="D343" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E343"/>
       <c r="F343"/>
@@ -17546,11 +17552,11 @@
         <v>225</v>
       </c>
       <c r="D344" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E344"/>
       <c r="F344" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G344" s="96">
         <v>44561</v>
@@ -17577,13 +17583,13 @@
       <c r="B345" s="116"/>
       <c r="C345" s="116"/>
       <c r="D345" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E345" t="s">
         <v>422</v>
       </c>
-      <c r="E345" t="s">
-        <v>423</v>
-      </c>
       <c r="F345" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G345" s="96">
         <v>44561</v>
@@ -17610,13 +17616,13 @@
       <c r="B346" s="116"/>
       <c r="C346" s="116"/>
       <c r="D346" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E346" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F346" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G346" s="96">
         <v>44561</v>
@@ -17643,13 +17649,13 @@
       <c r="B347" s="116"/>
       <c r="C347" s="116"/>
       <c r="D347" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E347" t="s">
         <v>425</v>
       </c>
-      <c r="E347" t="s">
-        <v>426</v>
-      </c>
       <c r="F347" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G347" s="96">
         <v>44561</v>
@@ -17666,7 +17672,7 @@
       <c r="B348" s="116"/>
       <c r="C348" s="116"/>
       <c r="D348" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E348"/>
       <c r="F348" t="s">
@@ -17697,7 +17703,7 @@
       <c r="B349" s="116"/>
       <c r="C349" s="116"/>
       <c r="D349" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E349"/>
       <c r="F349"/>
@@ -17720,11 +17726,11 @@
         <v>228</v>
       </c>
       <c r="D350" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E350"/>
       <c r="F350" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G350" s="96">
         <v>44561</v>
@@ -17751,13 +17757,13 @@
       <c r="B351" s="116"/>
       <c r="C351" s="116"/>
       <c r="D351" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E351" t="s">
         <v>422</v>
       </c>
-      <c r="E351" t="s">
-        <v>423</v>
-      </c>
       <c r="F351" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G351" s="96">
         <v>44561</v>
@@ -17784,13 +17790,13 @@
       <c r="B352" s="116"/>
       <c r="C352" s="116"/>
       <c r="D352" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E352" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F352" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G352" s="96">
         <v>44561</v>
@@ -17817,13 +17823,13 @@
       <c r="B353" s="116"/>
       <c r="C353" s="116"/>
       <c r="D353" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E353" t="s">
         <v>425</v>
       </c>
-      <c r="E353" t="s">
-        <v>426</v>
-      </c>
       <c r="F353" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G353" s="96">
         <v>44561</v>
@@ -17840,7 +17846,7 @@
       <c r="B354" s="116"/>
       <c r="C354" s="116"/>
       <c r="D354" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E354"/>
       <c r="F354" t="s">
@@ -17871,7 +17877,7 @@
       <c r="B355" s="116"/>
       <c r="C355" s="116"/>
       <c r="D355" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E355"/>
       <c r="F355"/>
@@ -17894,11 +17900,11 @@
         <v>231</v>
       </c>
       <c r="D356" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E356"/>
       <c r="F356" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G356" s="96">
         <v>44561</v>
@@ -17925,13 +17931,13 @@
       <c r="B357" s="116"/>
       <c r="C357" s="116"/>
       <c r="D357" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E357" t="s">
         <v>422</v>
       </c>
-      <c r="E357" t="s">
-        <v>423</v>
-      </c>
       <c r="F357" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G357" s="96">
         <v>44561</v>
@@ -17958,13 +17964,13 @@
       <c r="B358" s="116"/>
       <c r="C358" s="116"/>
       <c r="D358" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E358" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F358" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G358" s="96">
         <v>44561</v>
@@ -17991,13 +17997,13 @@
       <c r="B359" s="116"/>
       <c r="C359" s="116"/>
       <c r="D359" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E359" t="s">
         <v>425</v>
       </c>
-      <c r="E359" t="s">
-        <v>426</v>
-      </c>
       <c r="F359" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G359" s="96">
         <v>44561</v>
@@ -18024,7 +18030,7 @@
       <c r="B360" s="116"/>
       <c r="C360" s="116"/>
       <c r="D360" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E360"/>
       <c r="F360" t="s">
@@ -18055,7 +18061,7 @@
       <c r="B361" s="116"/>
       <c r="C361" s="116"/>
       <c r="D361" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E361"/>
       <c r="F361"/>
@@ -18078,11 +18084,11 @@
         <v>235</v>
       </c>
       <c r="D362" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E362"/>
       <c r="F362" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G362" s="96">
         <v>44561</v>
@@ -18109,13 +18115,13 @@
       <c r="B363" s="116"/>
       <c r="C363" s="116"/>
       <c r="D363" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E363" t="s">
         <v>422</v>
       </c>
-      <c r="E363" t="s">
-        <v>423</v>
-      </c>
       <c r="F363" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G363" s="96">
         <v>44561</v>
@@ -18142,13 +18148,13 @@
       <c r="B364" s="116"/>
       <c r="C364" s="116"/>
       <c r="D364" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E364" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F364" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G364" s="96">
         <v>44561</v>
@@ -18175,13 +18181,13 @@
       <c r="B365" s="116"/>
       <c r="C365" s="116"/>
       <c r="D365" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E365" t="s">
         <v>425</v>
       </c>
-      <c r="E365" t="s">
-        <v>426</v>
-      </c>
       <c r="F365" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G365" s="96">
         <v>44561</v>
@@ -18198,7 +18204,7 @@
       <c r="B366" s="116"/>
       <c r="C366" s="116"/>
       <c r="D366" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E366"/>
       <c r="F366" t="s">
@@ -18229,7 +18235,7 @@
       <c r="B367" s="116"/>
       <c r="C367" s="116"/>
       <c r="D367" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E367"/>
       <c r="F367"/>
@@ -18252,11 +18258,11 @@
         <v>238</v>
       </c>
       <c r="D368" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E368"/>
       <c r="F368" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G368" s="96">
         <v>44561</v>
@@ -18283,13 +18289,13 @@
       <c r="B369" s="116"/>
       <c r="C369" s="116"/>
       <c r="D369" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E369" t="s">
         <v>422</v>
       </c>
-      <c r="E369" t="s">
-        <v>423</v>
-      </c>
       <c r="F369" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G369" s="96">
         <v>44561</v>
@@ -18316,13 +18322,13 @@
       <c r="B370" s="116"/>
       <c r="C370" s="116"/>
       <c r="D370" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E370" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F370" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G370" s="96">
         <v>44561</v>
@@ -18349,13 +18355,13 @@
       <c r="B371" s="116"/>
       <c r="C371" s="116"/>
       <c r="D371" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E371" t="s">
         <v>425</v>
       </c>
-      <c r="E371" t="s">
-        <v>426</v>
-      </c>
       <c r="F371" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G371" s="96">
         <v>44561</v>
@@ -18372,7 +18378,7 @@
       <c r="B372" s="116"/>
       <c r="C372" s="116"/>
       <c r="D372" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E372"/>
       <c r="F372" t="s">
@@ -18403,7 +18409,7 @@
       <c r="B373" s="116"/>
       <c r="C373" s="116"/>
       <c r="D373" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E373"/>
       <c r="F373"/>
@@ -18426,11 +18432,11 @@
         <v>241</v>
       </c>
       <c r="D374" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E374"/>
       <c r="F374" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G374" s="96">
         <v>44561</v>
@@ -18457,13 +18463,13 @@
       <c r="B375" s="116"/>
       <c r="C375" s="116"/>
       <c r="D375" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E375" t="s">
         <v>422</v>
       </c>
-      <c r="E375" t="s">
-        <v>423</v>
-      </c>
       <c r="F375" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G375" s="96">
         <v>44561</v>
@@ -18490,13 +18496,13 @@
       <c r="B376" s="116"/>
       <c r="C376" s="116"/>
       <c r="D376" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E376" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F376" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G376" s="96">
         <v>44561</v>
@@ -18523,13 +18529,13 @@
       <c r="B377" s="116"/>
       <c r="C377" s="116"/>
       <c r="D377" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E377" t="s">
         <v>425</v>
       </c>
-      <c r="E377" t="s">
-        <v>426</v>
-      </c>
       <c r="F377" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G377" s="96">
         <v>44561</v>
@@ -18546,7 +18552,7 @@
       <c r="B378" s="116"/>
       <c r="C378" s="116"/>
       <c r="D378" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E378"/>
       <c r="F378" t="s">
@@ -18577,7 +18583,7 @@
       <c r="B379" s="116"/>
       <c r="C379" s="116"/>
       <c r="D379" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E379"/>
       <c r="F379"/>
@@ -18600,11 +18606,11 @@
         <v>244</v>
       </c>
       <c r="D380" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E380"/>
       <c r="F380" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G380" s="96">
         <v>44561</v>
@@ -18631,13 +18637,13 @@
       <c r="B381" s="116"/>
       <c r="C381" s="116"/>
       <c r="D381" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E381" t="s">
         <v>422</v>
       </c>
-      <c r="E381" t="s">
-        <v>423</v>
-      </c>
       <c r="F381" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G381" s="96">
         <v>44561</v>
@@ -18664,13 +18670,13 @@
       <c r="B382" s="116"/>
       <c r="C382" s="116"/>
       <c r="D382" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E382" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F382" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G382" s="96">
         <v>44561</v>
@@ -18697,13 +18703,13 @@
       <c r="B383" s="116"/>
       <c r="C383" s="116"/>
       <c r="D383" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E383" t="s">
         <v>425</v>
       </c>
-      <c r="E383" t="s">
-        <v>426</v>
-      </c>
       <c r="F383" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G383" s="96">
         <v>44561</v>
@@ -18720,7 +18726,7 @@
       <c r="B384" s="116"/>
       <c r="C384" s="116"/>
       <c r="D384" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E384"/>
       <c r="F384" t="s">
@@ -18751,7 +18757,7 @@
       <c r="B385" s="116"/>
       <c r="C385" s="116"/>
       <c r="D385" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E385"/>
       <c r="F385"/>
@@ -18774,11 +18780,11 @@
         <v>247</v>
       </c>
       <c r="D386" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E386"/>
       <c r="F386" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G386" s="96">
         <v>44561</v>
@@ -18803,13 +18809,13 @@
       <c r="B387" s="116"/>
       <c r="C387" s="116"/>
       <c r="D387" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E387" t="s">
         <v>422</v>
       </c>
-      <c r="E387" t="s">
-        <v>423</v>
-      </c>
       <c r="F387" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G387" s="96">
         <v>44561</v>
@@ -18834,13 +18840,13 @@
       <c r="B388" s="116"/>
       <c r="C388" s="116"/>
       <c r="D388" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E388" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F388" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G388" s="96">
         <v>44561</v>
@@ -18865,13 +18871,13 @@
       <c r="B389" s="116"/>
       <c r="C389" s="116"/>
       <c r="D389" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E389" t="s">
         <v>425</v>
       </c>
-      <c r="E389" t="s">
-        <v>426</v>
-      </c>
       <c r="F389" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G389" s="96">
         <v>44561</v>
@@ -18896,7 +18902,7 @@
       <c r="B390" s="116"/>
       <c r="C390" s="116"/>
       <c r="D390" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E390"/>
       <c r="F390" t="s">
@@ -18925,7 +18931,7 @@
       <c r="B391" s="116"/>
       <c r="C391" s="116"/>
       <c r="D391" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E391"/>
       <c r="F391"/>
@@ -18948,11 +18954,11 @@
         <v>251</v>
       </c>
       <c r="D392" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E392"/>
       <c r="F392" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G392" s="96">
         <v>44561</v>
@@ -18979,13 +18985,13 @@
       <c r="B393" s="116"/>
       <c r="C393" s="116"/>
       <c r="D393" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E393" t="s">
         <v>422</v>
       </c>
-      <c r="E393" t="s">
-        <v>423</v>
-      </c>
       <c r="F393" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G393" s="96">
         <v>44561</v>
@@ -19012,13 +19018,13 @@
       <c r="B394" s="116"/>
       <c r="C394" s="116"/>
       <c r="D394" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E394" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F394" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G394" s="96">
         <v>44561</v>
@@ -19045,13 +19051,13 @@
       <c r="B395" s="116"/>
       <c r="C395" s="116"/>
       <c r="D395" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E395" t="s">
         <v>425</v>
       </c>
-      <c r="E395" t="s">
-        <v>426</v>
-      </c>
       <c r="F395" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G395" s="96">
         <v>44561</v>
@@ -19068,7 +19074,7 @@
       <c r="B396" s="116"/>
       <c r="C396" s="116"/>
       <c r="D396" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E396"/>
       <c r="F396" t="s">
@@ -19099,7 +19105,7 @@
       <c r="B397" s="116"/>
       <c r="C397" s="116"/>
       <c r="D397" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E397"/>
       <c r="F397"/>
@@ -19122,11 +19128,11 @@
         <v>254</v>
       </c>
       <c r="D398" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E398"/>
       <c r="F398" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G398" s="96">
         <v>44561</v>
@@ -19155,13 +19161,13 @@
       <c r="B399" s="116"/>
       <c r="C399" s="116"/>
       <c r="D399" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E399" t="s">
         <v>422</v>
       </c>
-      <c r="E399" t="s">
-        <v>423</v>
-      </c>
       <c r="F399" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G399" s="96">
         <v>44561</v>
@@ -19188,13 +19194,13 @@
       <c r="B400" s="116"/>
       <c r="C400" s="116"/>
       <c r="D400" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E400" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F400" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G400" s="96">
         <v>44561</v>
@@ -19223,13 +19229,13 @@
       <c r="B401" s="116"/>
       <c r="C401" s="116"/>
       <c r="D401" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E401" t="s">
         <v>425</v>
       </c>
-      <c r="E401" t="s">
-        <v>426</v>
-      </c>
       <c r="F401" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G401" s="96">
         <v>44561</v>
@@ -19258,7 +19264,7 @@
       <c r="B402" s="116"/>
       <c r="C402" s="116"/>
       <c r="D402" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E402"/>
       <c r="F402" t="s">
@@ -19291,7 +19297,7 @@
       <c r="B403" s="116"/>
       <c r="C403" s="116"/>
       <c r="D403" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E403"/>
       <c r="F403"/>
@@ -19314,11 +19320,11 @@
         <v>258</v>
       </c>
       <c r="D404" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E404"/>
       <c r="F404" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G404" s="96">
         <v>44561</v>
@@ -19341,13 +19347,13 @@
       <c r="B405" s="116"/>
       <c r="C405" s="116"/>
       <c r="D405" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E405" t="s">
         <v>422</v>
       </c>
-      <c r="E405" t="s">
-        <v>423</v>
-      </c>
       <c r="F405" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G405" s="96">
         <v>44561</v>
@@ -19370,13 +19376,13 @@
       <c r="B406" s="116"/>
       <c r="C406" s="116"/>
       <c r="D406" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E406" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F406" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G406" s="96">
         <v>44561</v>
@@ -19399,13 +19405,13 @@
       <c r="B407" s="116"/>
       <c r="C407" s="116"/>
       <c r="D407" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E407" t="s">
         <v>425</v>
       </c>
-      <c r="E407" t="s">
-        <v>426</v>
-      </c>
       <c r="F407" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G407" s="96">
         <v>44561</v>
@@ -19428,7 +19434,7 @@
       <c r="B408" s="116"/>
       <c r="C408" s="116"/>
       <c r="D408" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E408"/>
       <c r="F408" t="s">
@@ -19455,7 +19461,7 @@
       <c r="B409" s="116"/>
       <c r="C409" s="116"/>
       <c r="D409" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E409"/>
       <c r="F409"/>
@@ -19478,11 +19484,11 @@
         <v>262</v>
       </c>
       <c r="D410" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E410"/>
       <c r="F410" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G410" s="96">
         <v>44561</v>
@@ -19509,13 +19515,13 @@
       <c r="B411" s="116"/>
       <c r="C411" s="116"/>
       <c r="D411" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E411" t="s">
         <v>422</v>
       </c>
-      <c r="E411" t="s">
-        <v>423</v>
-      </c>
       <c r="F411" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G411" s="96">
         <v>44561</v>
@@ -19542,13 +19548,13 @@
       <c r="B412" s="116"/>
       <c r="C412" s="116"/>
       <c r="D412" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E412" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F412" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G412" s="96">
         <v>44561</v>
@@ -19575,13 +19581,13 @@
       <c r="B413" s="116"/>
       <c r="C413" s="116"/>
       <c r="D413" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E413" t="s">
         <v>425</v>
       </c>
-      <c r="E413" t="s">
-        <v>426</v>
-      </c>
       <c r="F413" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G413" s="96">
         <v>44561</v>
@@ -19608,7 +19614,7 @@
       <c r="B414" s="116"/>
       <c r="C414" s="116"/>
       <c r="D414" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E414"/>
       <c r="F414" t="s">
@@ -19639,7 +19645,7 @@
       <c r="B415" s="116"/>
       <c r="C415" s="116"/>
       <c r="D415" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E415"/>
       <c r="F415"/>
@@ -19662,11 +19668,11 @@
         <v>266</v>
       </c>
       <c r="D416" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E416"/>
       <c r="F416" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G416" s="96">
         <v>44561</v>
@@ -19693,13 +19699,13 @@
       <c r="B417" s="116"/>
       <c r="C417" s="116"/>
       <c r="D417" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E417" t="s">
         <v>422</v>
       </c>
-      <c r="E417" t="s">
-        <v>423</v>
-      </c>
       <c r="F417" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G417" s="96">
         <v>44561</v>
@@ -19726,13 +19732,13 @@
       <c r="B418" s="116"/>
       <c r="C418" s="116"/>
       <c r="D418" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E418" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F418" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G418" s="96">
         <v>44561</v>
@@ -19759,13 +19765,13 @@
       <c r="B419" s="116"/>
       <c r="C419" s="116"/>
       <c r="D419" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E419" t="s">
         <v>425</v>
       </c>
-      <c r="E419" t="s">
-        <v>426</v>
-      </c>
       <c r="F419" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G419" s="96">
         <v>44561</v>
@@ -19782,7 +19788,7 @@
       <c r="B420" s="116"/>
       <c r="C420" s="116"/>
       <c r="D420" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E420"/>
       <c r="F420" t="s">
@@ -19813,7 +19819,7 @@
       <c r="B421" s="116"/>
       <c r="C421" s="116"/>
       <c r="D421" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E421"/>
       <c r="F421"/>
@@ -19836,11 +19842,11 @@
         <v>269</v>
       </c>
       <c r="D422" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E422"/>
       <c r="F422" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G422" s="96">
         <v>44561</v>
@@ -19867,13 +19873,13 @@
       <c r="B423" s="116"/>
       <c r="C423" s="116"/>
       <c r="D423" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E423" t="s">
         <v>422</v>
       </c>
-      <c r="E423" t="s">
-        <v>423</v>
-      </c>
       <c r="F423" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G423" s="96">
         <v>44561</v>
@@ -19900,13 +19906,13 @@
       <c r="B424" s="116"/>
       <c r="C424" s="116"/>
       <c r="D424" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F424" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G424" s="96">
         <v>44561</v>
@@ -19933,13 +19939,13 @@
       <c r="B425" s="116"/>
       <c r="C425" s="116"/>
       <c r="D425" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E425" t="s">
         <v>425</v>
       </c>
-      <c r="E425" t="s">
-        <v>426</v>
-      </c>
       <c r="F425" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G425" s="96">
         <v>44561</v>
@@ -19956,7 +19962,7 @@
       <c r="B426" s="116"/>
       <c r="C426" s="116"/>
       <c r="D426" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E426"/>
       <c r="F426" t="s">
@@ -19987,7 +19993,7 @@
       <c r="B427" s="116"/>
       <c r="C427" s="116"/>
       <c r="D427" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E427"/>
       <c r="F427"/>
@@ -20010,11 +20016,11 @@
         <v>272</v>
       </c>
       <c r="D428" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E428"/>
       <c r="F428" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G428" s="96">
         <v>44561</v>
@@ -20041,13 +20047,13 @@
       <c r="B429" s="116"/>
       <c r="C429" s="116"/>
       <c r="D429" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E429" t="s">
         <v>422</v>
       </c>
-      <c r="E429" t="s">
-        <v>423</v>
-      </c>
       <c r="F429" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G429" s="96">
         <v>44561</v>
@@ -20074,13 +20080,13 @@
       <c r="B430" s="116"/>
       <c r="C430" s="116"/>
       <c r="D430" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E430" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F430" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G430" s="96">
         <v>44561</v>
@@ -20107,13 +20113,13 @@
       <c r="B431" s="116"/>
       <c r="C431" s="116"/>
       <c r="D431" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E431" t="s">
         <v>425</v>
       </c>
-      <c r="E431" t="s">
-        <v>426</v>
-      </c>
       <c r="F431" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G431" s="96">
         <v>44561</v>
@@ -20130,7 +20136,7 @@
       <c r="B432" s="116"/>
       <c r="C432" s="116"/>
       <c r="D432" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E432"/>
       <c r="F432" t="s">
@@ -20161,7 +20167,7 @@
       <c r="B433" s="116"/>
       <c r="C433" s="116"/>
       <c r="D433" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E433"/>
       <c r="F433"/>
@@ -20184,11 +20190,11 @@
         <v>275</v>
       </c>
       <c r="D434" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E434"/>
       <c r="F434" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G434" s="96">
         <v>44561</v>
@@ -20215,13 +20221,13 @@
       <c r="B435" s="116"/>
       <c r="C435" s="116"/>
       <c r="D435" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E435" t="s">
         <v>422</v>
       </c>
-      <c r="E435" t="s">
-        <v>423</v>
-      </c>
       <c r="F435" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G435" s="96">
         <v>44561</v>
@@ -20248,13 +20254,13 @@
       <c r="B436" s="116"/>
       <c r="C436" s="116"/>
       <c r="D436" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E436" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F436" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G436" s="96">
         <v>44561</v>
@@ -20281,13 +20287,13 @@
       <c r="B437" s="116"/>
       <c r="C437" s="116"/>
       <c r="D437" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E437" t="s">
         <v>425</v>
       </c>
-      <c r="E437" t="s">
-        <v>426</v>
-      </c>
       <c r="F437" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G437" s="96">
         <v>44561</v>
@@ -20314,7 +20320,7 @@
       <c r="B438" s="116"/>
       <c r="C438" s="116"/>
       <c r="D438" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E438"/>
       <c r="F438" t="s">
@@ -20345,7 +20351,7 @@
       <c r="B439" s="116"/>
       <c r="C439" s="116"/>
       <c r="D439" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E439"/>
       <c r="F439"/>
@@ -20368,11 +20374,11 @@
         <v>279</v>
       </c>
       <c r="D440" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E440"/>
       <c r="F440" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G440" s="96">
         <v>44561</v>
@@ -20397,13 +20403,13 @@
       <c r="B441" s="116"/>
       <c r="C441" s="116"/>
       <c r="D441" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E441" t="s">
         <v>422</v>
       </c>
-      <c r="E441" t="s">
-        <v>423</v>
-      </c>
       <c r="F441" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G441" s="96">
         <v>44561</v>
@@ -20428,13 +20434,13 @@
       <c r="B442" s="116"/>
       <c r="C442" s="116"/>
       <c r="D442" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E442" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F442" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G442" s="96">
         <v>44561</v>
@@ -20459,13 +20465,13 @@
       <c r="B443" s="116"/>
       <c r="C443" s="116"/>
       <c r="D443" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E443" t="s">
         <v>425</v>
       </c>
-      <c r="E443" t="s">
-        <v>426</v>
-      </c>
       <c r="F443" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G443" s="96">
         <v>44561</v>
@@ -20490,7 +20496,7 @@
       <c r="B444" s="116"/>
       <c r="C444" s="116"/>
       <c r="D444" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E444"/>
       <c r="F444" t="s">
@@ -20519,7 +20525,7 @@
       <c r="B445" s="116"/>
       <c r="C445" s="116"/>
       <c r="D445" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E445"/>
       <c r="F445"/>
@@ -20542,11 +20548,11 @@
         <v>282</v>
       </c>
       <c r="D446" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E446"/>
       <c r="F446" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G446" s="96">
         <v>44561</v>
@@ -20573,13 +20579,13 @@
       <c r="B447" s="116"/>
       <c r="C447" s="116"/>
       <c r="D447" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E447" t="s">
         <v>422</v>
       </c>
-      <c r="E447" t="s">
-        <v>423</v>
-      </c>
       <c r="F447" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G447" s="96">
         <v>44561</v>
@@ -20606,13 +20612,13 @@
       <c r="B448" s="116"/>
       <c r="C448" s="116"/>
       <c r="D448" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E448" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F448" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G448" s="96">
         <v>44561</v>
@@ -20639,13 +20645,13 @@
       <c r="B449" s="116"/>
       <c r="C449" s="116"/>
       <c r="D449" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E449" t="s">
         <v>425</v>
       </c>
-      <c r="E449" t="s">
-        <v>426</v>
-      </c>
       <c r="F449" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G449" s="96">
         <v>44561</v>
@@ -20672,7 +20678,7 @@
       <c r="B450" s="116"/>
       <c r="C450" s="116"/>
       <c r="D450" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E450"/>
       <c r="F450" t="s">
@@ -20703,7 +20709,7 @@
       <c r="B451" s="116"/>
       <c r="C451" s="116"/>
       <c r="D451" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E451"/>
       <c r="F451"/>
@@ -20726,11 +20732,11 @@
         <v>285</v>
       </c>
       <c r="D452" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E452"/>
       <c r="F452" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G452" s="96">
         <v>44561</v>
@@ -20757,13 +20763,13 @@
       <c r="B453" s="116"/>
       <c r="C453" s="116"/>
       <c r="D453" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E453" t="s">
         <v>422</v>
       </c>
-      <c r="E453" t="s">
-        <v>423</v>
-      </c>
       <c r="F453" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G453" s="96">
         <v>44561</v>
@@ -20790,13 +20796,13 @@
       <c r="B454" s="116"/>
       <c r="C454" s="116"/>
       <c r="D454" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E454" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F454" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G454" s="96">
         <v>44561</v>
@@ -20823,13 +20829,13 @@
       <c r="B455" s="116"/>
       <c r="C455" s="116"/>
       <c r="D455" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E455" t="s">
         <v>425</v>
       </c>
-      <c r="E455" t="s">
-        <v>426</v>
-      </c>
       <c r="F455" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G455" s="96">
         <v>44561</v>
@@ -20856,7 +20862,7 @@
       <c r="B456" s="116"/>
       <c r="C456" s="116"/>
       <c r="D456" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E456"/>
       <c r="F456" t="s">
@@ -20887,7 +20893,7 @@
       <c r="B457" s="116"/>
       <c r="C457" s="116"/>
       <c r="D457" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E457"/>
       <c r="F457"/>
@@ -20910,11 +20916,11 @@
         <v>288</v>
       </c>
       <c r="D458" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E458"/>
       <c r="F458" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G458" s="96">
         <v>44561</v>
@@ -20941,13 +20947,13 @@
       <c r="B459" s="116"/>
       <c r="C459" s="116"/>
       <c r="D459" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E459" t="s">
         <v>422</v>
       </c>
-      <c r="E459" t="s">
-        <v>423</v>
-      </c>
       <c r="F459" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G459" s="96">
         <v>44561</v>
@@ -20974,13 +20980,13 @@
       <c r="B460" s="116"/>
       <c r="C460" s="116"/>
       <c r="D460" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E460" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F460" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G460" s="96">
         <v>44561</v>
@@ -21007,13 +21013,13 @@
       <c r="B461" s="116"/>
       <c r="C461" s="116"/>
       <c r="D461" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E461" t="s">
         <v>425</v>
       </c>
-      <c r="E461" t="s">
-        <v>426</v>
-      </c>
       <c r="F461" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G461" s="96">
         <v>44561</v>
@@ -21040,7 +21046,7 @@
       <c r="B462" s="116"/>
       <c r="C462" s="116"/>
       <c r="D462" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E462"/>
       <c r="F462" t="s">
@@ -21071,7 +21077,7 @@
       <c r="B463" s="116"/>
       <c r="C463" s="116"/>
       <c r="D463" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E463"/>
       <c r="F463"/>
@@ -21094,11 +21100,11 @@
         <v>291</v>
       </c>
       <c r="D464" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E464"/>
       <c r="F464" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G464" s="96">
         <v>44561</v>
@@ -21123,13 +21129,13 @@
       <c r="B465" s="116"/>
       <c r="C465" s="116"/>
       <c r="D465" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E465" t="s">
         <v>422</v>
       </c>
-      <c r="E465" t="s">
-        <v>423</v>
-      </c>
       <c r="F465" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G465" s="96">
         <v>44561</v>
@@ -21154,13 +21160,13 @@
       <c r="B466" s="116"/>
       <c r="C466" s="116"/>
       <c r="D466" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E466" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F466" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G466" s="96">
         <v>44561</v>
@@ -21185,13 +21191,13 @@
       <c r="B467" s="116"/>
       <c r="C467" s="116"/>
       <c r="D467" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E467" t="s">
         <v>425</v>
       </c>
-      <c r="E467" t="s">
-        <v>426</v>
-      </c>
       <c r="F467" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G467" s="96">
         <v>44561</v>
@@ -21216,7 +21222,7 @@
       <c r="B468" s="116"/>
       <c r="C468" s="116"/>
       <c r="D468" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E468"/>
       <c r="F468" t="s">
@@ -21245,7 +21251,7 @@
       <c r="B469" s="116"/>
       <c r="C469" s="116"/>
       <c r="D469" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E469"/>
       <c r="F469"/>
@@ -21268,11 +21274,11 @@
         <v>295</v>
       </c>
       <c r="D470" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E470"/>
       <c r="F470" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G470" s="96">
         <v>44561</v>
@@ -21299,13 +21305,13 @@
       <c r="B471" s="116"/>
       <c r="C471" s="116"/>
       <c r="D471" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E471" t="s">
         <v>422</v>
       </c>
-      <c r="E471" t="s">
-        <v>423</v>
-      </c>
       <c r="F471" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G471" s="96">
         <v>44561</v>
@@ -21332,13 +21338,13 @@
       <c r="B472" s="116"/>
       <c r="C472" s="116"/>
       <c r="D472" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E472" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F472" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G472" s="96">
         <v>44561</v>
@@ -21365,13 +21371,13 @@
       <c r="B473" s="116"/>
       <c r="C473" s="116"/>
       <c r="D473" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E473" t="s">
         <v>425</v>
       </c>
-      <c r="E473" t="s">
-        <v>426</v>
-      </c>
       <c r="F473" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G473" s="96">
         <v>44561</v>
@@ -21388,7 +21394,7 @@
       <c r="B474" s="116"/>
       <c r="C474" s="116"/>
       <c r="D474" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E474"/>
       <c r="F474" t="s">
@@ -21419,7 +21425,7 @@
       <c r="B475" s="116"/>
       <c r="C475" s="116"/>
       <c r="D475" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E475"/>
       <c r="F475"/>
@@ -21442,11 +21448,11 @@
         <v>298</v>
       </c>
       <c r="D476" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E476"/>
       <c r="F476" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G476" s="96">
         <v>44561</v>
@@ -21469,13 +21475,13 @@
       <c r="B477" s="116"/>
       <c r="C477" s="116"/>
       <c r="D477" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E477" t="s">
         <v>422</v>
       </c>
-      <c r="E477" t="s">
-        <v>423</v>
-      </c>
       <c r="F477" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G477" s="96">
         <v>44561</v>
@@ -21498,13 +21504,13 @@
       <c r="B478" s="116"/>
       <c r="C478" s="116"/>
       <c r="D478" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E478" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F478" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G478" s="96">
         <v>44561</v>
@@ -21527,13 +21533,13 @@
       <c r="B479" s="116"/>
       <c r="C479" s="116"/>
       <c r="D479" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E479" t="s">
         <v>425</v>
       </c>
-      <c r="E479" t="s">
-        <v>426</v>
-      </c>
       <c r="F479" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G479" s="96">
         <v>44561</v>
@@ -21556,7 +21562,7 @@
       <c r="B480" s="116"/>
       <c r="C480" s="116"/>
       <c r="D480" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E480"/>
       <c r="F480" t="s">
@@ -21583,7 +21589,7 @@
       <c r="B481" s="116"/>
       <c r="C481" s="116"/>
       <c r="D481" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E481"/>
       <c r="F481"/>
@@ -21606,11 +21612,11 @@
         <v>302</v>
       </c>
       <c r="D482" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E482"/>
       <c r="F482" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G482" s="96">
         <v>44561</v>
@@ -21637,13 +21643,13 @@
       <c r="B483" s="116"/>
       <c r="C483" s="116"/>
       <c r="D483" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E483" t="s">
         <v>422</v>
       </c>
-      <c r="E483" t="s">
-        <v>423</v>
-      </c>
       <c r="F483" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G483" s="96">
         <v>44561</v>
@@ -21670,13 +21676,13 @@
       <c r="B484" s="116"/>
       <c r="C484" s="116"/>
       <c r="D484" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E484" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F484" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G484" s="96">
         <v>44561</v>
@@ -21703,13 +21709,13 @@
       <c r="B485" s="116"/>
       <c r="C485" s="116"/>
       <c r="D485" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E485" t="s">
         <v>425</v>
       </c>
-      <c r="E485" t="s">
-        <v>426</v>
-      </c>
       <c r="F485" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G485" s="96">
         <v>44561</v>
@@ -21726,7 +21732,7 @@
       <c r="B486" s="116"/>
       <c r="C486" s="116"/>
       <c r="D486" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E486"/>
       <c r="F486" t="s">
@@ -21757,7 +21763,7 @@
       <c r="B487" s="116"/>
       <c r="C487" s="116"/>
       <c r="D487" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E487"/>
       <c r="F487"/>
@@ -21780,11 +21786,11 @@
         <v>305</v>
       </c>
       <c r="D488" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E488"/>
       <c r="F488" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G488" s="96">
         <v>44561</v>
@@ -21807,13 +21813,13 @@
       <c r="B489" s="116"/>
       <c r="C489" s="116"/>
       <c r="D489" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E489" t="s">
         <v>422</v>
       </c>
-      <c r="E489" t="s">
-        <v>423</v>
-      </c>
       <c r="F489" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G489" s="96">
         <v>44561</v>
@@ -21836,13 +21842,13 @@
       <c r="B490" s="116"/>
       <c r="C490" s="116"/>
       <c r="D490" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E490" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F490" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G490" s="96">
         <v>44561</v>
@@ -21865,13 +21871,13 @@
       <c r="B491" s="116"/>
       <c r="C491" s="116"/>
       <c r="D491" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E491" t="s">
         <v>425</v>
       </c>
-      <c r="E491" t="s">
-        <v>426</v>
-      </c>
       <c r="F491" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G491" s="96">
         <v>44561</v>
@@ -21894,7 +21900,7 @@
       <c r="B492" s="116"/>
       <c r="C492" s="116"/>
       <c r="D492" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E492"/>
       <c r="F492" t="s">
@@ -21921,7 +21927,7 @@
       <c r="B493" s="116"/>
       <c r="C493" s="116"/>
       <c r="D493" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E493"/>
       <c r="F493"/>
@@ -21944,11 +21950,11 @@
         <v>308</v>
       </c>
       <c r="D494" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E494"/>
       <c r="F494" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G494" s="96">
         <v>44561</v>
@@ -21975,13 +21981,13 @@
       <c r="B495" s="116"/>
       <c r="C495" s="116"/>
       <c r="D495" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E495" t="s">
         <v>422</v>
       </c>
-      <c r="E495" t="s">
-        <v>423</v>
-      </c>
       <c r="F495" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G495" s="96">
         <v>44561</v>
@@ -22008,13 +22014,13 @@
       <c r="B496" s="116"/>
       <c r="C496" s="116"/>
       <c r="D496" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E496" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F496" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G496" s="96">
         <v>44561</v>
@@ -22041,13 +22047,13 @@
       <c r="B497" s="116"/>
       <c r="C497" s="116"/>
       <c r="D497" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E497" t="s">
         <v>425</v>
       </c>
-      <c r="E497" t="s">
-        <v>426</v>
-      </c>
       <c r="F497" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G497" s="96">
         <v>44561</v>
@@ -22064,7 +22070,7 @@
       <c r="B498" s="116"/>
       <c r="C498" s="116"/>
       <c r="D498" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E498"/>
       <c r="F498" t="s">
@@ -22095,7 +22101,7 @@
       <c r="B499" s="116"/>
       <c r="C499" s="116"/>
       <c r="D499" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E499"/>
       <c r="F499"/>
@@ -22118,11 +22124,11 @@
         <v>311</v>
       </c>
       <c r="D500" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E500"/>
       <c r="F500" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G500" s="96">
         <v>44561</v>
@@ -22149,13 +22155,13 @@
       <c r="B501" s="116"/>
       <c r="C501" s="116"/>
       <c r="D501" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E501" t="s">
         <v>422</v>
       </c>
-      <c r="E501" t="s">
-        <v>423</v>
-      </c>
       <c r="F501" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G501" s="96">
         <v>44561</v>
@@ -22182,13 +22188,13 @@
       <c r="B502" s="116"/>
       <c r="C502" s="116"/>
       <c r="D502" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E502" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F502" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G502" s="96">
         <v>44561</v>
@@ -22215,13 +22221,13 @@
       <c r="B503" s="116"/>
       <c r="C503" s="116"/>
       <c r="D503" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E503" t="s">
         <v>425</v>
       </c>
-      <c r="E503" t="s">
-        <v>426</v>
-      </c>
       <c r="F503" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G503" s="96">
         <v>44561</v>
@@ -22238,7 +22244,7 @@
       <c r="B504" s="116"/>
       <c r="C504" s="116"/>
       <c r="D504" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E504"/>
       <c r="F504" t="s">
@@ -22269,7 +22275,7 @@
       <c r="B505" s="116"/>
       <c r="C505" s="116"/>
       <c r="D505" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E505"/>
       <c r="F505"/>
@@ -22292,11 +22298,11 @@
         <v>314</v>
       </c>
       <c r="D506" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E506"/>
       <c r="F506" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G506" s="96">
         <v>44561</v>
@@ -22323,13 +22329,13 @@
       <c r="B507" s="116"/>
       <c r="C507" s="116"/>
       <c r="D507" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E507" t="s">
         <v>422</v>
       </c>
-      <c r="E507" t="s">
-        <v>423</v>
-      </c>
       <c r="F507" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G507" s="96">
         <v>44561</v>
@@ -22356,13 +22362,13 @@
       <c r="B508" s="116"/>
       <c r="C508" s="116"/>
       <c r="D508" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E508" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F508" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G508" s="96">
         <v>44561</v>
@@ -22389,13 +22395,13 @@
       <c r="B509" s="116"/>
       <c r="C509" s="116"/>
       <c r="D509" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E509" t="s">
         <v>425</v>
       </c>
-      <c r="E509" t="s">
-        <v>426</v>
-      </c>
       <c r="F509" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G509" s="96">
         <v>44561</v>
@@ -22412,7 +22418,7 @@
       <c r="B510" s="116"/>
       <c r="C510" s="116"/>
       <c r="D510" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E510"/>
       <c r="F510" t="s">
@@ -22443,7 +22449,7 @@
       <c r="B511" s="116"/>
       <c r="C511" s="116"/>
       <c r="D511" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E511"/>
       <c r="F511"/>
@@ -22466,11 +22472,11 @@
         <v>317</v>
       </c>
       <c r="D512" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E512"/>
       <c r="F512" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G512" s="96">
         <v>44561</v>
@@ -22497,13 +22503,13 @@
       <c r="B513" s="116"/>
       <c r="C513" s="116"/>
       <c r="D513" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E513" t="s">
         <v>422</v>
       </c>
-      <c r="E513" t="s">
-        <v>423</v>
-      </c>
       <c r="F513" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G513" s="96">
         <v>44561</v>
@@ -22530,13 +22536,13 @@
       <c r="B514" s="116"/>
       <c r="C514" s="116"/>
       <c r="D514" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E514" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F514" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G514" s="96">
         <v>44561</v>
@@ -22563,13 +22569,13 @@
       <c r="B515" s="116"/>
       <c r="C515" s="116"/>
       <c r="D515" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E515" t="s">
         <v>425</v>
       </c>
-      <c r="E515" t="s">
-        <v>426</v>
-      </c>
       <c r="F515" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G515" s="96">
         <v>44561</v>
@@ -22586,7 +22592,7 @@
       <c r="B516" s="116"/>
       <c r="C516" s="116"/>
       <c r="D516" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E516"/>
       <c r="F516" t="s">
@@ -22617,7 +22623,7 @@
       <c r="B517" s="116"/>
       <c r="C517" s="116"/>
       <c r="D517" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E517"/>
       <c r="F517"/>
@@ -22640,11 +22646,11 @@
         <v>321</v>
       </c>
       <c r="D518" s="97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E518"/>
       <c r="F518" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G518" s="96">
         <v>44561</v>
@@ -22673,13 +22679,13 @@
       <c r="B519" s="116"/>
       <c r="C519" s="116"/>
       <c r="D519" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E519" t="s">
         <v>422</v>
       </c>
-      <c r="E519" t="s">
-        <v>423</v>
-      </c>
       <c r="F519" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G519" s="96">
         <v>44561</v>
@@ -22708,13 +22714,13 @@
       <c r="B520" s="116"/>
       <c r="C520" s="116"/>
       <c r="D520" s="97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E520" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F520" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G520" s="96">
         <v>44561</v>
@@ -22743,13 +22749,13 @@
       <c r="B521" s="116"/>
       <c r="C521" s="116"/>
       <c r="D521" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="E521" t="s">
         <v>425</v>
       </c>
-      <c r="E521" t="s">
-        <v>426</v>
-      </c>
       <c r="F521" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G521" s="96">
         <v>44561</v>
@@ -22778,7 +22784,7 @@
       <c r="B522" s="116"/>
       <c r="C522" s="116"/>
       <c r="D522" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E522"/>
       <c r="F522" t="s">
@@ -22811,7 +22817,7 @@
       <c r="B523" s="116"/>
       <c r="C523" s="116"/>
       <c r="D523" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E523"/>
       <c r="F523"/>
@@ -32979,10 +32985,10 @@
   <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
-      <selection pane="bottomRight" activeCell="K90" sqref="K90"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -33073,7 +33079,7 @@
         <v>0.67400000000000004</v>
       </c>
       <c r="K2" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L2" s="62">
         <v>2040</v>
@@ -33114,7 +33120,7 @@
         <v>70457</v>
       </c>
       <c r="K3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L3">
         <v>2050</v>
@@ -33155,7 +33161,7 @@
         <v>0.67</v>
       </c>
       <c r="K4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L4">
         <v>2030</v>
@@ -33194,7 +33200,7 @@
         <v>10178945</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L5" s="17">
         <v>2050</v>
@@ -33233,7 +33239,7 @@
         <v>0.436</v>
       </c>
       <c r="K6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L6">
         <v>2030</v>
@@ -33271,7 +33277,7 @@
         <v>38113792</v>
       </c>
       <c r="K7" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L7">
         <v>2030</v>
@@ -33309,7 +33315,7 @@
         <v>38113792</v>
       </c>
       <c r="K8" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L8">
         <v>2040</v>
@@ -33347,7 +33353,7 @@
         <v>167000000</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L9">
         <v>2030</v>
@@ -33385,7 +33391,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L10">
         <v>2025</v>
@@ -33423,7 +33429,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L11">
         <v>2025</v>
@@ -33458,7 +33464,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L12">
         <v>2030</v>
@@ -33493,7 +33499,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L13">
         <v>2040</v>
@@ -33534,7 +33540,7 @@
         <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L14">
         <v>2030</v>
@@ -33575,7 +33581,7 @@
         <v>834562</v>
       </c>
       <c r="K15" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L15">
         <v>2030</v>
@@ -33617,7 +33623,7 @@
         <v>946.27100840336141</v>
       </c>
       <c r="K16" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L16">
         <v>2030</v>
@@ -33653,7 +33659,7 @@
         <v>2.0768237659574469</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L17">
         <v>2050</v>
@@ -33691,7 +33697,7 @@
         <v>73.8</v>
       </c>
       <c r="K18" s="62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L18">
         <v>2028</v>
@@ -33731,7 +33737,7 @@
         <v>0.40564327681114409</v>
       </c>
       <c r="K19" s="62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L19">
         <v>2030</v>
@@ -33769,7 +33775,7 @@
         <v>25218000</v>
       </c>
       <c r="K20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L20">
         <v>2040</v>
@@ -33807,7 +33813,7 @@
         <v>0.48099999999999998</v>
       </c>
       <c r="K21" s="62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L21">
         <v>2030</v>
@@ -33845,7 +33851,7 @@
         <v>24000000</v>
       </c>
       <c r="K22" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L22">
         <v>2030</v>
@@ -33886,7 +33892,7 @@
         <v>1.32787923872953</v>
       </c>
       <c r="K23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L23">
         <v>2040</v>
@@ -33927,7 +33933,7 @@
         <v>37700000</v>
       </c>
       <c r="K24" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L24">
         <v>2030</v>
@@ -33968,7 +33974,7 @@
         <v>37700000</v>
       </c>
       <c r="K25" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L25">
         <v>2040</v>
@@ -34006,7 +34012,7 @@
         <v>59.347999999999999</v>
       </c>
       <c r="K26" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L26">
         <v>2030</v>
@@ -34044,7 +34050,7 @@
         <v>153000000</v>
       </c>
       <c r="K27" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L27">
         <v>2030</v>
@@ -34085,7 +34091,7 @@
         <v>51</v>
       </c>
       <c r="K28" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L28">
         <v>2023</v>
@@ -34126,7 +34132,7 @@
         <v>119</v>
       </c>
       <c r="K29" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L29">
         <v>2023</v>
@@ -34167,7 +34173,7 @@
         <v>51</v>
       </c>
       <c r="K30" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L30">
         <v>2030</v>
@@ -34208,7 +34214,7 @@
         <v>119</v>
       </c>
       <c r="K31" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L31">
         <v>2030</v>
@@ -34249,7 +34255,7 @@
         <v>0.23</v>
       </c>
       <c r="K32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L32">
         <v>2030</v>
@@ -34290,7 +34296,7 @@
         <v>125</v>
       </c>
       <c r="K33" s="62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L33">
         <v>2030</v>
@@ -34331,7 +34337,7 @@
         <v>49960899</v>
       </c>
       <c r="K34" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L34">
         <v>2050</v>
@@ -34372,7 +34378,7 @@
         <v>0.4826223</v>
       </c>
       <c r="K35" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L35">
         <v>2030</v>
@@ -34410,7 +34416,7 @@
         <v>48455198</v>
       </c>
       <c r="K36" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L36">
         <v>2030</v>
@@ -34451,7 +34457,7 @@
         <v>828107</v>
       </c>
       <c r="K37" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L37">
         <v>2030</v>
@@ -34492,7 +34498,7 @@
         <v>1100</v>
       </c>
       <c r="K38" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L38">
         <v>2030</v>
@@ -34533,7 +34539,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L39">
         <v>2025</v>
@@ -34571,7 +34577,7 @@
         <v>86403130</v>
       </c>
       <c r="K40" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L40">
         <v>2045</v>
@@ -34609,7 +34615,7 @@
         <v>309</v>
       </c>
       <c r="K41" s="62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L41">
         <v>2035</v>
@@ -34647,7 +34653,7 @@
         <v>3480</v>
       </c>
       <c r="K42" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L42">
         <v>2035</v>
@@ -34685,7 +34691,7 @@
         <v>11925000</v>
       </c>
       <c r="K43" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L43">
         <v>2035</v>
@@ -34726,7 +34732,7 @@
         <v>309</v>
       </c>
       <c r="K44" s="75" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L44" s="70">
         <v>2040</v>
@@ -34767,7 +34773,7 @@
         <v>3813946</v>
       </c>
       <c r="K45" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L45">
         <v>2040</v>
@@ -34808,7 +34814,7 @@
         <v>0.93</v>
       </c>
       <c r="K46" s="62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L46">
         <v>2031</v>
@@ -34846,7 +34852,7 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="K47" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L47">
         <v>2030</v>
@@ -34887,7 +34893,7 @@
         <v>96</v>
       </c>
       <c r="K48" s="62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L48">
         <v>2030</v>
@@ -34926,7 +34932,7 @@
         <v>30</v>
       </c>
       <c r="K49" s="62" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L49">
         <v>2030</v>
@@ -34964,7 +34970,7 @@
         <v>425</v>
       </c>
       <c r="K50" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L50">
         <v>2030</v>
@@ -35000,7 +35006,7 @@
         <v>1.325</v>
       </c>
       <c r="K51" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L51">
         <v>2030</v>
@@ -35042,7 +35048,7 @@
         <v>21875000.000000004</v>
       </c>
       <c r="K52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L52">
         <v>2030</v>
@@ -35084,7 +35090,7 @@
         <v>21875000.000000004</v>
       </c>
       <c r="K53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L53">
         <v>2040</v>
@@ -35125,7 +35131,7 @@
         <v>843</v>
       </c>
       <c r="K54" s="62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L54">
         <v>2025</v>
@@ -35167,7 +35173,7 @@
         <v>17116164.864864863</v>
       </c>
       <c r="K55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L55">
         <v>2030</v>
@@ -35208,7 +35214,7 @@
         <v>3734024</v>
       </c>
       <c r="K56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L56">
         <v>2045</v>
@@ -35249,7 +35255,7 @@
         <v>102</v>
       </c>
       <c r="K57" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L57">
         <v>2030</v>
@@ -35287,7 +35293,7 @@
         <v>0.82</v>
       </c>
       <c r="K58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L58">
         <v>2030</v>
@@ -35325,7 +35331,7 @@
         <v>21445571</v>
       </c>
       <c r="K59" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L59">
         <v>2030</v>
@@ -35363,7 +35369,7 @@
         <v>21445571</v>
       </c>
       <c r="K60" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L60">
         <v>2050</v>
@@ -35404,7 +35410,7 @@
         <v>78</v>
       </c>
       <c r="K61" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L61">
         <v>2030</v>
@@ -35446,7 +35452,7 @@
         <v>0.70281445911698004</v>
       </c>
       <c r="K62" s="70" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L62" s="70">
         <v>2030</v>
@@ -35487,7 +35493,7 @@
         <v>53.8</v>
       </c>
       <c r="K63" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L63">
         <v>2024</v>
@@ -35529,7 +35535,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="70" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L64" s="70">
         <v>2024</v>
@@ -35570,7 +35576,7 @@
         <v>2.2165439930000002</v>
       </c>
       <c r="K65" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L65">
         <v>2045</v>
@@ -35611,7 +35617,7 @@
         <v>6976930.1319702603</v>
       </c>
       <c r="K66" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L66">
         <v>2040</v>
@@ -35652,7 +35658,7 @@
         <v>2.06</v>
       </c>
       <c r="K67" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L67">
         <v>2030</v>
@@ -35693,7 +35699,7 @@
         <v>2.06</v>
       </c>
       <c r="K68" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L68">
         <v>2040</v>
@@ -35735,7 +35741,7 @@
         <v>62333243</v>
       </c>
       <c r="K69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L69">
         <v>2035</v>
@@ -35777,7 +35783,7 @@
         <v>62333243</v>
       </c>
       <c r="K70" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L70">
         <v>2040</v>
@@ -35818,7 +35824,7 @@
         <v>16557441</v>
       </c>
       <c r="K71" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L71">
         <v>2030</v>
@@ -35859,7 +35865,7 @@
         <v>0.47</v>
       </c>
       <c r="K72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L72">
         <v>2030</v>
@@ -35900,7 +35906,7 @@
         <v>26566330</v>
       </c>
       <c r="K73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L73">
         <v>2030</v>
@@ -35938,7 +35944,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L74">
         <v>2035</v>
@@ -35979,7 +35985,7 @@
         <v>0.80243130614229896</v>
       </c>
       <c r="K75" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L75">
         <v>2030</v>
@@ -36020,7 +36026,7 @@
         <v>68</v>
       </c>
       <c r="K76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L76">
         <v>2030</v>
@@ -36061,7 +36067,7 @@
         <v>171.52</v>
       </c>
       <c r="K77" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L77">
         <v>2023</v>
@@ -36103,7 +36109,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="70" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L78" s="70">
         <v>2023</v>
@@ -36144,7 +36150,7 @@
         <v>1243</v>
       </c>
       <c r="K79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L79">
         <v>2025</v>
@@ -36186,7 +36192,7 @@
         <v>1243</v>
       </c>
       <c r="K80" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L80">
         <v>2030</v>
@@ -36228,7 +36234,7 @@
         <v>1243</v>
       </c>
       <c r="K81" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L81">
         <v>2040</v>
@@ -36270,7 +36276,7 @@
         <v>1243</v>
       </c>
       <c r="K82" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L82">
         <v>2050</v>
@@ -36311,7 +36317,7 @@
         <v>15063</v>
       </c>
       <c r="K83" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L83">
         <v>2025</v>
@@ -36353,7 +36359,7 @@
         <v>15063</v>
       </c>
       <c r="K84" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L84">
         <v>2030</v>
@@ -36395,7 +36401,7 @@
         <v>15063</v>
       </c>
       <c r="K85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L85">
         <v>2040</v>
@@ -36437,7 +36443,7 @@
         <v>15063</v>
       </c>
       <c r="K86" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L86">
         <v>2050</v>
@@ -36479,7 +36485,7 @@
         <v>0.98420553538837796</v>
       </c>
       <c r="K87" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L87">
         <v>2030</v>
@@ -36520,7 +36526,7 @@
         <v>5.162928</v>
       </c>
       <c r="K88" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L88">
         <v>2025</v>
@@ -36561,7 +36567,7 @@
         <v>5.162928</v>
       </c>
       <c r="K89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L89">
         <v>2030</v>
@@ -36602,7 +36608,7 @@
         <v>0.46760301224943002</v>
       </c>
       <c r="K90" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L90">
         <v>2030</v>
@@ -36640,7 +36646,7 @@
         <v>2.9</v>
       </c>
       <c r="K91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L91">
         <v>2030</v>
@@ -36681,7 +36687,7 @@
         <v>0.75</v>
       </c>
       <c r="K92" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L92">
         <v>2030</v>
@@ -36719,7 +36725,7 @@
         <v>1.69</v>
       </c>
       <c r="K93" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L93">
         <v>2030</v>
@@ -36761,7 +36767,7 @@
         <v>14.583333333333334</v>
       </c>
       <c r="K94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L94">
         <v>2030</v>
@@ -36803,7 +36809,7 @@
         <v>14.583333333333334</v>
       </c>
       <c r="K95" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L95">
         <v>2030</v>
@@ -36841,7 +36847,7 @@
         <v>0.42172199999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L96">
         <v>2030</v>
@@ -36882,7 +36888,7 @@
         <v>130</v>
       </c>
       <c r="K97" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L97">
         <v>2030</v>
@@ -36920,7 +36926,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K98" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L98">
         <v>2030</v>
@@ -36958,7 +36964,7 @@
         <v>0.315911</v>
       </c>
       <c r="K99" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L99">
         <v>2030</v>
@@ -36999,7 +37005,7 @@
         <v>1.8</v>
       </c>
       <c r="K100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L100">
         <v>2030</v>
@@ -37040,7 +37046,7 @@
         <v>3.7</v>
       </c>
       <c r="K101" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L101">
         <v>2030</v>
@@ -37082,7 +37088,7 @@
         <v>11.6416389602593</v>
       </c>
       <c r="K102" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L102" s="40">
         <v>2050</v>
@@ -37123,7 +37129,7 @@
         <v>173</v>
       </c>
       <c r="K103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L103">
         <v>2030</v>
@@ -37164,7 +37170,7 @@
         <v>0.78</v>
       </c>
       <c r="K104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L104">
         <v>2025</v>
@@ -37205,7 +37211,7 @@
         <v>0.78</v>
       </c>
       <c r="K105" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L105">
         <v>2030</v>
@@ -37246,7 +37252,7 @@
         <v>0.315911</v>
       </c>
       <c r="K106" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L106">
         <v>2030</v>
@@ -37287,7 +37293,7 @@
         <v>0.88086205923584704</v>
       </c>
       <c r="K107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L107">
         <v>2030</v>
@@ -37328,7 +37334,7 @@
         <v>357983</v>
       </c>
       <c r="K108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L108">
         <v>2030</v>
@@ -37369,7 +37375,7 @@
         <v>87198</v>
       </c>
       <c r="K109" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L109">
         <v>2035</v>
@@ -37411,7 +37417,7 @@
         <v>18.649999999999999</v>
       </c>
       <c r="K110" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L110">
         <v>2035</v>
@@ -38705,7 +38711,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>53807700</v>
+        <v>92613820</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -38723,7 +38729,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>181209960</v>
+        <v>122428768</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -38741,7 +38747,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>223089968</v>
+        <v>255322735</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -38759,7 +38765,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>78534720</v>
+        <v>99901256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -38777,7 +38783,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>80120240</v>
+        <v>204111900</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -38795,7 +38801,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>165312707</v>
+        <v>59161368</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -38813,7 +38819,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>139146044</v>
+        <v>107116261</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -38831,7 +38837,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>56760876</v>
+        <v>82571180</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -38849,7 +38855,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>89155408</v>
+        <v>77264957</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -38867,7 +38873,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>111742680</v>
+        <v>64870200</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -38885,7 +38891,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>158968084</v>
+        <v>172258560</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -38903,7 +38909,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>94129060</v>
+        <v>148766960</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -38921,7 +38927,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>97145860</v>
+        <v>221501385</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -38939,7 +38945,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>87841455</v>
+        <v>136378300</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -38957,7 +38963,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>240109632</v>
+        <v>245025560</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -38975,7 +38981,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>195168402</v>
+        <v>124297176</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -38993,7 +38999,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>173944316</v>
+        <v>156667056</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -39011,7 +39017,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>72882801</v>
+        <v>244926616</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -39029,7 +39035,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>123364408</v>
+        <v>65637875</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -39047,7 +39053,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>54345746</v>
+        <v>92073132</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -39065,7 +39071,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>190230397</v>
+        <v>143394051</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -39083,7 +39089,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>168419412</v>
+        <v>210960288</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -39101,7 +39107,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>57811131</v>
+        <v>274875264</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -39119,7 +39125,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>86247408</v>
+        <v>126248844</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -39137,7 +39143,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>263152125</v>
+        <v>73323698</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -39155,7 +39161,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>105507432</v>
+        <v>218899564</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -39173,7 +39179,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>53306856</v>
+        <v>68842298</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -39191,7 +39197,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>74529563</v>
+        <v>102438810</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -39209,7 +39215,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>204601320</v>
+        <v>118072606</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -39227,7 +39233,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>85736835</v>
+        <v>90859320</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -39245,7 +39251,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>177301980</v>
+        <v>168453318</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -39263,7 +39269,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>162051120</v>
+        <v>51419693</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -39281,7 +39287,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>142147460</v>
+        <v>221039386</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -39299,7 +39305,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>90356789</v>
+        <v>87680818</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -39317,7 +39323,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>75372750</v>
+        <v>38610536</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -39335,7 +39341,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>236009256</v>
+        <v>219236544</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -39353,7 +39359,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>89950768</v>
+        <v>71242000</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -39371,7 +39377,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>110745240</v>
+        <v>149285545</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -39389,7 +39395,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>185294325</v>
+        <v>56677350</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -39407,7 +39413,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>134619111</v>
+        <v>158527510</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -39425,7 +39431,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>212122612</v>
+        <v>112866768</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -39443,7 +39449,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>138767648</v>
+        <v>174058289</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -39461,7 +39467,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>88706457</v>
+        <v>159677753</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -39479,7 +39485,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>78461328</v>
+        <v>114308434</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -39497,7 +39503,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>58904592</v>
+        <v>58155654</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -39515,7 +39521,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>46117565</v>
+        <v>196571292</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -39533,7 +39539,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>41545819</v>
+        <v>136178396</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -39551,7 +39557,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>135474649</v>
+        <v>270180352</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -39569,7 +39575,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>194834304</v>
+        <v>78693472</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -39587,7 +39593,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>243317382</v>
+        <v>146274564</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -39605,7 +39611,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>172638588</v>
+        <v>95100297</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -39623,7 +39629,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>201195954</v>
+        <v>189285085</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -39641,7 +39647,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>264227990</v>
+        <v>190513830</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -39659,7 +39665,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>112045038</v>
+        <v>260728016</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -39677,7 +39683,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>157112634</v>
+        <v>158388932</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -39695,7 +39701,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>49154235</v>
+        <v>139443332</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -39713,7 +39719,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>158965521</v>
+        <v>244102653</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -39731,7 +39737,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>72738699</v>
+        <v>81401150</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -39749,7 +39755,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>199525529</v>
+        <v>81770520</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -39767,7 +39773,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>192131433</v>
+        <v>147888790</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -39785,7 +39791,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>173485528</v>
+        <v>229570626</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -39803,7 +39809,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>53507430</v>
+        <v>120934464</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -39821,7 +39827,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>244184005</v>
+        <v>140190368</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -39839,7 +39845,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>39726207</v>
+        <v>72040176</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -39857,7 +39863,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E77" ca="1" si="2">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>170594082</v>
+        <v>78792480</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -39875,7 +39881,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>149704495</v>
+        <v>177610935</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -39893,7 +39899,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>132802620</v>
+        <v>160540660</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -39911,7 +39917,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>146999628</v>
+        <v>102498825</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -39929,7 +39935,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>166414070</v>
+        <v>245084760</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -39947,7 +39953,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>175784764</v>
+        <v>89847902</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -39965,7 +39971,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>122850660</v>
+        <v>137157713</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -39983,7 +39989,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>41995944</v>
+        <v>78098748</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -40001,7 +40007,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>47755008</v>
+        <v>62220568</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -40019,7 +40025,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>62139792</v>
+        <v>113881062</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -40037,7 +40043,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>116744285</v>
+        <v>269108441</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -40055,7 +40061,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>183501214</v>
+        <v>184884258</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/20220927 ITR V2 Sample Data.xlsx
+++ b/examples/data/20220927 ITR V2 Sample Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Dropbox/My Mac (MacBook-Pro.local)/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ECEA55-CBAC-9A4A-8107-058DA24CBF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB80E614-3251-F640-87B1-376F431FF9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4320" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4320" uniqueCount="463">
   <si>
     <t>company_name</t>
   </si>
@@ -1841,6 +1841,9 @@
   </si>
   <si>
     <t>submetric</t>
+  </si>
+  <si>
+    <t>Energy</t>
   </si>
 </sst>
 </file>
@@ -3685,7 +3688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -4183,7 +4188,7 @@
         <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="G11" t="s">
         <v>56</v>
@@ -4275,7 +4280,7 @@
       </c>
       <c r="E13" s="94"/>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -5025,7 +5030,7 @@
         <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="G29" t="s">
         <v>56</v>
@@ -5391,7 +5396,7 @@
       </c>
       <c r="E37" s="94"/>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="G37" t="s">
         <v>56</v>
@@ -5810,7 +5815,7 @@
       </c>
       <c r="E46" s="94"/>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="G46" t="s">
         <v>56</v>
@@ -5855,7 +5860,7 @@
       </c>
       <c r="E47" s="94"/>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="G47" t="s">
         <v>56</v>
@@ -6229,7 +6234,7 @@
       </c>
       <c r="E55" s="94"/>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="G55" t="s">
         <v>56</v>
@@ -6323,7 +6328,7 @@
         <v>95</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="G57" t="s">
         <v>56</v>
@@ -6368,7 +6373,7 @@
       </c>
       <c r="E58" s="94"/>
       <c r="F58" t="s">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="G58" t="s">
         <v>56</v>
@@ -6413,7 +6418,7 @@
       </c>
       <c r="E59" s="94"/>
       <c r="F59" t="s">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="G59" t="s">
         <v>56</v>
@@ -7290,7 +7295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M523"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -22451,69 +22456,162 @@
     </row>
   </sheetData>
   <mergeCells count="243">
-    <mergeCell ref="A109:A121"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A122:A127"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="A134:A139"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A152:A157"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="A164:A169"/>
-    <mergeCell ref="A170:A175"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A182:A187"/>
-    <mergeCell ref="A188:A193"/>
-    <mergeCell ref="A194:A199"/>
-    <mergeCell ref="A200:A205"/>
-    <mergeCell ref="A206:A211"/>
-    <mergeCell ref="A212:A217"/>
-    <mergeCell ref="A218:A223"/>
-    <mergeCell ref="A224:A229"/>
-    <mergeCell ref="A230:A235"/>
-    <mergeCell ref="A236:A241"/>
-    <mergeCell ref="A242:A247"/>
-    <mergeCell ref="A248:A253"/>
-    <mergeCell ref="A254:A259"/>
-    <mergeCell ref="A260:A265"/>
-    <mergeCell ref="A266:A271"/>
-    <mergeCell ref="A272:A277"/>
-    <mergeCell ref="A278:A283"/>
-    <mergeCell ref="A284:A289"/>
-    <mergeCell ref="A290:A295"/>
-    <mergeCell ref="A296:A301"/>
-    <mergeCell ref="A302:A307"/>
-    <mergeCell ref="A308:A313"/>
-    <mergeCell ref="A314:A319"/>
-    <mergeCell ref="A320:A325"/>
-    <mergeCell ref="A326:A331"/>
-    <mergeCell ref="A332:A337"/>
-    <mergeCell ref="A338:A343"/>
-    <mergeCell ref="A344:A349"/>
-    <mergeCell ref="A350:A355"/>
-    <mergeCell ref="A356:A361"/>
-    <mergeCell ref="A362:A367"/>
-    <mergeCell ref="A368:A373"/>
-    <mergeCell ref="A374:A379"/>
-    <mergeCell ref="A380:A385"/>
-    <mergeCell ref="A386:A391"/>
-    <mergeCell ref="A392:A397"/>
-    <mergeCell ref="A398:A403"/>
-    <mergeCell ref="A404:A409"/>
-    <mergeCell ref="A410:A415"/>
-    <mergeCell ref="A416:A421"/>
-    <mergeCell ref="A422:A427"/>
-    <mergeCell ref="A428:A433"/>
-    <mergeCell ref="A434:A439"/>
-    <mergeCell ref="A440:A445"/>
-    <mergeCell ref="A446:A451"/>
-    <mergeCell ref="A452:A457"/>
-    <mergeCell ref="A458:A463"/>
-    <mergeCell ref="A464:A469"/>
-    <mergeCell ref="A470:A475"/>
-    <mergeCell ref="A476:A481"/>
-    <mergeCell ref="A482:A487"/>
+    <mergeCell ref="C512:C517"/>
+    <mergeCell ref="C518:C523"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="A96:A108"/>
+    <mergeCell ref="B96:B108"/>
+    <mergeCell ref="C96:C108"/>
+    <mergeCell ref="A83:A95"/>
+    <mergeCell ref="B83:B95"/>
+    <mergeCell ref="C83:C95"/>
+    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="C458:C463"/>
+    <mergeCell ref="C464:C469"/>
+    <mergeCell ref="C470:C475"/>
+    <mergeCell ref="C476:C481"/>
+    <mergeCell ref="C482:C487"/>
+    <mergeCell ref="C488:C493"/>
+    <mergeCell ref="C494:C499"/>
+    <mergeCell ref="C500:C505"/>
+    <mergeCell ref="C506:C511"/>
+    <mergeCell ref="C404:C409"/>
+    <mergeCell ref="C410:C415"/>
+    <mergeCell ref="C416:C421"/>
+    <mergeCell ref="C422:C427"/>
+    <mergeCell ref="C428:C433"/>
+    <mergeCell ref="C434:C439"/>
+    <mergeCell ref="C440:C445"/>
+    <mergeCell ref="C446:C451"/>
+    <mergeCell ref="C452:C457"/>
+    <mergeCell ref="C350:C355"/>
+    <mergeCell ref="C356:C361"/>
+    <mergeCell ref="C362:C367"/>
+    <mergeCell ref="C368:C373"/>
+    <mergeCell ref="C374:C379"/>
+    <mergeCell ref="C380:C385"/>
+    <mergeCell ref="C386:C391"/>
+    <mergeCell ref="C392:C397"/>
+    <mergeCell ref="C398:C403"/>
+    <mergeCell ref="C296:C301"/>
+    <mergeCell ref="C302:C307"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="C320:C325"/>
+    <mergeCell ref="C326:C331"/>
+    <mergeCell ref="C332:C337"/>
+    <mergeCell ref="C338:C343"/>
+    <mergeCell ref="C344:C349"/>
+    <mergeCell ref="C242:C247"/>
+    <mergeCell ref="C248:C253"/>
+    <mergeCell ref="C254:C259"/>
+    <mergeCell ref="C260:C265"/>
+    <mergeCell ref="C266:C271"/>
+    <mergeCell ref="C272:C277"/>
+    <mergeCell ref="C278:C283"/>
+    <mergeCell ref="C284:C289"/>
+    <mergeCell ref="C290:C295"/>
+    <mergeCell ref="C188:C193"/>
+    <mergeCell ref="C194:C199"/>
+    <mergeCell ref="C200:C205"/>
+    <mergeCell ref="C206:C211"/>
+    <mergeCell ref="C212:C217"/>
+    <mergeCell ref="C218:C223"/>
+    <mergeCell ref="C224:C229"/>
+    <mergeCell ref="C230:C235"/>
+    <mergeCell ref="C236:C241"/>
+    <mergeCell ref="B500:B505"/>
+    <mergeCell ref="B506:B511"/>
+    <mergeCell ref="B512:B517"/>
+    <mergeCell ref="B518:B523"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="C122:C127"/>
+    <mergeCell ref="C128:C133"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="C140:C145"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="C158:C163"/>
+    <mergeCell ref="C164:C169"/>
+    <mergeCell ref="C170:C175"/>
+    <mergeCell ref="C176:C181"/>
+    <mergeCell ref="C182:C187"/>
+    <mergeCell ref="B446:B451"/>
+    <mergeCell ref="B452:B457"/>
+    <mergeCell ref="B458:B463"/>
+    <mergeCell ref="B464:B469"/>
+    <mergeCell ref="B470:B475"/>
+    <mergeCell ref="B476:B481"/>
+    <mergeCell ref="B482:B487"/>
+    <mergeCell ref="B488:B493"/>
+    <mergeCell ref="B494:B499"/>
+    <mergeCell ref="B392:B397"/>
+    <mergeCell ref="B398:B403"/>
+    <mergeCell ref="B404:B409"/>
+    <mergeCell ref="B410:B415"/>
+    <mergeCell ref="B416:B421"/>
+    <mergeCell ref="B422:B427"/>
+    <mergeCell ref="B428:B433"/>
+    <mergeCell ref="B434:B439"/>
+    <mergeCell ref="B440:B445"/>
+    <mergeCell ref="B338:B343"/>
+    <mergeCell ref="B344:B349"/>
+    <mergeCell ref="B350:B355"/>
+    <mergeCell ref="B356:B361"/>
+    <mergeCell ref="B362:B367"/>
+    <mergeCell ref="B368:B373"/>
+    <mergeCell ref="B374:B379"/>
+    <mergeCell ref="B380:B385"/>
+    <mergeCell ref="B386:B391"/>
+    <mergeCell ref="B284:B289"/>
+    <mergeCell ref="B290:B295"/>
+    <mergeCell ref="B296:B301"/>
+    <mergeCell ref="B302:B307"/>
+    <mergeCell ref="B308:B313"/>
+    <mergeCell ref="B314:B319"/>
+    <mergeCell ref="B320:B325"/>
+    <mergeCell ref="B326:B331"/>
+    <mergeCell ref="B332:B337"/>
+    <mergeCell ref="B230:B235"/>
+    <mergeCell ref="B236:B241"/>
+    <mergeCell ref="B242:B247"/>
+    <mergeCell ref="B248:B253"/>
+    <mergeCell ref="B254:B259"/>
+    <mergeCell ref="B260:B265"/>
+    <mergeCell ref="B266:B271"/>
+    <mergeCell ref="B272:B277"/>
+    <mergeCell ref="B278:B283"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="B182:B187"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="B194:B199"/>
+    <mergeCell ref="B200:B205"/>
+    <mergeCell ref="B206:B211"/>
+    <mergeCell ref="B212:B217"/>
+    <mergeCell ref="B218:B223"/>
+    <mergeCell ref="B224:B229"/>
     <mergeCell ref="A488:A493"/>
     <mergeCell ref="A494:A499"/>
     <mergeCell ref="A500:A505"/>
@@ -22538,162 +22636,69 @@
     <mergeCell ref="B158:B163"/>
     <mergeCell ref="B164:B169"/>
     <mergeCell ref="B170:B175"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B182:B187"/>
-    <mergeCell ref="B188:B193"/>
-    <mergeCell ref="B194:B199"/>
-    <mergeCell ref="B200:B205"/>
-    <mergeCell ref="B206:B211"/>
-    <mergeCell ref="B212:B217"/>
-    <mergeCell ref="B218:B223"/>
-    <mergeCell ref="B224:B229"/>
-    <mergeCell ref="B230:B235"/>
-    <mergeCell ref="B236:B241"/>
-    <mergeCell ref="B242:B247"/>
-    <mergeCell ref="B248:B253"/>
-    <mergeCell ref="B254:B259"/>
-    <mergeCell ref="B260:B265"/>
-    <mergeCell ref="B266:B271"/>
-    <mergeCell ref="B272:B277"/>
-    <mergeCell ref="B278:B283"/>
-    <mergeCell ref="B284:B289"/>
-    <mergeCell ref="B290:B295"/>
-    <mergeCell ref="B296:B301"/>
-    <mergeCell ref="B302:B307"/>
-    <mergeCell ref="B308:B313"/>
-    <mergeCell ref="B314:B319"/>
-    <mergeCell ref="B320:B325"/>
-    <mergeCell ref="B326:B331"/>
-    <mergeCell ref="B332:B337"/>
-    <mergeCell ref="B338:B343"/>
-    <mergeCell ref="B344:B349"/>
-    <mergeCell ref="B350:B355"/>
-    <mergeCell ref="B356:B361"/>
-    <mergeCell ref="B362:B367"/>
-    <mergeCell ref="B368:B373"/>
-    <mergeCell ref="B374:B379"/>
-    <mergeCell ref="B380:B385"/>
-    <mergeCell ref="B386:B391"/>
-    <mergeCell ref="B392:B397"/>
-    <mergeCell ref="B398:B403"/>
-    <mergeCell ref="B404:B409"/>
-    <mergeCell ref="B410:B415"/>
-    <mergeCell ref="B416:B421"/>
-    <mergeCell ref="B422:B427"/>
-    <mergeCell ref="B428:B433"/>
-    <mergeCell ref="B434:B439"/>
-    <mergeCell ref="B440:B445"/>
-    <mergeCell ref="B446:B451"/>
-    <mergeCell ref="B452:B457"/>
-    <mergeCell ref="B458:B463"/>
-    <mergeCell ref="B464:B469"/>
-    <mergeCell ref="B470:B475"/>
-    <mergeCell ref="B476:B481"/>
-    <mergeCell ref="B482:B487"/>
-    <mergeCell ref="B488:B493"/>
-    <mergeCell ref="B494:B499"/>
-    <mergeCell ref="B500:B505"/>
-    <mergeCell ref="B506:B511"/>
-    <mergeCell ref="B512:B517"/>
-    <mergeCell ref="B518:B523"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="C122:C127"/>
-    <mergeCell ref="C128:C133"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="C140:C145"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="C158:C163"/>
-    <mergeCell ref="C164:C169"/>
-    <mergeCell ref="C170:C175"/>
-    <mergeCell ref="C176:C181"/>
-    <mergeCell ref="C182:C187"/>
-    <mergeCell ref="C188:C193"/>
-    <mergeCell ref="C194:C199"/>
-    <mergeCell ref="C200:C205"/>
-    <mergeCell ref="C206:C211"/>
-    <mergeCell ref="C212:C217"/>
-    <mergeCell ref="C218:C223"/>
-    <mergeCell ref="C224:C229"/>
-    <mergeCell ref="C230:C235"/>
-    <mergeCell ref="C236:C241"/>
-    <mergeCell ref="C242:C247"/>
-    <mergeCell ref="C248:C253"/>
-    <mergeCell ref="C254:C259"/>
-    <mergeCell ref="C260:C265"/>
-    <mergeCell ref="C266:C271"/>
-    <mergeCell ref="C272:C277"/>
-    <mergeCell ref="C278:C283"/>
-    <mergeCell ref="C284:C289"/>
-    <mergeCell ref="C290:C295"/>
-    <mergeCell ref="C296:C301"/>
-    <mergeCell ref="C302:C307"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="C320:C325"/>
-    <mergeCell ref="C326:C331"/>
-    <mergeCell ref="C332:C337"/>
-    <mergeCell ref="C338:C343"/>
-    <mergeCell ref="C344:C349"/>
-    <mergeCell ref="C350:C355"/>
-    <mergeCell ref="C356:C361"/>
-    <mergeCell ref="C362:C367"/>
-    <mergeCell ref="C368:C373"/>
-    <mergeCell ref="C374:C379"/>
-    <mergeCell ref="C380:C385"/>
-    <mergeCell ref="C386:C391"/>
-    <mergeCell ref="C392:C397"/>
-    <mergeCell ref="C398:C403"/>
-    <mergeCell ref="C404:C409"/>
-    <mergeCell ref="C410:C415"/>
-    <mergeCell ref="C416:C421"/>
-    <mergeCell ref="C422:C427"/>
-    <mergeCell ref="C428:C433"/>
-    <mergeCell ref="C434:C439"/>
-    <mergeCell ref="C440:C445"/>
-    <mergeCell ref="C446:C451"/>
-    <mergeCell ref="C452:C457"/>
-    <mergeCell ref="C458:C463"/>
-    <mergeCell ref="C464:C469"/>
-    <mergeCell ref="C470:C475"/>
-    <mergeCell ref="C476:C481"/>
-    <mergeCell ref="C482:C487"/>
-    <mergeCell ref="C488:C493"/>
-    <mergeCell ref="C494:C499"/>
-    <mergeCell ref="C500:C505"/>
-    <mergeCell ref="C506:C511"/>
-    <mergeCell ref="C512:C517"/>
-    <mergeCell ref="C518:C523"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="C11:C20"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="A96:A108"/>
-    <mergeCell ref="B96:B108"/>
-    <mergeCell ref="C96:C108"/>
-    <mergeCell ref="A83:A95"/>
-    <mergeCell ref="B83:B95"/>
-    <mergeCell ref="C83:C95"/>
-    <mergeCell ref="A21:A30"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A434:A439"/>
+    <mergeCell ref="A440:A445"/>
+    <mergeCell ref="A446:A451"/>
+    <mergeCell ref="A452:A457"/>
+    <mergeCell ref="A458:A463"/>
+    <mergeCell ref="A464:A469"/>
+    <mergeCell ref="A470:A475"/>
+    <mergeCell ref="A476:A481"/>
+    <mergeCell ref="A482:A487"/>
+    <mergeCell ref="A380:A385"/>
+    <mergeCell ref="A386:A391"/>
+    <mergeCell ref="A392:A397"/>
+    <mergeCell ref="A398:A403"/>
+    <mergeCell ref="A404:A409"/>
+    <mergeCell ref="A410:A415"/>
+    <mergeCell ref="A416:A421"/>
+    <mergeCell ref="A422:A427"/>
+    <mergeCell ref="A428:A433"/>
+    <mergeCell ref="A326:A331"/>
+    <mergeCell ref="A332:A337"/>
+    <mergeCell ref="A338:A343"/>
+    <mergeCell ref="A344:A349"/>
+    <mergeCell ref="A350:A355"/>
+    <mergeCell ref="A356:A361"/>
+    <mergeCell ref="A362:A367"/>
+    <mergeCell ref="A368:A373"/>
+    <mergeCell ref="A374:A379"/>
+    <mergeCell ref="A272:A277"/>
+    <mergeCell ref="A278:A283"/>
+    <mergeCell ref="A284:A289"/>
+    <mergeCell ref="A290:A295"/>
+    <mergeCell ref="A296:A301"/>
+    <mergeCell ref="A302:A307"/>
+    <mergeCell ref="A308:A313"/>
+    <mergeCell ref="A314:A319"/>
+    <mergeCell ref="A320:A325"/>
+    <mergeCell ref="A218:A223"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="A230:A235"/>
+    <mergeCell ref="A236:A241"/>
+    <mergeCell ref="A242:A247"/>
+    <mergeCell ref="A248:A253"/>
+    <mergeCell ref="A254:A259"/>
+    <mergeCell ref="A260:A265"/>
+    <mergeCell ref="A266:A271"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A182:A187"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="A194:A199"/>
+    <mergeCell ref="A200:A205"/>
+    <mergeCell ref="A206:A211"/>
+    <mergeCell ref="A212:A217"/>
+    <mergeCell ref="A109:A121"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A122:A127"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="A158:A163"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L30" r:id="rId1" xr:uid="{0B00E541-600E-124F-8530-7CF03623D698}"/>
@@ -38331,7 +38336,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>81087480</v>
+        <v>214773416</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -38349,7 +38354,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>112265433</v>
+        <v>181448040</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -38367,7 +38372,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>117249702</v>
+        <v>71428560</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -38385,7 +38390,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>126606315</v>
+        <v>117569794</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -38403,7 +38408,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>179135370</v>
+        <v>111539475</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -38421,7 +38426,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>74805200</v>
+        <v>53781268</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -38439,7 +38444,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>129074175</v>
+        <v>84412300</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -38457,7 +38462,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>157405392</v>
+        <v>150935750</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -38475,7 +38480,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>75973359</v>
+        <v>134773100</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -38493,7 +38498,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>135661704</v>
+        <v>81165952</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -38511,7 +38516,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>207311375</v>
+        <v>145745582</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -38529,7 +38534,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>97023943</v>
+        <v>237588897</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -38547,7 +38552,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>179589960</v>
+        <v>151329360</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -38565,7 +38570,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>42747705</v>
+        <v>213215343</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -38583,7 +38588,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>100389822</v>
+        <v>157737645</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -38601,7 +38606,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>67806102</v>
+        <v>104526692</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -38619,7 +38624,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>215023392</v>
+        <v>139210929</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -38637,7 +38642,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>39036690</v>
+        <v>68530541</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -38655,7 +38660,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>62369140</v>
+        <v>71957448</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -38673,7 +38678,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>69701625</v>
+        <v>116403003</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -38691,7 +38696,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>82386003</v>
+        <v>257337938</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -38709,7 +38714,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>131559738</v>
+        <v>83565312</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -38727,7 +38732,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>197649144</v>
+        <v>97831608</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -38745,7 +38750,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>100031974</v>
+        <v>182844158</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -38763,7 +38768,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>160754400</v>
+        <v>142826838</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -38781,7 +38786,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>255884598</v>
+        <v>184974760</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -38799,7 +38804,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>72696925</v>
+        <v>171511230</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -38817,7 +38822,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>154218672</v>
+        <v>187365165</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -38835,7 +38840,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>180224850</v>
+        <v>108576174</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -38853,7 +38858,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>255741736</v>
+        <v>79142650</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -38871,7 +38876,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>134934680</v>
+        <v>101499200</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -38889,7 +38894,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>51710876</v>
+        <v>182797020</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -38907,7 +38912,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>149767044</v>
+        <v>110499252</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -38925,7 +38930,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>198627960</v>
+        <v>134784594</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -38943,7 +38948,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>112279322</v>
+        <v>120433287</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -38961,7 +38966,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>67701816</v>
+        <v>63694991</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -38979,7 +38984,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>163180000</v>
+        <v>156065148</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -38997,7 +39002,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>177393300</v>
+        <v>51949491</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -39015,7 +39020,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>188820710</v>
+        <v>63458178</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -39033,7 +39038,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>121235566</v>
+        <v>125155090</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -39051,7 +39056,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>77864778</v>
+        <v>98420000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -39069,7 +39074,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>152636510</v>
+        <v>269815200</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -39087,7 +39092,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>210049539</v>
+        <v>82893216</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -39105,7 +39110,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>134573004</v>
+        <v>218844223</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -39123,7 +39128,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>135400925</v>
+        <v>119512080</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -39141,7 +39146,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>165284250</v>
+        <v>121469770</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -39159,7 +39164,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>72108344</v>
+        <v>124822296</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -39177,7 +39182,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>136020586</v>
+        <v>55363375</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -39195,7 +39200,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>271632165</v>
+        <v>60626889</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -39213,7 +39218,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>113308910</v>
+        <v>57269252</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -39231,7 +39236,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>144239708</v>
+        <v>172821528</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -39249,7 +39254,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>143154416</v>
+        <v>152698770</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -39267,7 +39272,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>91874328</v>
+        <v>48523690</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -39285,7 +39290,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>133081828</v>
+        <v>171749925</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -39303,7 +39308,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>118653352</v>
+        <v>200687650</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -39321,7 +39326,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>60013602</v>
+        <v>112351254</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -39339,7 +39344,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>79665033</v>
+        <v>129956785</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -39357,7 +39362,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>227914605</v>
+        <v>98396130</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -39375,7 +39380,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>183497562</v>
+        <v>124050544</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -39393,7 +39398,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>62793599</v>
+        <v>96211500</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -39411,7 +39416,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>139925879</v>
+        <v>153990564</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -39429,7 +39434,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>77345325</v>
+        <v>175511518</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -39447,7 +39452,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>166551042</v>
+        <v>83718432</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -39465,7 +39470,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>160077540</v>
+        <v>103349929</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -39483,7 +39488,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E77" ca="1" si="2">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>190451850</v>
+        <v>178682819</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -39501,7 +39506,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>184210377</v>
+        <v>109476846</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -39519,7 +39524,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>155987703</v>
+        <v>139921008</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -39537,7 +39542,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>208503416</v>
+        <v>120378501</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -39555,7 +39560,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>201342240</v>
+        <v>201029192</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -39573,7 +39578,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>259699404</v>
+        <v>158919820</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -39591,7 +39596,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>83379736</v>
+        <v>171693620</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -39609,7 +39614,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>233655114</v>
+        <v>112368300</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -39627,7 +39632,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>85161582</v>
+        <v>229073405</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -39645,7 +39650,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>51761984</v>
+        <v>205970452</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -39663,7 +39668,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>118616724</v>
+        <v>60436806</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -39681,7 +39686,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>128109600</v>
+        <v>112306194</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/20220927 ITR V2 Sample Data.xlsx
+++ b/examples/data/20220927 ITR V2 Sample Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Dropbox/My Mac (MacBook-Pro.local)/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB80E614-3251-F640-87B1-376F431FF9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5DF3C8-3D1D-9540-A4A8-AD0BF5F7984D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -1699,9 +1699,6 @@
     <t>company_isin</t>
   </si>
   <si>
-    <t>investment_value</t>
-  </si>
-  <si>
     <t>US05351W1036</t>
   </si>
   <si>
@@ -1844,6 +1841,9 @@
   </si>
   <si>
     <t>Energy</t>
+  </si>
+  <si>
+    <t>investment_value [USD]</t>
   </si>
 </sst>
 </file>
@@ -3688,7 +3688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3734,10 +3734,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="91" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="91" t="s">
         <v>416</v>
-      </c>
-      <c r="J1" s="91" t="s">
-        <v>417</v>
       </c>
       <c r="K1" s="93" t="s">
         <v>8</v>
@@ -4188,7 +4188,7 @@
         <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G11" t="s">
         <v>56</v>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="E13" s="94"/>
       <c r="F13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -5030,7 +5030,7 @@
         <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G29" t="s">
         <v>56</v>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="E37" s="94"/>
       <c r="F37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G37" t="s">
         <v>56</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E46" s="94"/>
       <c r="F46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G46" t="s">
         <v>56</v>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="E47" s="94"/>
       <c r="F47" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G47" t="s">
         <v>56</v>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="E55" s="94"/>
       <c r="F55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G55" t="s">
         <v>56</v>
@@ -6328,7 +6328,7 @@
         <v>95</v>
       </c>
       <c r="F57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G57" t="s">
         <v>56</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="E58" s="94"/>
       <c r="F58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G58" t="s">
         <v>56</v>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="E59" s="94"/>
       <c r="F59" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G59" t="s">
         <v>56</v>
@@ -7324,13 +7324,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="96" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" s="96" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" s="97" t="s">
         <v>418</v>
-      </c>
-      <c r="E1" s="96" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1" s="97" t="s">
-        <v>419</v>
       </c>
       <c r="G1" s="98" t="s">
         <v>8</v>
@@ -7365,10 +7365,10 @@
         <v>53</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G2" s="95">
         <v>43523</v>
@@ -7391,13 +7391,13 @@
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
       <c r="D3" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E3" t="s">
         <v>421</v>
       </c>
-      <c r="E3" t="s">
-        <v>422</v>
-      </c>
       <c r="F3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G3" s="95">
         <v>43523</v>
@@ -7420,13 +7420,13 @@
       <c r="B4" s="115"/>
       <c r="C4" s="115"/>
       <c r="D4" s="96" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G4" s="95">
         <v>43523</v>
@@ -7449,13 +7449,13 @@
       <c r="B5" s="115"/>
       <c r="C5" s="115"/>
       <c r="D5" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G5" s="95">
         <v>43523</v>
@@ -7481,13 +7481,13 @@
       <c r="B6" s="115"/>
       <c r="C6" s="115"/>
       <c r="D6" s="105" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="E6" s="70" t="s">
-        <v>425</v>
-      </c>
       <c r="F6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G6" s="95">
         <v>43523</v>
@@ -7513,13 +7513,13 @@
       <c r="B7" s="115"/>
       <c r="C7" s="115"/>
       <c r="D7" s="96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G7" s="95">
         <v>43523</v>
@@ -7542,13 +7542,13 @@
       <c r="B8" s="115"/>
       <c r="C8" s="115"/>
       <c r="D8" s="96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G8" s="95">
         <v>43523</v>
@@ -7571,7 +7571,7 @@
       <c r="B9" s="115"/>
       <c r="C9" s="115"/>
       <c r="D9" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
@@ -7596,7 +7596,7 @@
       <c r="B10" s="115"/>
       <c r="C10" s="115"/>
       <c r="D10" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G10" s="95">
         <v>43523</v>
@@ -7604,7 +7604,7 @@
       <c r="H10" s="101"/>
       <c r="I10" s="102"/>
       <c r="J10" s="103" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K10" s="102"/>
       <c r="L10" s="102"/>
@@ -7621,10 +7621,10 @@
         <v>53</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G11" s="95">
         <v>43888</v>
@@ -7649,13 +7649,13 @@
       <c r="B12" s="115"/>
       <c r="C12" s="115"/>
       <c r="D12" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E12" t="s">
         <v>421</v>
       </c>
-      <c r="E12" t="s">
-        <v>422</v>
-      </c>
       <c r="F12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G12" s="95">
         <v>43888</v>
@@ -7680,13 +7680,13 @@
       <c r="B13" s="115"/>
       <c r="C13" s="115"/>
       <c r="D13" s="96" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G13" s="95">
         <v>43888</v>
@@ -7711,13 +7711,13 @@
       <c r="B14" s="115"/>
       <c r="C14" s="115"/>
       <c r="D14" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G14" s="95">
         <v>43888</v>
@@ -7746,13 +7746,13 @@
       <c r="B15" s="115"/>
       <c r="C15" s="115"/>
       <c r="D15" s="105" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G15" s="95">
         <v>43888</v>
@@ -7781,13 +7781,13 @@
       <c r="B16" s="115"/>
       <c r="C16" s="115"/>
       <c r="D16" s="96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G16" s="95">
         <v>43888</v>
@@ -7812,13 +7812,13 @@
       <c r="B17" s="115"/>
       <c r="C17" s="115"/>
       <c r="D17" s="96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G17" s="95">
         <v>43888</v>
@@ -7843,7 +7843,7 @@
       <c r="B18" s="115"/>
       <c r="C18" s="115"/>
       <c r="D18" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
@@ -7870,10 +7870,10 @@
       <c r="B19" s="115"/>
       <c r="C19" s="115"/>
       <c r="D19" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F19" t="s">
         <v>59</v>
@@ -7897,7 +7897,7 @@
       <c r="B20" s="115"/>
       <c r="C20" s="115"/>
       <c r="D20" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G20" s="95">
         <v>43888</v>
@@ -7906,7 +7906,7 @@
       <c r="I20" s="102"/>
       <c r="J20" s="101"/>
       <c r="K20" s="104" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L20" s="102"/>
       <c r="M20" s="102"/>
@@ -7922,10 +7922,10 @@
         <v>53</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G21" s="95">
         <v>44440</v>
@@ -7950,13 +7950,13 @@
       <c r="B22" s="115"/>
       <c r="C22" s="115"/>
       <c r="D22" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E22" t="s">
         <v>421</v>
       </c>
-      <c r="E22" t="s">
-        <v>422</v>
-      </c>
       <c r="F22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G22" s="95">
         <v>44440</v>
@@ -7981,13 +7981,13 @@
       <c r="B23" s="115"/>
       <c r="C23" s="115"/>
       <c r="D23" s="96" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G23" s="95">
         <v>44440</v>
@@ -8012,13 +8012,13 @@
       <c r="B24" s="115"/>
       <c r="C24" s="115"/>
       <c r="D24" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G24" s="95">
         <v>44440</v>
@@ -8047,13 +8047,13 @@
       <c r="B25" s="115"/>
       <c r="C25" s="115"/>
       <c r="D25" s="105" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G25" s="95">
         <v>44440</v>
@@ -8078,13 +8078,13 @@
       <c r="B26" s="115"/>
       <c r="C26" s="115"/>
       <c r="D26" s="96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G26" s="95">
         <v>44440</v>
@@ -8109,13 +8109,13 @@
       <c r="B27" s="115"/>
       <c r="C27" s="115"/>
       <c r="D27" s="96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G27" s="95">
         <v>44440</v>
@@ -8140,7 +8140,7 @@
       <c r="B28" s="115"/>
       <c r="C28" s="115"/>
       <c r="D28" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E28" t="s">
         <v>56</v>
@@ -8169,10 +8169,10 @@
       <c r="B29" s="115"/>
       <c r="C29" s="115"/>
       <c r="D29" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F29" t="s">
         <v>59</v>
@@ -8198,7 +8198,7 @@
       <c r="B30" s="115"/>
       <c r="C30" s="115"/>
       <c r="D30" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G30" s="95">
         <v>44440</v>
@@ -8208,7 +8208,7 @@
       <c r="J30" s="101"/>
       <c r="K30" s="102"/>
       <c r="L30" s="103" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M30" s="102"/>
     </row>
@@ -8223,10 +8223,10 @@
         <v>53</v>
       </c>
       <c r="D31" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G31" s="95">
         <v>44699</v>
@@ -8245,13 +8245,13 @@
       <c r="B32" s="115"/>
       <c r="C32" s="115"/>
       <c r="D32" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E32" t="s">
         <v>421</v>
       </c>
-      <c r="E32" t="s">
-        <v>422</v>
-      </c>
       <c r="F32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G32" s="95">
         <v>44699</v>
@@ -8270,13 +8270,13 @@
       <c r="B33" s="115"/>
       <c r="C33" s="115"/>
       <c r="D33" s="96" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G33" s="95">
         <v>44699</v>
@@ -8295,13 +8295,13 @@
       <c r="B34" s="115"/>
       <c r="C34" s="115"/>
       <c r="D34" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G34" s="95">
         <v>44699</v>
@@ -8320,11 +8320,11 @@
       <c r="B35" s="115"/>
       <c r="C35" s="115"/>
       <c r="D35" s="105" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E35" s="70"/>
       <c r="F35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G35" s="95">
         <v>44699</v>
@@ -8343,13 +8343,13 @@
       <c r="B36" s="115"/>
       <c r="C36" s="115"/>
       <c r="D36" s="96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G36" s="95">
         <v>44699</v>
@@ -8368,13 +8368,13 @@
       <c r="B37" s="115"/>
       <c r="C37" s="115"/>
       <c r="D37" s="96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G37" s="95">
         <v>44699</v>
@@ -8393,10 +8393,10 @@
       <c r="B38" s="115"/>
       <c r="C38" s="115"/>
       <c r="D38" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F38" t="s">
         <v>59</v>
@@ -8418,10 +8418,10 @@
       <c r="B39" s="115"/>
       <c r="C39" s="115"/>
       <c r="D39" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F39" t="s">
         <v>59</v>
@@ -8443,7 +8443,7 @@
       <c r="B40" s="115"/>
       <c r="C40" s="115"/>
       <c r="D40" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G40" s="95">
         <v>44699</v>
@@ -8454,7 +8454,7 @@
       <c r="K40" s="102"/>
       <c r="L40" s="102"/>
       <c r="M40" s="104" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -8468,10 +8468,10 @@
         <v>62</v>
       </c>
       <c r="D41" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G41" s="95">
         <v>44561</v>
@@ -8500,13 +8500,13 @@
       <c r="B42" s="115"/>
       <c r="C42" s="115"/>
       <c r="D42" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E42" t="s">
         <v>421</v>
       </c>
-      <c r="E42" t="s">
-        <v>422</v>
-      </c>
       <c r="F42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G42" s="95">
         <v>44561</v>
@@ -8535,13 +8535,13 @@
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G43" s="95">
         <v>44561</v>
@@ -8570,13 +8570,13 @@
       <c r="B44" s="115"/>
       <c r="C44" s="115"/>
       <c r="D44" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E44" t="s">
         <v>424</v>
       </c>
-      <c r="E44" t="s">
-        <v>425</v>
-      </c>
       <c r="F44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G44" s="95">
         <v>44561</v>
@@ -8593,7 +8593,7 @@
       <c r="B45" s="115"/>
       <c r="C45" s="115"/>
       <c r="D45" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F45" t="s">
         <v>65</v>
@@ -8625,7 +8625,7 @@
       <c r="B46" s="115"/>
       <c r="C46" s="115"/>
       <c r="D46" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G46" s="95"/>
       <c r="H46" s="101"/>
@@ -8646,10 +8646,10 @@
         <v>68</v>
       </c>
       <c r="D47" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G47" s="95">
         <v>44561</v>
@@ -8676,13 +8676,13 @@
       <c r="B48" s="115"/>
       <c r="C48" s="115"/>
       <c r="D48" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E48" t="s">
         <v>421</v>
       </c>
-      <c r="E48" t="s">
-        <v>422</v>
-      </c>
       <c r="F48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G48" s="95">
         <v>44561</v>
@@ -8709,13 +8709,13 @@
       <c r="B49" s="115"/>
       <c r="C49" s="115"/>
       <c r="D49" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G49" s="95">
         <v>44561</v>
@@ -8742,13 +8742,13 @@
       <c r="B50" s="115"/>
       <c r="C50" s="115"/>
       <c r="D50" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E50" t="s">
         <v>424</v>
       </c>
-      <c r="E50" t="s">
-        <v>425</v>
-      </c>
       <c r="F50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G50" s="95">
         <v>44561</v>
@@ -8765,7 +8765,7 @@
       <c r="B51" s="115"/>
       <c r="C51" s="115"/>
       <c r="D51" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F51" t="s">
         <v>65</v>
@@ -8795,7 +8795,7 @@
       <c r="B52" s="115"/>
       <c r="C52" s="115"/>
       <c r="D52" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G52" s="95"/>
       <c r="H52" s="101"/>
@@ -8816,10 +8816,10 @@
         <v>71</v>
       </c>
       <c r="D53" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G53" s="95">
         <v>44561</v>
@@ -8846,13 +8846,13 @@
       <c r="B54" s="115"/>
       <c r="C54" s="115"/>
       <c r="D54" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E54" t="s">
         <v>421</v>
       </c>
-      <c r="E54" t="s">
-        <v>422</v>
-      </c>
       <c r="F54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G54" s="95">
         <v>44561</v>
@@ -8879,13 +8879,13 @@
       <c r="B55" s="115"/>
       <c r="C55" s="115"/>
       <c r="D55" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G55" s="95">
         <v>44561</v>
@@ -8912,13 +8912,13 @@
       <c r="B56" s="115"/>
       <c r="C56" s="115"/>
       <c r="D56" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E56" t="s">
         <v>424</v>
       </c>
-      <c r="E56" t="s">
-        <v>425</v>
-      </c>
       <c r="F56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G56" s="95">
         <v>44561</v>
@@ -8935,7 +8935,7 @@
       <c r="B57" s="115"/>
       <c r="C57" s="115"/>
       <c r="D57" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F57" t="s">
         <v>65</v>
@@ -8965,7 +8965,7 @@
       <c r="B58" s="115"/>
       <c r="C58" s="115"/>
       <c r="D58" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G58" s="95"/>
       <c r="H58" s="101"/>
@@ -8986,10 +8986,10 @@
         <v>74</v>
       </c>
       <c r="D59" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F59" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G59" s="95">
         <v>44561</v>
@@ -9016,13 +9016,13 @@
       <c r="B60" s="115"/>
       <c r="C60" s="115"/>
       <c r="D60" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E60" t="s">
         <v>421</v>
       </c>
-      <c r="E60" t="s">
-        <v>422</v>
-      </c>
       <c r="F60" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G60" s="95">
         <v>44561</v>
@@ -9049,13 +9049,13 @@
       <c r="B61" s="115"/>
       <c r="C61" s="115"/>
       <c r="D61" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F61" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G61" s="95">
         <v>44561</v>
@@ -9082,13 +9082,13 @@
       <c r="B62" s="115"/>
       <c r="C62" s="115"/>
       <c r="D62" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E62" t="s">
         <v>424</v>
       </c>
-      <c r="E62" t="s">
-        <v>425</v>
-      </c>
       <c r="F62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G62" s="95">
         <v>44561</v>
@@ -9105,7 +9105,7 @@
       <c r="B63" s="115"/>
       <c r="C63" s="115"/>
       <c r="D63" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F63" t="s">
         <v>65</v>
@@ -9135,7 +9135,7 @@
       <c r="B64" s="115"/>
       <c r="C64" s="115"/>
       <c r="D64" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G64" s="95"/>
       <c r="H64" s="101"/>
@@ -9156,10 +9156,10 @@
         <v>77</v>
       </c>
       <c r="D65" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G65" s="95">
         <v>44561</v>
@@ -9188,13 +9188,13 @@
       <c r="B66" s="115"/>
       <c r="C66" s="115"/>
       <c r="D66" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E66" t="s">
         <v>421</v>
       </c>
-      <c r="E66" t="s">
-        <v>422</v>
-      </c>
       <c r="F66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G66" s="95">
         <v>44561</v>
@@ -9223,13 +9223,13 @@
       <c r="B67" s="115"/>
       <c r="C67" s="115"/>
       <c r="D67" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E67" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F67" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G67" s="95">
         <v>44561</v>
@@ -9258,13 +9258,13 @@
       <c r="B68" s="115"/>
       <c r="C68" s="115"/>
       <c r="D68" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E68" t="s">
         <v>424</v>
       </c>
-      <c r="E68" t="s">
-        <v>425</v>
-      </c>
       <c r="F68" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G68" s="95">
         <v>44561</v>
@@ -9289,7 +9289,7 @@
       <c r="B69" s="115"/>
       <c r="C69" s="115"/>
       <c r="D69" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F69" t="s">
         <v>59</v>
@@ -9321,7 +9321,7 @@
       <c r="B70" s="115"/>
       <c r="C70" s="115"/>
       <c r="D70" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G70" s="95"/>
       <c r="H70" s="101"/>
@@ -9342,10 +9342,10 @@
         <v>79</v>
       </c>
       <c r="D71" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G71" s="95">
         <v>44561</v>
@@ -9374,13 +9374,13 @@
       <c r="B72" s="115"/>
       <c r="C72" s="115"/>
       <c r="D72" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E72" t="s">
         <v>421</v>
       </c>
-      <c r="E72" t="s">
-        <v>422</v>
-      </c>
       <c r="F72" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G72" s="95">
         <v>44561</v>
@@ -9409,13 +9409,13 @@
       <c r="B73" s="115"/>
       <c r="C73" s="115"/>
       <c r="D73" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G73" s="95">
         <v>44561</v>
@@ -9444,13 +9444,13 @@
       <c r="B74" s="115"/>
       <c r="C74" s="115"/>
       <c r="D74" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E74" t="s">
         <v>424</v>
       </c>
-      <c r="E74" t="s">
-        <v>425</v>
-      </c>
       <c r="F74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G74" s="95">
         <v>44561</v>
@@ -9475,7 +9475,7 @@
       <c r="B75" s="115"/>
       <c r="C75" s="115"/>
       <c r="D75" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F75" t="s">
         <v>59</v>
@@ -9507,7 +9507,7 @@
       <c r="B76" s="115"/>
       <c r="C76" s="115"/>
       <c r="D76" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G76" s="95"/>
       <c r="H76" s="101"/>
@@ -9528,10 +9528,10 @@
         <v>83</v>
       </c>
       <c r="D77" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F77" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G77" s="95">
         <v>44561</v>
@@ -9554,13 +9554,13 @@
       <c r="B78" s="115"/>
       <c r="C78" s="115"/>
       <c r="D78" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E78" t="s">
         <v>421</v>
       </c>
-      <c r="E78" t="s">
-        <v>422</v>
-      </c>
       <c r="F78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G78" s="95">
         <v>44561</v>
@@ -9583,13 +9583,13 @@
       <c r="B79" s="115"/>
       <c r="C79" s="115"/>
       <c r="D79" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G79" s="95">
         <v>44561</v>
@@ -9612,13 +9612,13 @@
       <c r="B80" s="115"/>
       <c r="C80" s="115"/>
       <c r="D80" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E80" t="s">
         <v>424</v>
       </c>
-      <c r="E80" t="s">
-        <v>425</v>
-      </c>
       <c r="F80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G80" s="95">
         <v>44561</v>
@@ -9635,7 +9635,7 @@
       <c r="B81" s="115"/>
       <c r="C81" s="115"/>
       <c r="D81" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F81" t="s">
         <v>84</v>
@@ -9661,7 +9661,7 @@
       <c r="B82" s="115"/>
       <c r="C82" s="115"/>
       <c r="D82" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G82" s="95"/>
       <c r="H82" s="101"/>
@@ -9682,10 +9682,10 @@
         <v>87</v>
       </c>
       <c r="D83" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F83" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G83" s="95">
         <v>44196</v>
@@ -9710,13 +9710,13 @@
       <c r="B84" s="115"/>
       <c r="C84" s="115"/>
       <c r="D84" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E84" t="s">
         <v>421</v>
       </c>
-      <c r="E84" t="s">
-        <v>422</v>
-      </c>
       <c r="F84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G84" s="95">
         <v>44196</v>
@@ -9741,13 +9741,13 @@
       <c r="B85" s="115"/>
       <c r="C85" s="115"/>
       <c r="D85" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G85" s="95">
         <v>44196</v>
@@ -9776,13 +9776,13 @@
       <c r="B86" s="115"/>
       <c r="C86" s="115"/>
       <c r="D86" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="E86" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="E86" s="107" t="s">
-        <v>425</v>
-      </c>
       <c r="F86" s="107" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G86" s="108">
         <v>44196</v>
@@ -9807,10 +9807,10 @@
       <c r="B87" s="115"/>
       <c r="C87" s="115"/>
       <c r="D87" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E87" s="110" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F87" s="107" t="s">
         <v>58</v>
@@ -9838,7 +9838,7 @@
       <c r="B88" s="115"/>
       <c r="C88" s="115"/>
       <c r="D88" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E88" s="110">
         <v>6</v>
@@ -9869,7 +9869,7 @@
       <c r="B89" s="115"/>
       <c r="C89" s="115"/>
       <c r="D89" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E89" s="110">
         <v>7</v>
@@ -9900,7 +9900,7 @@
       <c r="B90" s="115"/>
       <c r="C90" s="115"/>
       <c r="D90" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E90" s="110">
         <v>1</v>
@@ -9931,7 +9931,7 @@
       <c r="B91" s="115"/>
       <c r="C91" s="115"/>
       <c r="D91" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E91" s="110">
         <v>11</v>
@@ -9962,7 +9962,7 @@
       <c r="B92" s="115"/>
       <c r="C92" s="115"/>
       <c r="D92" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E92" s="110">
         <v>12</v>
@@ -9993,11 +9993,11 @@
       <c r="B93" s="115"/>
       <c r="C93" s="115"/>
       <c r="D93" s="106" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E93" s="110"/>
       <c r="F93" s="107" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G93" s="108">
         <v>44196</v>
@@ -10022,7 +10022,7 @@
       <c r="B94" s="115"/>
       <c r="C94" s="115"/>
       <c r="D94" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F94" t="s">
         <v>173</v>
@@ -10054,14 +10054,14 @@
       <c r="B95" s="115"/>
       <c r="C95" s="115"/>
       <c r="D95" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G95" s="95"/>
       <c r="H95" s="101"/>
       <c r="I95" s="102"/>
       <c r="J95" s="101"/>
       <c r="K95" s="104" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L95" s="103"/>
       <c r="M95" s="102"/>
@@ -10077,10 +10077,10 @@
         <v>87</v>
       </c>
       <c r="D96" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F96" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G96" s="95">
         <v>44196</v>
@@ -10107,13 +10107,13 @@
       <c r="B97" s="115"/>
       <c r="C97" s="115"/>
       <c r="D97" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E97" t="s">
         <v>421</v>
       </c>
-      <c r="E97" t="s">
-        <v>422</v>
-      </c>
       <c r="F97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G97" s="95">
         <v>44196</v>
@@ -10140,13 +10140,13 @@
       <c r="B98" s="115"/>
       <c r="C98" s="115"/>
       <c r="D98" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E98" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F98" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G98" s="95">
         <v>44196</v>
@@ -10178,13 +10178,13 @@
       <c r="B99" s="115"/>
       <c r="C99" s="115"/>
       <c r="D99" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="E99" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="E99" s="107" t="s">
-        <v>425</v>
-      </c>
       <c r="F99" s="107" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G99" s="108">
         <v>44196</v>
@@ -10211,10 +10211,10 @@
       <c r="B100" s="115"/>
       <c r="C100" s="115"/>
       <c r="D100" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E100" s="110" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F100" s="107" t="s">
         <v>58</v>
@@ -10244,7 +10244,7 @@
       <c r="B101" s="115"/>
       <c r="C101" s="115"/>
       <c r="D101" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E101" s="110">
         <v>6</v>
@@ -10277,7 +10277,7 @@
       <c r="B102" s="115"/>
       <c r="C102" s="115"/>
       <c r="D102" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E102" s="110">
         <v>7</v>
@@ -10310,7 +10310,7 @@
       <c r="B103" s="115"/>
       <c r="C103" s="115"/>
       <c r="D103" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E103" s="110">
         <v>1</v>
@@ -10343,7 +10343,7 @@
       <c r="B104" s="115"/>
       <c r="C104" s="115"/>
       <c r="D104" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E104" s="110">
         <v>11</v>
@@ -10376,7 +10376,7 @@
       <c r="B105" s="115"/>
       <c r="C105" s="115"/>
       <c r="D105" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E105" s="110">
         <v>12</v>
@@ -10409,11 +10409,11 @@
       <c r="B106" s="115"/>
       <c r="C106" s="115"/>
       <c r="D106" s="106" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E106" s="110"/>
       <c r="F106" s="107" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G106" s="108">
         <v>44196</v>
@@ -10440,7 +10440,7 @@
       <c r="B107" s="115"/>
       <c r="C107" s="115"/>
       <c r="D107" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F107" t="s">
         <v>173</v>
@@ -10475,7 +10475,7 @@
       <c r="B108" s="115"/>
       <c r="C108" s="115"/>
       <c r="D108" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G108" s="95"/>
       <c r="H108" s="101"/>
@@ -10483,7 +10483,7 @@
       <c r="J108" s="101"/>
       <c r="K108" s="102"/>
       <c r="L108" s="103" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M108" s="102"/>
     </row>
@@ -10498,10 +10498,10 @@
         <v>87</v>
       </c>
       <c r="D109" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F109" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G109" s="95">
         <v>44561</v>
@@ -10528,13 +10528,13 @@
       <c r="B110" s="115"/>
       <c r="C110" s="115"/>
       <c r="D110" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E110" t="s">
         <v>421</v>
       </c>
-      <c r="E110" t="s">
-        <v>422</v>
-      </c>
       <c r="F110" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G110" s="95">
         <v>44561</v>
@@ -10561,13 +10561,13 @@
       <c r="B111" s="115"/>
       <c r="C111" s="115"/>
       <c r="D111" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E111" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F111" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G111" s="95">
         <v>44561</v>
@@ -10599,13 +10599,13 @@
       <c r="B112" s="115"/>
       <c r="C112" s="115"/>
       <c r="D112" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="E112" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="E112" s="107" t="s">
-        <v>425</v>
-      </c>
       <c r="F112" s="107" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G112" s="108">
         <v>44561</v>
@@ -10632,10 +10632,10 @@
       <c r="B113" s="115"/>
       <c r="C113" s="115"/>
       <c r="D113" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E113" s="110" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F113" s="107" t="s">
         <v>58</v>
@@ -10665,7 +10665,7 @@
       <c r="B114" s="115"/>
       <c r="C114" s="115"/>
       <c r="D114" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E114" s="110">
         <v>6</v>
@@ -10698,7 +10698,7 @@
       <c r="B115" s="115"/>
       <c r="C115" s="115"/>
       <c r="D115" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E115" s="110">
         <v>7</v>
@@ -10731,7 +10731,7 @@
       <c r="B116" s="115"/>
       <c r="C116" s="115"/>
       <c r="D116" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E116" s="110">
         <v>1</v>
@@ -10764,7 +10764,7 @@
       <c r="B117" s="115"/>
       <c r="C117" s="115"/>
       <c r="D117" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E117" s="110">
         <v>11</v>
@@ -10797,7 +10797,7 @@
       <c r="B118" s="115"/>
       <c r="C118" s="115"/>
       <c r="D118" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E118" s="110">
         <v>12</v>
@@ -10830,11 +10830,11 @@
       <c r="B119" s="115"/>
       <c r="C119" s="115"/>
       <c r="D119" s="106" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E119" s="110"/>
       <c r="F119" s="107" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G119" s="108"/>
       <c r="H119" s="109"/>
@@ -10859,7 +10859,7 @@
       <c r="B120" s="115"/>
       <c r="C120" s="115"/>
       <c r="D120" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F120" t="s">
         <v>173</v>
@@ -10894,7 +10894,7 @@
       <c r="B121" s="115"/>
       <c r="C121" s="115"/>
       <c r="D121" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G121" s="95"/>
       <c r="H121" s="101"/>
@@ -10903,7 +10903,7 @@
       <c r="K121" s="102"/>
       <c r="L121" s="101"/>
       <c r="M121" s="104" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -10917,10 +10917,10 @@
         <v>93</v>
       </c>
       <c r="D122" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F122" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G122" s="95">
         <v>44561</v>
@@ -10947,13 +10947,13 @@
       <c r="B123" s="115"/>
       <c r="C123" s="115"/>
       <c r="D123" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E123" t="s">
         <v>421</v>
       </c>
-      <c r="E123" t="s">
-        <v>422</v>
-      </c>
       <c r="F123" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G123" s="95">
         <v>44561</v>
@@ -10980,13 +10980,13 @@
       <c r="B124" s="115"/>
       <c r="C124" s="115"/>
       <c r="D124" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E124" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F124" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G124" s="95">
         <v>44561</v>
@@ -11013,13 +11013,13 @@
       <c r="B125" s="115"/>
       <c r="C125" s="115"/>
       <c r="D125" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E125" t="s">
         <v>424</v>
       </c>
-      <c r="E125" t="s">
-        <v>425</v>
-      </c>
       <c r="F125" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G125" s="95">
         <v>44561</v>
@@ -11046,7 +11046,7 @@
       <c r="B126" s="115"/>
       <c r="C126" s="115"/>
       <c r="D126" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F126" t="s">
         <v>97</v>
@@ -11076,7 +11076,7 @@
       <c r="B127" s="115"/>
       <c r="C127" s="115"/>
       <c r="D127" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G127" s="95"/>
       <c r="H127" s="101"/>
@@ -11097,10 +11097,10 @@
         <v>100</v>
       </c>
       <c r="D128" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F128" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G128" s="95">
         <v>44561</v>
@@ -11127,13 +11127,13 @@
       <c r="B129" s="115"/>
       <c r="C129" s="115"/>
       <c r="D129" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E129" t="s">
         <v>421</v>
       </c>
-      <c r="E129" t="s">
-        <v>422</v>
-      </c>
       <c r="F129" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G129" s="95">
         <v>44561</v>
@@ -11160,13 +11160,13 @@
       <c r="B130" s="115"/>
       <c r="C130" s="115"/>
       <c r="D130" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E130" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F130" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G130" s="95">
         <v>44561</v>
@@ -11193,13 +11193,13 @@
       <c r="B131" s="115"/>
       <c r="C131" s="115"/>
       <c r="D131" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E131" t="s">
         <v>424</v>
       </c>
-      <c r="E131" t="s">
-        <v>425</v>
-      </c>
       <c r="F131" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G131" s="95">
         <v>44561</v>
@@ -11216,7 +11216,7 @@
       <c r="B132" s="115"/>
       <c r="C132" s="115"/>
       <c r="D132" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F132" t="s">
         <v>102</v>
@@ -11246,7 +11246,7 @@
       <c r="B133" s="115"/>
       <c r="C133" s="115"/>
       <c r="D133" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G133" s="95"/>
       <c r="H133" s="101"/>
@@ -11267,10 +11267,10 @@
         <v>105</v>
       </c>
       <c r="D134" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F134" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G134" s="95">
         <v>44561</v>
@@ -11297,13 +11297,13 @@
       <c r="B135" s="115"/>
       <c r="C135" s="115"/>
       <c r="D135" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E135" t="s">
         <v>421</v>
       </c>
-      <c r="E135" t="s">
-        <v>422</v>
-      </c>
       <c r="F135" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G135" s="95">
         <v>44561</v>
@@ -11330,13 +11330,13 @@
       <c r="B136" s="115"/>
       <c r="C136" s="115"/>
       <c r="D136" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E136" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F136" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G136" s="95">
         <v>44561</v>
@@ -11363,13 +11363,13 @@
       <c r="B137" s="115"/>
       <c r="C137" s="115"/>
       <c r="D137" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E137" t="s">
         <v>424</v>
       </c>
-      <c r="E137" t="s">
-        <v>425</v>
-      </c>
       <c r="F137" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G137" s="95">
         <v>44561</v>
@@ -11396,7 +11396,7 @@
       <c r="B138" s="115"/>
       <c r="C138" s="115"/>
       <c r="D138" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F138" t="s">
         <v>97</v>
@@ -11426,7 +11426,7 @@
       <c r="B139" s="115"/>
       <c r="C139" s="115"/>
       <c r="D139" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G139" s="95"/>
       <c r="H139" s="101"/>
@@ -11447,10 +11447,10 @@
         <v>108</v>
       </c>
       <c r="D140" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F140" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G140" s="95">
         <v>44561</v>
@@ -11477,13 +11477,13 @@
       <c r="B141" s="115"/>
       <c r="C141" s="115"/>
       <c r="D141" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E141" t="s">
         <v>421</v>
       </c>
-      <c r="E141" t="s">
-        <v>422</v>
-      </c>
       <c r="F141" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G141" s="95">
         <v>44561</v>
@@ -11510,13 +11510,13 @@
       <c r="B142" s="115"/>
       <c r="C142" s="115"/>
       <c r="D142" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E142" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F142" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G142" s="95">
         <v>44561</v>
@@ -11543,13 +11543,13 @@
       <c r="B143" s="115"/>
       <c r="C143" s="115"/>
       <c r="D143" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E143" t="s">
         <v>424</v>
       </c>
-      <c r="E143" t="s">
-        <v>425</v>
-      </c>
       <c r="F143" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G143" s="95">
         <v>44561</v>
@@ -11576,7 +11576,7 @@
       <c r="B144" s="115"/>
       <c r="C144" s="115"/>
       <c r="D144" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F144" t="s">
         <v>102</v>
@@ -11606,7 +11606,7 @@
       <c r="B145" s="115"/>
       <c r="C145" s="115"/>
       <c r="D145" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G145" s="95"/>
       <c r="H145" s="101"/>
@@ -11627,10 +11627,10 @@
         <v>111</v>
       </c>
       <c r="D146" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F146" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G146" s="95">
         <v>44561</v>
@@ -11657,13 +11657,13 @@
       <c r="B147" s="115"/>
       <c r="C147" s="115"/>
       <c r="D147" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E147" t="s">
         <v>421</v>
       </c>
-      <c r="E147" t="s">
-        <v>422</v>
-      </c>
       <c r="F147" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G147" s="95">
         <v>44561</v>
@@ -11690,13 +11690,13 @@
       <c r="B148" s="115"/>
       <c r="C148" s="115"/>
       <c r="D148" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E148" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F148" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G148" s="95">
         <v>44561</v>
@@ -11723,13 +11723,13 @@
       <c r="B149" s="115"/>
       <c r="C149" s="115"/>
       <c r="D149" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E149" t="s">
         <v>424</v>
       </c>
-      <c r="E149" t="s">
-        <v>425</v>
-      </c>
       <c r="F149" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G149" s="95">
         <v>44561</v>
@@ -11746,7 +11746,7 @@
       <c r="B150" s="115"/>
       <c r="C150" s="115"/>
       <c r="D150" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F150" t="s">
         <v>65</v>
@@ -11776,7 +11776,7 @@
       <c r="B151" s="115"/>
       <c r="C151" s="115"/>
       <c r="D151" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G151" s="95"/>
       <c r="H151" s="101"/>
@@ -11797,10 +11797,10 @@
         <v>114</v>
       </c>
       <c r="D152" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F152" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G152" s="95">
         <v>44561</v>
@@ -11827,13 +11827,13 @@
       <c r="B153" s="115"/>
       <c r="C153" s="115"/>
       <c r="D153" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E153" t="s">
         <v>421</v>
       </c>
-      <c r="E153" t="s">
-        <v>422</v>
-      </c>
       <c r="F153" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G153" s="95">
         <v>44561</v>
@@ -11860,13 +11860,13 @@
       <c r="B154" s="115"/>
       <c r="C154" s="115"/>
       <c r="D154" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E154" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F154" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G154" s="95">
         <v>44561</v>
@@ -11893,13 +11893,13 @@
       <c r="B155" s="115"/>
       <c r="C155" s="115"/>
       <c r="D155" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E155" t="s">
         <v>424</v>
       </c>
-      <c r="E155" t="s">
-        <v>425</v>
-      </c>
       <c r="F155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G155" s="95">
         <v>44561</v>
@@ -11916,7 +11916,7 @@
       <c r="B156" s="115"/>
       <c r="C156" s="115"/>
       <c r="D156" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F156" t="s">
         <v>102</v>
@@ -11946,7 +11946,7 @@
       <c r="B157" s="115"/>
       <c r="C157" s="115"/>
       <c r="D157" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G157" s="95"/>
       <c r="H157" s="101"/>
@@ -11967,10 +11967,10 @@
         <v>117</v>
       </c>
       <c r="D158" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F158" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G158" s="95">
         <v>44561</v>
@@ -11997,13 +11997,13 @@
       <c r="B159" s="115"/>
       <c r="C159" s="115"/>
       <c r="D159" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E159" t="s">
         <v>421</v>
       </c>
-      <c r="E159" t="s">
-        <v>422</v>
-      </c>
       <c r="F159" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G159" s="95">
         <v>44561</v>
@@ -12030,13 +12030,13 @@
       <c r="B160" s="115"/>
       <c r="C160" s="115"/>
       <c r="D160" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E160" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F160" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G160" s="95">
         <v>44561</v>
@@ -12063,13 +12063,13 @@
       <c r="B161" s="115"/>
       <c r="C161" s="115"/>
       <c r="D161" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E161" t="s">
         <v>424</v>
       </c>
-      <c r="E161" t="s">
-        <v>425</v>
-      </c>
       <c r="F161" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G161" s="95">
         <v>44561</v>
@@ -12086,7 +12086,7 @@
       <c r="B162" s="115"/>
       <c r="C162" s="115"/>
       <c r="D162" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F162" t="s">
         <v>65</v>
@@ -12116,7 +12116,7 @@
       <c r="B163" s="115"/>
       <c r="C163" s="115"/>
       <c r="D163" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G163" s="95"/>
       <c r="H163" s="101"/>
@@ -12137,10 +12137,10 @@
         <v>120</v>
       </c>
       <c r="D164" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F164" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G164" s="95">
         <v>44561</v>
@@ -12167,13 +12167,13 @@
       <c r="B165" s="115"/>
       <c r="C165" s="115"/>
       <c r="D165" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E165" t="s">
         <v>421</v>
       </c>
-      <c r="E165" t="s">
-        <v>422</v>
-      </c>
       <c r="F165" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G165" s="95">
         <v>44561</v>
@@ -12200,13 +12200,13 @@
       <c r="B166" s="115"/>
       <c r="C166" s="115"/>
       <c r="D166" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E166" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F166" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G166" s="95">
         <v>44561</v>
@@ -12233,13 +12233,13 @@
       <c r="B167" s="115"/>
       <c r="C167" s="115"/>
       <c r="D167" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E167" t="s">
         <v>424</v>
       </c>
-      <c r="E167" t="s">
-        <v>425</v>
-      </c>
       <c r="F167" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G167" s="95">
         <v>44561</v>
@@ -12256,7 +12256,7 @@
       <c r="B168" s="115"/>
       <c r="C168" s="115"/>
       <c r="D168" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F168" t="s">
         <v>65</v>
@@ -12286,7 +12286,7 @@
       <c r="B169" s="115"/>
       <c r="C169" s="115"/>
       <c r="D169" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G169" s="95"/>
       <c r="H169" s="101"/>
@@ -12307,10 +12307,10 @@
         <v>123</v>
       </c>
       <c r="D170" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F170" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G170" s="95">
         <v>44561</v>
@@ -12339,13 +12339,13 @@
       <c r="B171" s="115"/>
       <c r="C171" s="115"/>
       <c r="D171" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E171" t="s">
         <v>421</v>
       </c>
-      <c r="E171" t="s">
-        <v>422</v>
-      </c>
       <c r="F171" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G171" s="95">
         <v>44561</v>
@@ -12374,13 +12374,13 @@
       <c r="B172" s="115"/>
       <c r="C172" s="115"/>
       <c r="D172" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E172" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F172" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G172" s="95">
         <v>44561</v>
@@ -12409,13 +12409,13 @@
       <c r="B173" s="115"/>
       <c r="C173" s="115"/>
       <c r="D173" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E173" t="s">
         <v>424</v>
       </c>
-      <c r="E173" t="s">
-        <v>425</v>
-      </c>
       <c r="F173" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G173" s="95">
         <v>44561</v>
@@ -12432,7 +12432,7 @@
       <c r="B174" s="115"/>
       <c r="C174" s="115"/>
       <c r="D174" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F174" t="s">
         <v>65</v>
@@ -12464,7 +12464,7 @@
       <c r="B175" s="115"/>
       <c r="C175" s="115"/>
       <c r="D175" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G175" s="95"/>
       <c r="H175" s="101"/>
@@ -12485,10 +12485,10 @@
         <v>126</v>
       </c>
       <c r="D176" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F176" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G176" s="95">
         <v>44561</v>
@@ -12515,13 +12515,13 @@
       <c r="B177" s="115"/>
       <c r="C177" s="115"/>
       <c r="D177" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E177" t="s">
         <v>421</v>
       </c>
-      <c r="E177" t="s">
-        <v>422</v>
-      </c>
       <c r="F177" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G177" s="95">
         <v>44561</v>
@@ -12548,13 +12548,13 @@
       <c r="B178" s="115"/>
       <c r="C178" s="115"/>
       <c r="D178" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E178" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F178" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G178" s="95">
         <v>44561</v>
@@ -12581,13 +12581,13 @@
       <c r="B179" s="115"/>
       <c r="C179" s="115"/>
       <c r="D179" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E179" t="s">
         <v>424</v>
       </c>
-      <c r="E179" t="s">
-        <v>425</v>
-      </c>
       <c r="F179" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G179" s="95">
         <v>44561</v>
@@ -12604,7 +12604,7 @@
       <c r="B180" s="115"/>
       <c r="C180" s="115"/>
       <c r="D180" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F180" t="s">
         <v>65</v>
@@ -12634,7 +12634,7 @@
       <c r="B181" s="115"/>
       <c r="C181" s="115"/>
       <c r="D181" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G181" s="95"/>
       <c r="H181" s="101"/>
@@ -12655,10 +12655,10 @@
         <v>129</v>
       </c>
       <c r="D182" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F182" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G182" s="95">
         <v>44561</v>
@@ -12685,13 +12685,13 @@
       <c r="B183" s="115"/>
       <c r="C183" s="115"/>
       <c r="D183" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E183" t="s">
         <v>421</v>
       </c>
-      <c r="E183" t="s">
-        <v>422</v>
-      </c>
       <c r="F183" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G183" s="95">
         <v>44561</v>
@@ -12718,13 +12718,13 @@
       <c r="B184" s="115"/>
       <c r="C184" s="115"/>
       <c r="D184" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E184" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F184" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G184" s="95">
         <v>44561</v>
@@ -12751,13 +12751,13 @@
       <c r="B185" s="115"/>
       <c r="C185" s="115"/>
       <c r="D185" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E185" t="s">
         <v>424</v>
       </c>
-      <c r="E185" t="s">
-        <v>425</v>
-      </c>
       <c r="F185" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G185" s="95">
         <v>44561</v>
@@ -12774,7 +12774,7 @@
       <c r="B186" s="115"/>
       <c r="C186" s="115"/>
       <c r="D186" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F186" t="s">
         <v>65</v>
@@ -12804,7 +12804,7 @@
       <c r="B187" s="115"/>
       <c r="C187" s="115"/>
       <c r="D187" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G187" s="95"/>
       <c r="H187" s="101"/>
@@ -12825,10 +12825,10 @@
         <v>132</v>
       </c>
       <c r="D188" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F188" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G188" s="95">
         <v>44561</v>
@@ -12853,13 +12853,13 @@
       <c r="B189" s="115"/>
       <c r="C189" s="115"/>
       <c r="D189" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E189" t="s">
         <v>421</v>
       </c>
-      <c r="E189" t="s">
-        <v>422</v>
-      </c>
       <c r="F189" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G189" s="95">
         <v>44561</v>
@@ -12884,13 +12884,13 @@
       <c r="B190" s="115"/>
       <c r="C190" s="115"/>
       <c r="D190" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E190" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F190" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G190" s="95">
         <v>44561</v>
@@ -12915,13 +12915,13 @@
       <c r="B191" s="115"/>
       <c r="C191" s="115"/>
       <c r="D191" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E191" t="s">
         <v>424</v>
       </c>
-      <c r="E191" t="s">
-        <v>425</v>
-      </c>
       <c r="F191" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G191" s="95">
         <v>44561</v>
@@ -12946,7 +12946,7 @@
       <c r="B192" s="115"/>
       <c r="C192" s="115"/>
       <c r="D192" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F192" t="s">
         <v>59</v>
@@ -12976,7 +12976,7 @@
       <c r="B193" s="115"/>
       <c r="C193" s="115"/>
       <c r="D193" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G193" s="95"/>
       <c r="H193" s="101"/>
@@ -12997,10 +12997,10 @@
         <v>136</v>
       </c>
       <c r="D194" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F194" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G194" s="95">
         <v>44561</v>
@@ -13029,13 +13029,13 @@
       <c r="B195" s="115"/>
       <c r="C195" s="115"/>
       <c r="D195" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E195" t="s">
         <v>421</v>
       </c>
-      <c r="E195" t="s">
-        <v>422</v>
-      </c>
       <c r="F195" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G195" s="95">
         <v>44561</v>
@@ -13064,13 +13064,13 @@
       <c r="B196" s="115"/>
       <c r="C196" s="115"/>
       <c r="D196" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E196" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F196" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G196" s="95">
         <v>44561</v>
@@ -13099,13 +13099,13 @@
       <c r="B197" s="115"/>
       <c r="C197" s="115"/>
       <c r="D197" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E197" t="s">
         <v>424</v>
       </c>
-      <c r="E197" t="s">
-        <v>425</v>
-      </c>
       <c r="F197" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G197" s="95">
         <v>44561</v>
@@ -13134,7 +13134,7 @@
       <c r="B198" s="115"/>
       <c r="C198" s="115"/>
       <c r="D198" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F198" t="s">
         <v>65</v>
@@ -13166,7 +13166,7 @@
       <c r="B199" s="115"/>
       <c r="C199" s="115"/>
       <c r="D199" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G199" s="95"/>
       <c r="H199" s="101"/>
@@ -13187,10 +13187,10 @@
         <v>139</v>
       </c>
       <c r="D200" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F200" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G200" s="95">
         <v>44561</v>
@@ -13213,13 +13213,13 @@
       <c r="B201" s="115"/>
       <c r="C201" s="115"/>
       <c r="D201" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E201" t="s">
         <v>421</v>
       </c>
-      <c r="E201" t="s">
-        <v>422</v>
-      </c>
       <c r="F201" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G201" s="95">
         <v>44561</v>
@@ -13242,13 +13242,13 @@
       <c r="B202" s="115"/>
       <c r="C202" s="115"/>
       <c r="D202" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E202" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F202" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G202" s="95">
         <v>44561</v>
@@ -13271,13 +13271,13 @@
       <c r="B203" s="115"/>
       <c r="C203" s="115"/>
       <c r="D203" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E203" t="s">
         <v>424</v>
       </c>
-      <c r="E203" t="s">
-        <v>425</v>
-      </c>
       <c r="F203" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G203" s="95">
         <v>44561</v>
@@ -13300,7 +13300,7 @@
       <c r="B204" s="115"/>
       <c r="C204" s="115"/>
       <c r="D204" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F204" t="s">
         <v>59</v>
@@ -13326,7 +13326,7 @@
       <c r="B205" s="115"/>
       <c r="C205" s="115"/>
       <c r="D205" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G205" s="95"/>
       <c r="H205" s="101"/>
@@ -13347,10 +13347,10 @@
         <v>145</v>
       </c>
       <c r="D206" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F206" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G206" s="95">
         <v>44561</v>
@@ -13377,13 +13377,13 @@
       <c r="B207" s="115"/>
       <c r="C207" s="115"/>
       <c r="D207" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E207" t="s">
         <v>421</v>
       </c>
-      <c r="E207" t="s">
-        <v>422</v>
-      </c>
       <c r="F207" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G207" s="95">
         <v>44561</v>
@@ -13410,13 +13410,13 @@
       <c r="B208" s="115"/>
       <c r="C208" s="115"/>
       <c r="D208" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E208" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F208" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G208" s="95">
         <v>44561</v>
@@ -13443,13 +13443,13 @@
       <c r="B209" s="115"/>
       <c r="C209" s="115"/>
       <c r="D209" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E209" t="s">
         <v>424</v>
       </c>
-      <c r="E209" t="s">
-        <v>425</v>
-      </c>
       <c r="F209" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G209" s="95">
         <v>44561</v>
@@ -13466,7 +13466,7 @@
       <c r="B210" s="115"/>
       <c r="C210" s="115"/>
       <c r="D210" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F210" t="s">
         <v>65</v>
@@ -13496,7 +13496,7 @@
       <c r="B211" s="115"/>
       <c r="C211" s="115"/>
       <c r="D211" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G211" s="95"/>
       <c r="H211" s="101"/>
@@ -13517,10 +13517,10 @@
         <v>148</v>
       </c>
       <c r="D212" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F212" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G212" s="95">
         <v>44561</v>
@@ -13547,13 +13547,13 @@
       <c r="B213" s="115"/>
       <c r="C213" s="115"/>
       <c r="D213" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E213" t="s">
         <v>421</v>
       </c>
-      <c r="E213" t="s">
-        <v>422</v>
-      </c>
       <c r="F213" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G213" s="95">
         <v>44561</v>
@@ -13580,13 +13580,13 @@
       <c r="B214" s="115"/>
       <c r="C214" s="115"/>
       <c r="D214" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E214" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F214" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G214" s="95">
         <v>44561</v>
@@ -13613,13 +13613,13 @@
       <c r="B215" s="115"/>
       <c r="C215" s="115"/>
       <c r="D215" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E215" t="s">
         <v>424</v>
       </c>
-      <c r="E215" t="s">
-        <v>425</v>
-      </c>
       <c r="F215" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G215" s="95">
         <v>44561</v>
@@ -13636,7 +13636,7 @@
       <c r="B216" s="115"/>
       <c r="C216" s="115"/>
       <c r="D216" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F216" t="s">
         <v>65</v>
@@ -13666,7 +13666,7 @@
       <c r="B217" s="115"/>
       <c r="C217" s="115"/>
       <c r="D217" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G217" s="95"/>
       <c r="H217" s="101"/>
@@ -13687,10 +13687,10 @@
         <v>151</v>
       </c>
       <c r="D218" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G218" s="95">
         <v>44561</v>
@@ -13717,13 +13717,13 @@
       <c r="B219" s="115"/>
       <c r="C219" s="115"/>
       <c r="D219" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E219" t="s">
         <v>421</v>
       </c>
-      <c r="E219" t="s">
-        <v>422</v>
-      </c>
       <c r="F219" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G219" s="95">
         <v>44561</v>
@@ -13750,13 +13750,13 @@
       <c r="B220" s="115"/>
       <c r="C220" s="115"/>
       <c r="D220" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E220" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G220" s="95">
         <v>44561</v>
@@ -13783,13 +13783,13 @@
       <c r="B221" s="115"/>
       <c r="C221" s="115"/>
       <c r="D221" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E221" t="s">
         <v>424</v>
       </c>
-      <c r="E221" t="s">
-        <v>425</v>
-      </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G221" s="95">
         <v>44561</v>
@@ -13806,7 +13806,7 @@
       <c r="B222" s="115"/>
       <c r="C222" s="115"/>
       <c r="D222" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
         <v>65</v>
@@ -13836,7 +13836,7 @@
       <c r="B223" s="115"/>
       <c r="C223" s="115"/>
       <c r="D223" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G223" s="95"/>
       <c r="H223" s="101"/>
@@ -13857,10 +13857,10 @@
         <v>154</v>
       </c>
       <c r="D224" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F224" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G224" s="95">
         <v>44561</v>
@@ -13887,13 +13887,13 @@
       <c r="B225" s="115"/>
       <c r="C225" s="115"/>
       <c r="D225" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E225" t="s">
         <v>421</v>
       </c>
-      <c r="E225" t="s">
-        <v>422</v>
-      </c>
       <c r="F225" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G225" s="95">
         <v>44561</v>
@@ -13920,13 +13920,13 @@
       <c r="B226" s="115"/>
       <c r="C226" s="115"/>
       <c r="D226" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E226" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F226" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G226" s="95">
         <v>44561</v>
@@ -13953,13 +13953,13 @@
       <c r="B227" s="115"/>
       <c r="C227" s="115"/>
       <c r="D227" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E227" t="s">
         <v>424</v>
       </c>
-      <c r="E227" t="s">
-        <v>425</v>
-      </c>
       <c r="F227" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G227" s="95">
         <v>44561</v>
@@ -13976,7 +13976,7 @@
       <c r="B228" s="115"/>
       <c r="C228" s="115"/>
       <c r="D228" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F228" t="s">
         <v>84</v>
@@ -14006,7 +14006,7 @@
       <c r="B229" s="115"/>
       <c r="C229" s="115"/>
       <c r="D229" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G229" s="95"/>
       <c r="H229" s="101"/>
@@ -14027,10 +14027,10 @@
         <v>157</v>
       </c>
       <c r="D230" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G230" s="95">
         <v>44561</v>
@@ -14059,13 +14059,13 @@
       <c r="B231" s="115"/>
       <c r="C231" s="115"/>
       <c r="D231" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E231" t="s">
         <v>421</v>
       </c>
-      <c r="E231" t="s">
-        <v>422</v>
-      </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G231" s="95">
         <v>44561</v>
@@ -14094,13 +14094,13 @@
       <c r="B232" s="115"/>
       <c r="C232" s="115"/>
       <c r="D232" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E232" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F232" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G232" s="95">
         <v>44561</v>
@@ -14129,13 +14129,13 @@
       <c r="B233" s="115"/>
       <c r="C233" s="115"/>
       <c r="D233" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E233" t="s">
         <v>424</v>
       </c>
-      <c r="E233" t="s">
-        <v>425</v>
-      </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G233" s="95">
         <v>44561</v>
@@ -14164,7 +14164,7 @@
       <c r="B234" s="115"/>
       <c r="C234" s="115"/>
       <c r="D234" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F234" t="s">
         <v>158</v>
@@ -14196,7 +14196,7 @@
       <c r="B235" s="115"/>
       <c r="C235" s="115"/>
       <c r="D235" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G235" s="95"/>
       <c r="H235" s="101"/>
@@ -14217,10 +14217,10 @@
         <v>161</v>
       </c>
       <c r="D236" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F236" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G236" s="95">
         <v>44561</v>
@@ -14245,13 +14245,13 @@
       <c r="B237" s="115"/>
       <c r="C237" s="115"/>
       <c r="D237" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E237" t="s">
         <v>421</v>
       </c>
-      <c r="E237" t="s">
-        <v>422</v>
-      </c>
       <c r="F237" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G237" s="95">
         <v>44561</v>
@@ -14276,13 +14276,13 @@
       <c r="B238" s="115"/>
       <c r="C238" s="115"/>
       <c r="D238" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E238" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F238" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G238" s="95">
         <v>44561</v>
@@ -14307,13 +14307,13 @@
       <c r="B239" s="115"/>
       <c r="C239" s="115"/>
       <c r="D239" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E239" t="s">
         <v>424</v>
       </c>
-      <c r="E239" t="s">
-        <v>425</v>
-      </c>
       <c r="F239" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G239" s="95">
         <v>44561</v>
@@ -14330,7 +14330,7 @@
       <c r="B240" s="115"/>
       <c r="C240" s="115"/>
       <c r="D240" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F240" t="s">
         <v>84</v>
@@ -14358,7 +14358,7 @@
       <c r="B241" s="115"/>
       <c r="C241" s="115"/>
       <c r="D241" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G241" s="95"/>
       <c r="H241" s="101"/>
@@ -14379,10 +14379,10 @@
         <v>164</v>
       </c>
       <c r="D242" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F242" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G242" s="95">
         <v>44561</v>
@@ -14407,13 +14407,13 @@
       <c r="B243" s="115"/>
       <c r="C243" s="115"/>
       <c r="D243" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E243" t="s">
         <v>421</v>
       </c>
-      <c r="E243" t="s">
-        <v>422</v>
-      </c>
       <c r="F243" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G243" s="95">
         <v>44561</v>
@@ -14438,13 +14438,13 @@
       <c r="B244" s="115"/>
       <c r="C244" s="115"/>
       <c r="D244" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E244" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G244" s="95">
         <v>44561</v>
@@ -14469,13 +14469,13 @@
       <c r="B245" s="115"/>
       <c r="C245" s="115"/>
       <c r="D245" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E245" t="s">
         <v>424</v>
       </c>
-      <c r="E245" t="s">
-        <v>425</v>
-      </c>
       <c r="F245" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G245" s="95">
         <v>44561</v>
@@ -14500,7 +14500,7 @@
       <c r="B246" s="115"/>
       <c r="C246" s="115"/>
       <c r="D246" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F246" t="s">
         <v>165</v>
@@ -14526,7 +14526,7 @@
       <c r="B247" s="115"/>
       <c r="C247" s="115"/>
       <c r="D247" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G247" s="95"/>
       <c r="H247" s="101"/>
@@ -14547,10 +14547,10 @@
         <v>168</v>
       </c>
       <c r="D248" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F248" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G248" s="95">
         <v>44561</v>
@@ -14577,13 +14577,13 @@
       <c r="B249" s="115"/>
       <c r="C249" s="115"/>
       <c r="D249" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E249" t="s">
         <v>421</v>
       </c>
-      <c r="E249" t="s">
-        <v>422</v>
-      </c>
       <c r="F249" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G249" s="95">
         <v>44561</v>
@@ -14610,13 +14610,13 @@
       <c r="B250" s="115"/>
       <c r="C250" s="115"/>
       <c r="D250" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E250" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F250" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G250" s="95">
         <v>44561</v>
@@ -14643,13 +14643,13 @@
       <c r="B251" s="115"/>
       <c r="C251" s="115"/>
       <c r="D251" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E251" t="s">
         <v>424</v>
       </c>
-      <c r="E251" t="s">
-        <v>425</v>
-      </c>
       <c r="F251" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G251" s="95">
         <v>44561</v>
@@ -14666,7 +14666,7 @@
       <c r="B252" s="115"/>
       <c r="C252" s="115"/>
       <c r="D252" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F252" t="s">
         <v>84</v>
@@ -14696,7 +14696,7 @@
       <c r="B253" s="115"/>
       <c r="C253" s="115"/>
       <c r="D253" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G253" s="95"/>
       <c r="H253" s="101"/>
@@ -14717,10 +14717,10 @@
         <v>172</v>
       </c>
       <c r="D254" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F254" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G254" s="95">
         <v>44561</v>
@@ -14743,13 +14743,13 @@
       <c r="B255" s="115"/>
       <c r="C255" s="115"/>
       <c r="D255" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E255" t="s">
         <v>421</v>
       </c>
-      <c r="E255" t="s">
-        <v>422</v>
-      </c>
       <c r="F255" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G255" s="95">
         <v>44561</v>
@@ -14772,13 +14772,13 @@
       <c r="B256" s="115"/>
       <c r="C256" s="115"/>
       <c r="D256" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E256" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F256" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G256" s="95">
         <v>44561</v>
@@ -14801,13 +14801,13 @@
       <c r="B257" s="115"/>
       <c r="C257" s="115"/>
       <c r="D257" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E257" t="s">
         <v>424</v>
       </c>
-      <c r="E257" t="s">
-        <v>425</v>
-      </c>
       <c r="F257" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G257" s="95">
         <v>44561</v>
@@ -14830,7 +14830,7 @@
       <c r="B258" s="115"/>
       <c r="C258" s="115"/>
       <c r="D258" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F258" t="s">
         <v>173</v>
@@ -14856,7 +14856,7 @@
       <c r="B259" s="115"/>
       <c r="C259" s="115"/>
       <c r="D259" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G259" s="95"/>
       <c r="H259" s="101"/>
@@ -14877,10 +14877,10 @@
         <v>176</v>
       </c>
       <c r="D260" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F260" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G260" s="95">
         <v>44561</v>
@@ -14907,13 +14907,13 @@
       <c r="B261" s="115"/>
       <c r="C261" s="115"/>
       <c r="D261" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E261" t="s">
         <v>421</v>
       </c>
-      <c r="E261" t="s">
-        <v>422</v>
-      </c>
       <c r="F261" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G261" s="95">
         <v>44561</v>
@@ -14940,13 +14940,13 @@
       <c r="B262" s="115"/>
       <c r="C262" s="115"/>
       <c r="D262" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E262" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F262" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G262" s="95">
         <v>44561</v>
@@ -14973,13 +14973,13 @@
       <c r="B263" s="115"/>
       <c r="C263" s="115"/>
       <c r="D263" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E263" t="s">
         <v>424</v>
       </c>
-      <c r="E263" t="s">
-        <v>425</v>
-      </c>
       <c r="F263" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G263" s="95">
         <v>44561</v>
@@ -14996,7 +14996,7 @@
       <c r="B264" s="115"/>
       <c r="C264" s="115"/>
       <c r="D264" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F264" t="s">
         <v>102</v>
@@ -15026,7 +15026,7 @@
       <c r="B265" s="115"/>
       <c r="C265" s="115"/>
       <c r="D265" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G265" s="95"/>
       <c r="H265" s="101"/>
@@ -15047,10 +15047,10 @@
         <v>180</v>
       </c>
       <c r="D266" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F266" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G266" s="95">
         <v>44561</v>
@@ -15077,13 +15077,13 @@
       <c r="B267" s="115"/>
       <c r="C267" s="115"/>
       <c r="D267" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E267" t="s">
         <v>421</v>
       </c>
-      <c r="E267" t="s">
-        <v>422</v>
-      </c>
       <c r="F267" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G267" s="95">
         <v>44561</v>
@@ -15110,13 +15110,13 @@
       <c r="B268" s="115"/>
       <c r="C268" s="115"/>
       <c r="D268" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E268" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F268" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G268" s="95">
         <v>44561</v>
@@ -15143,13 +15143,13 @@
       <c r="B269" s="115"/>
       <c r="C269" s="115"/>
       <c r="D269" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E269" t="s">
         <v>424</v>
       </c>
-      <c r="E269" t="s">
-        <v>425</v>
-      </c>
       <c r="F269" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G269" s="95">
         <v>44561</v>
@@ -15166,7 +15166,7 @@
       <c r="B270" s="115"/>
       <c r="C270" s="115"/>
       <c r="D270" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F270" t="s">
         <v>65</v>
@@ -15196,7 +15196,7 @@
       <c r="B271" s="115"/>
       <c r="C271" s="115"/>
       <c r="D271" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G271" s="95"/>
       <c r="H271" s="101"/>
@@ -15217,10 +15217,10 @@
         <v>183</v>
       </c>
       <c r="D272" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F272" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G272" s="95">
         <v>44561</v>
@@ -15247,13 +15247,13 @@
       <c r="B273" s="115"/>
       <c r="C273" s="115"/>
       <c r="D273" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E273" t="s">
         <v>421</v>
       </c>
-      <c r="E273" t="s">
-        <v>422</v>
-      </c>
       <c r="F273" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G273" s="95">
         <v>44561</v>
@@ -15280,13 +15280,13 @@
       <c r="B274" s="115"/>
       <c r="C274" s="115"/>
       <c r="D274" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E274" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F274" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G274" s="95">
         <v>44561</v>
@@ -15313,13 +15313,13 @@
       <c r="B275" s="115"/>
       <c r="C275" s="115"/>
       <c r="D275" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E275" t="s">
         <v>424</v>
       </c>
-      <c r="E275" t="s">
-        <v>425</v>
-      </c>
       <c r="F275" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G275" s="95">
         <v>44561</v>
@@ -15346,7 +15346,7 @@
       <c r="B276" s="115"/>
       <c r="C276" s="115"/>
       <c r="D276" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F276" t="s">
         <v>59</v>
@@ -15376,7 +15376,7 @@
       <c r="B277" s="115"/>
       <c r="C277" s="115"/>
       <c r="D277" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G277" s="95"/>
       <c r="H277" s="101"/>
@@ -15397,10 +15397,10 @@
         <v>187</v>
       </c>
       <c r="D278" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F278" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G278" s="95">
         <v>44561</v>
@@ -15427,13 +15427,13 @@
       <c r="B279" s="115"/>
       <c r="C279" s="115"/>
       <c r="D279" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E279" t="s">
         <v>421</v>
       </c>
-      <c r="E279" t="s">
-        <v>422</v>
-      </c>
       <c r="F279" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G279" s="95">
         <v>44561</v>
@@ -15460,13 +15460,13 @@
       <c r="B280" s="115"/>
       <c r="C280" s="115"/>
       <c r="D280" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E280" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F280" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G280" s="95">
         <v>44561</v>
@@ -15493,13 +15493,13 @@
       <c r="B281" s="115"/>
       <c r="C281" s="115"/>
       <c r="D281" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E281" t="s">
         <v>424</v>
       </c>
-      <c r="E281" t="s">
-        <v>425</v>
-      </c>
       <c r="F281" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G281" s="95">
         <v>44561</v>
@@ -15526,7 +15526,7 @@
       <c r="B282" s="115"/>
       <c r="C282" s="115"/>
       <c r="D282" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F282" t="s">
         <v>188</v>
@@ -15556,7 +15556,7 @@
       <c r="B283" s="115"/>
       <c r="C283" s="115"/>
       <c r="D283" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G283" s="95"/>
       <c r="H283" s="101"/>
@@ -15577,10 +15577,10 @@
         <v>191</v>
       </c>
       <c r="D284" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F284" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G284" s="95">
         <v>44561</v>
@@ -15607,13 +15607,13 @@
       <c r="B285" s="115"/>
       <c r="C285" s="115"/>
       <c r="D285" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E285" t="s">
         <v>421</v>
       </c>
-      <c r="E285" t="s">
-        <v>422</v>
-      </c>
       <c r="F285" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G285" s="95">
         <v>44561</v>
@@ -15640,13 +15640,13 @@
       <c r="B286" s="115"/>
       <c r="C286" s="115"/>
       <c r="D286" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E286" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F286" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G286" s="95">
         <v>44561</v>
@@ -15673,13 +15673,13 @@
       <c r="B287" s="115"/>
       <c r="C287" s="115"/>
       <c r="D287" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E287" t="s">
         <v>424</v>
       </c>
-      <c r="E287" t="s">
-        <v>425</v>
-      </c>
       <c r="F287" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G287" s="95">
         <v>44561</v>
@@ -15696,7 +15696,7 @@
       <c r="B288" s="115"/>
       <c r="C288" s="115"/>
       <c r="D288" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F288" t="s">
         <v>65</v>
@@ -15726,7 +15726,7 @@
       <c r="B289" s="115"/>
       <c r="C289" s="115"/>
       <c r="D289" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G289" s="95"/>
       <c r="H289" s="101"/>
@@ -15747,10 +15747,10 @@
         <v>194</v>
       </c>
       <c r="D290" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F290" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G290" s="95">
         <v>44561</v>
@@ -15777,13 +15777,13 @@
       <c r="B291" s="115"/>
       <c r="C291" s="115"/>
       <c r="D291" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E291" t="s">
         <v>421</v>
       </c>
-      <c r="E291" t="s">
-        <v>422</v>
-      </c>
       <c r="F291" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G291" s="95">
         <v>44561</v>
@@ -15810,13 +15810,13 @@
       <c r="B292" s="115"/>
       <c r="C292" s="115"/>
       <c r="D292" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E292" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F292" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G292" s="95">
         <v>44561</v>
@@ -15843,13 +15843,13 @@
       <c r="B293" s="115"/>
       <c r="C293" s="115"/>
       <c r="D293" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E293" t="s">
         <v>424</v>
       </c>
-      <c r="E293" t="s">
-        <v>425</v>
-      </c>
       <c r="F293" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G293" s="95">
         <v>44561</v>
@@ -15866,7 +15866,7 @@
       <c r="B294" s="115"/>
       <c r="C294" s="115"/>
       <c r="D294" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F294" t="s">
         <v>65</v>
@@ -15896,7 +15896,7 @@
       <c r="B295" s="115"/>
       <c r="C295" s="115"/>
       <c r="D295" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G295" s="95"/>
       <c r="H295" s="101"/>
@@ -15917,10 +15917,10 @@
         <v>197</v>
       </c>
       <c r="D296" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F296" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G296" s="95">
         <v>44561</v>
@@ -15947,13 +15947,13 @@
       <c r="B297" s="115"/>
       <c r="C297" s="115"/>
       <c r="D297" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E297" t="s">
         <v>421</v>
       </c>
-      <c r="E297" t="s">
-        <v>422</v>
-      </c>
       <c r="F297" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G297" s="95">
         <v>44561</v>
@@ -15980,13 +15980,13 @@
       <c r="B298" s="115"/>
       <c r="C298" s="115"/>
       <c r="D298" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E298" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F298" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G298" s="95">
         <v>44561</v>
@@ -16013,13 +16013,13 @@
       <c r="B299" s="115"/>
       <c r="C299" s="115"/>
       <c r="D299" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E299" t="s">
         <v>424</v>
       </c>
-      <c r="E299" t="s">
-        <v>425</v>
-      </c>
       <c r="F299" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G299" s="95">
         <v>44561</v>
@@ -16036,7 +16036,7 @@
       <c r="B300" s="115"/>
       <c r="C300" s="115"/>
       <c r="D300" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F300" t="s">
         <v>65</v>
@@ -16066,7 +16066,7 @@
       <c r="B301" s="115"/>
       <c r="C301" s="115"/>
       <c r="D301" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G301" s="95"/>
       <c r="H301" s="101"/>
@@ -16087,10 +16087,10 @@
         <v>200</v>
       </c>
       <c r="D302" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F302" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G302" s="95">
         <v>44561</v>
@@ -16117,13 +16117,13 @@
       <c r="B303" s="115"/>
       <c r="C303" s="115"/>
       <c r="D303" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E303" t="s">
         <v>421</v>
       </c>
-      <c r="E303" t="s">
-        <v>422</v>
-      </c>
       <c r="F303" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G303" s="95">
         <v>44561</v>
@@ -16150,13 +16150,13 @@
       <c r="B304" s="115"/>
       <c r="C304" s="115"/>
       <c r="D304" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E304" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F304" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G304" s="95">
         <v>44561</v>
@@ -16183,13 +16183,13 @@
       <c r="B305" s="115"/>
       <c r="C305" s="115"/>
       <c r="D305" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E305" t="s">
         <v>424</v>
       </c>
-      <c r="E305" t="s">
-        <v>425</v>
-      </c>
       <c r="F305" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G305" s="95">
         <v>44561</v>
@@ -16216,7 +16216,7 @@
       <c r="B306" s="115"/>
       <c r="C306" s="115"/>
       <c r="D306" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F306" t="s">
         <v>102</v>
@@ -16246,7 +16246,7 @@
       <c r="B307" s="115"/>
       <c r="C307" s="115"/>
       <c r="D307" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G307" s="95"/>
       <c r="H307" s="101"/>
@@ -16267,10 +16267,10 @@
         <v>205</v>
       </c>
       <c r="D308" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F308" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G308" s="95">
         <v>44561</v>
@@ -16297,13 +16297,13 @@
       <c r="B309" s="115"/>
       <c r="C309" s="115"/>
       <c r="D309" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E309" t="s">
         <v>421</v>
       </c>
-      <c r="E309" t="s">
-        <v>422</v>
-      </c>
       <c r="F309" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G309" s="95">
         <v>44561</v>
@@ -16330,13 +16330,13 @@
       <c r="B310" s="115"/>
       <c r="C310" s="115"/>
       <c r="D310" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E310" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F310" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G310" s="95">
         <v>44561</v>
@@ -16363,13 +16363,13 @@
       <c r="B311" s="115"/>
       <c r="C311" s="115"/>
       <c r="D311" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E311" t="s">
         <v>424</v>
       </c>
-      <c r="E311" t="s">
-        <v>425</v>
-      </c>
       <c r="F311" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G311" s="95">
         <v>44561</v>
@@ -16386,7 +16386,7 @@
       <c r="B312" s="115"/>
       <c r="C312" s="115"/>
       <c r="D312" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F312" t="s">
         <v>65</v>
@@ -16416,7 +16416,7 @@
       <c r="B313" s="115"/>
       <c r="C313" s="115"/>
       <c r="D313" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G313" s="95"/>
       <c r="H313" s="101"/>
@@ -16437,10 +16437,10 @@
         <v>208</v>
       </c>
       <c r="D314" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F314" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G314" s="95">
         <v>44561</v>
@@ -16467,13 +16467,13 @@
       <c r="B315" s="115"/>
       <c r="C315" s="115"/>
       <c r="D315" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E315" t="s">
         <v>421</v>
       </c>
-      <c r="E315" t="s">
-        <v>422</v>
-      </c>
       <c r="F315" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G315" s="95">
         <v>44561</v>
@@ -16500,13 +16500,13 @@
       <c r="B316" s="115"/>
       <c r="C316" s="115"/>
       <c r="D316" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E316" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F316" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G316" s="95">
         <v>44561</v>
@@ -16533,13 +16533,13 @@
       <c r="B317" s="115"/>
       <c r="C317" s="115"/>
       <c r="D317" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E317" t="s">
         <v>424</v>
       </c>
-      <c r="E317" t="s">
-        <v>425</v>
-      </c>
       <c r="F317" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G317" s="95">
         <v>44561</v>
@@ -16556,7 +16556,7 @@
       <c r="B318" s="115"/>
       <c r="C318" s="115"/>
       <c r="D318" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F318" t="s">
         <v>65</v>
@@ -16586,7 +16586,7 @@
       <c r="B319" s="115"/>
       <c r="C319" s="115"/>
       <c r="D319" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G319" s="95"/>
       <c r="H319" s="101"/>
@@ -16607,10 +16607,10 @@
         <v>211</v>
       </c>
       <c r="D320" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F320" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G320" s="95">
         <v>44561</v>
@@ -16637,13 +16637,13 @@
       <c r="B321" s="115"/>
       <c r="C321" s="115"/>
       <c r="D321" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E321" t="s">
         <v>421</v>
       </c>
-      <c r="E321" t="s">
-        <v>422</v>
-      </c>
       <c r="F321" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G321" s="95">
         <v>44561</v>
@@ -16670,13 +16670,13 @@
       <c r="B322" s="115"/>
       <c r="C322" s="115"/>
       <c r="D322" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E322" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F322" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G322" s="95">
         <v>44561</v>
@@ -16703,13 +16703,13 @@
       <c r="B323" s="115"/>
       <c r="C323" s="115"/>
       <c r="D323" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E323" t="s">
         <v>424</v>
       </c>
-      <c r="E323" t="s">
-        <v>425</v>
-      </c>
       <c r="F323" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G323" s="95">
         <v>44561</v>
@@ -16736,7 +16736,7 @@
       <c r="B324" s="115"/>
       <c r="C324" s="115"/>
       <c r="D324" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F324" t="s">
         <v>102</v>
@@ -16766,7 +16766,7 @@
       <c r="B325" s="115"/>
       <c r="C325" s="115"/>
       <c r="D325" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G325" s="95"/>
       <c r="H325" s="101"/>
@@ -16787,10 +16787,10 @@
         <v>214</v>
       </c>
       <c r="D326" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F326" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G326" s="95">
         <v>44561</v>
@@ -16817,13 +16817,13 @@
       <c r="B327" s="115"/>
       <c r="C327" s="115"/>
       <c r="D327" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E327" t="s">
         <v>421</v>
       </c>
-      <c r="E327" t="s">
-        <v>422</v>
-      </c>
       <c r="F327" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G327" s="95">
         <v>44561</v>
@@ -16850,13 +16850,13 @@
       <c r="B328" s="115"/>
       <c r="C328" s="115"/>
       <c r="D328" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E328" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F328" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G328" s="95">
         <v>44561</v>
@@ -16883,13 +16883,13 @@
       <c r="B329" s="115"/>
       <c r="C329" s="115"/>
       <c r="D329" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E329" t="s">
         <v>424</v>
       </c>
-      <c r="E329" t="s">
-        <v>425</v>
-      </c>
       <c r="F329" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G329" s="95">
         <v>44561</v>
@@ -16906,7 +16906,7 @@
       <c r="B330" s="115"/>
       <c r="C330" s="115"/>
       <c r="D330" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F330" t="s">
         <v>84</v>
@@ -16936,7 +16936,7 @@
       <c r="B331" s="115"/>
       <c r="C331" s="115"/>
       <c r="D331" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G331" s="95"/>
       <c r="H331" s="101"/>
@@ -16957,10 +16957,10 @@
         <v>217</v>
       </c>
       <c r="D332" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F332" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G332" s="95">
         <v>44561</v>
@@ -16989,13 +16989,13 @@
       <c r="B333" s="115"/>
       <c r="C333" s="115"/>
       <c r="D333" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E333" t="s">
         <v>421</v>
       </c>
-      <c r="E333" t="s">
-        <v>422</v>
-      </c>
       <c r="F333" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G333" s="95">
         <v>44561</v>
@@ -17024,13 +17024,13 @@
       <c r="B334" s="115"/>
       <c r="C334" s="115"/>
       <c r="D334" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E334" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F334" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G334" s="95">
         <v>44561</v>
@@ -17059,13 +17059,13 @@
       <c r="B335" s="115"/>
       <c r="C335" s="115"/>
       <c r="D335" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E335" t="s">
         <v>424</v>
       </c>
-      <c r="E335" t="s">
-        <v>425</v>
-      </c>
       <c r="F335" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G335" s="95">
         <v>44561</v>
@@ -17094,7 +17094,7 @@
       <c r="B336" s="115"/>
       <c r="C336" s="115"/>
       <c r="D336" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F336" t="s">
         <v>188</v>
@@ -17126,7 +17126,7 @@
       <c r="B337" s="115"/>
       <c r="C337" s="115"/>
       <c r="D337" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G337" s="95"/>
       <c r="H337" s="101"/>
@@ -17147,10 +17147,10 @@
         <v>220</v>
       </c>
       <c r="D338" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F338" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G338" s="95">
         <v>44561</v>
@@ -17167,13 +17167,13 @@
       <c r="B339" s="115"/>
       <c r="C339" s="115"/>
       <c r="D339" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E339" t="s">
         <v>421</v>
       </c>
-      <c r="E339" t="s">
-        <v>422</v>
-      </c>
       <c r="F339" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G339" s="95">
         <v>44561</v>
@@ -17190,13 +17190,13 @@
       <c r="B340" s="115"/>
       <c r="C340" s="115"/>
       <c r="D340" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E340" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F340" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G340" s="95">
         <v>44561</v>
@@ -17223,13 +17223,13 @@
       <c r="B341" s="115"/>
       <c r="C341" s="115"/>
       <c r="D341" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E341" t="s">
         <v>424</v>
       </c>
-      <c r="E341" t="s">
-        <v>425</v>
-      </c>
       <c r="F341" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G341" s="95">
         <v>44561</v>
@@ -17246,7 +17246,7 @@
       <c r="B342" s="115"/>
       <c r="C342" s="115"/>
       <c r="D342" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F342" t="s">
         <v>222</v>
@@ -17276,7 +17276,7 @@
       <c r="B343" s="115"/>
       <c r="C343" s="115"/>
       <c r="D343" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G343" s="95"/>
       <c r="H343" s="101"/>
@@ -17297,10 +17297,10 @@
         <v>225</v>
       </c>
       <c r="D344" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F344" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G344" s="95">
         <v>44561</v>
@@ -17327,13 +17327,13 @@
       <c r="B345" s="115"/>
       <c r="C345" s="115"/>
       <c r="D345" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E345" t="s">
         <v>421</v>
       </c>
-      <c r="E345" t="s">
-        <v>422</v>
-      </c>
       <c r="F345" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G345" s="95">
         <v>44561</v>
@@ -17360,13 +17360,13 @@
       <c r="B346" s="115"/>
       <c r="C346" s="115"/>
       <c r="D346" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E346" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F346" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G346" s="95">
         <v>44561</v>
@@ -17393,13 +17393,13 @@
       <c r="B347" s="115"/>
       <c r="C347" s="115"/>
       <c r="D347" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E347" t="s">
         <v>424</v>
       </c>
-      <c r="E347" t="s">
-        <v>425</v>
-      </c>
       <c r="F347" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G347" s="95">
         <v>44561</v>
@@ -17416,7 +17416,7 @@
       <c r="B348" s="115"/>
       <c r="C348" s="115"/>
       <c r="D348" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F348" t="s">
         <v>65</v>
@@ -17446,7 +17446,7 @@
       <c r="B349" s="115"/>
       <c r="C349" s="115"/>
       <c r="D349" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G349" s="95"/>
       <c r="H349" s="101"/>
@@ -17467,10 +17467,10 @@
         <v>228</v>
       </c>
       <c r="D350" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F350" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G350" s="95">
         <v>44561</v>
@@ -17497,13 +17497,13 @@
       <c r="B351" s="115"/>
       <c r="C351" s="115"/>
       <c r="D351" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E351" t="s">
         <v>421</v>
       </c>
-      <c r="E351" t="s">
-        <v>422</v>
-      </c>
       <c r="F351" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G351" s="95">
         <v>44561</v>
@@ -17530,13 +17530,13 @@
       <c r="B352" s="115"/>
       <c r="C352" s="115"/>
       <c r="D352" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E352" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F352" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G352" s="95">
         <v>44561</v>
@@ -17563,13 +17563,13 @@
       <c r="B353" s="115"/>
       <c r="C353" s="115"/>
       <c r="D353" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E353" t="s">
         <v>424</v>
       </c>
-      <c r="E353" t="s">
-        <v>425</v>
-      </c>
       <c r="F353" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G353" s="95">
         <v>44561</v>
@@ -17586,7 +17586,7 @@
       <c r="B354" s="115"/>
       <c r="C354" s="115"/>
       <c r="D354" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F354" t="s">
         <v>65</v>
@@ -17616,7 +17616,7 @@
       <c r="B355" s="115"/>
       <c r="C355" s="115"/>
       <c r="D355" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G355" s="95"/>
       <c r="H355" s="101"/>
@@ -17637,10 +17637,10 @@
         <v>231</v>
       </c>
       <c r="D356" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F356" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G356" s="95">
         <v>44561</v>
@@ -17667,13 +17667,13 @@
       <c r="B357" s="115"/>
       <c r="C357" s="115"/>
       <c r="D357" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E357" t="s">
         <v>421</v>
       </c>
-      <c r="E357" t="s">
-        <v>422</v>
-      </c>
       <c r="F357" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G357" s="95">
         <v>44561</v>
@@ -17700,13 +17700,13 @@
       <c r="B358" s="115"/>
       <c r="C358" s="115"/>
       <c r="D358" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E358" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F358" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G358" s="95">
         <v>44561</v>
@@ -17733,13 +17733,13 @@
       <c r="B359" s="115"/>
       <c r="C359" s="115"/>
       <c r="D359" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E359" t="s">
         <v>424</v>
       </c>
-      <c r="E359" t="s">
-        <v>425</v>
-      </c>
       <c r="F359" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G359" s="95">
         <v>44561</v>
@@ -17766,7 +17766,7 @@
       <c r="B360" s="115"/>
       <c r="C360" s="115"/>
       <c r="D360" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F360" t="s">
         <v>102</v>
@@ -17796,7 +17796,7 @@
       <c r="B361" s="115"/>
       <c r="C361" s="115"/>
       <c r="D361" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G361" s="95"/>
       <c r="H361" s="101"/>
@@ -17817,10 +17817,10 @@
         <v>235</v>
       </c>
       <c r="D362" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F362" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G362" s="95">
         <v>44561</v>
@@ -17847,13 +17847,13 @@
       <c r="B363" s="115"/>
       <c r="C363" s="115"/>
       <c r="D363" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E363" t="s">
         <v>421</v>
       </c>
-      <c r="E363" t="s">
-        <v>422</v>
-      </c>
       <c r="F363" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G363" s="95">
         <v>44561</v>
@@ -17880,13 +17880,13 @@
       <c r="B364" s="115"/>
       <c r="C364" s="115"/>
       <c r="D364" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E364" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F364" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G364" s="95">
         <v>44561</v>
@@ -17913,13 +17913,13 @@
       <c r="B365" s="115"/>
       <c r="C365" s="115"/>
       <c r="D365" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E365" t="s">
         <v>424</v>
       </c>
-      <c r="E365" t="s">
-        <v>425</v>
-      </c>
       <c r="F365" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G365" s="95">
         <v>44561</v>
@@ -17936,7 +17936,7 @@
       <c r="B366" s="115"/>
       <c r="C366" s="115"/>
       <c r="D366" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F366" t="s">
         <v>65</v>
@@ -17966,7 +17966,7 @@
       <c r="B367" s="115"/>
       <c r="C367" s="115"/>
       <c r="D367" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G367" s="95"/>
       <c r="H367" s="101"/>
@@ -17987,10 +17987,10 @@
         <v>238</v>
       </c>
       <c r="D368" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F368" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G368" s="95">
         <v>44561</v>
@@ -18017,13 +18017,13 @@
       <c r="B369" s="115"/>
       <c r="C369" s="115"/>
       <c r="D369" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E369" t="s">
         <v>421</v>
       </c>
-      <c r="E369" t="s">
-        <v>422</v>
-      </c>
       <c r="F369" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G369" s="95">
         <v>44561</v>
@@ -18050,13 +18050,13 @@
       <c r="B370" s="115"/>
       <c r="C370" s="115"/>
       <c r="D370" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E370" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F370" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G370" s="95">
         <v>44561</v>
@@ -18083,13 +18083,13 @@
       <c r="B371" s="115"/>
       <c r="C371" s="115"/>
       <c r="D371" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E371" t="s">
         <v>424</v>
       </c>
-      <c r="E371" t="s">
-        <v>425</v>
-      </c>
       <c r="F371" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G371" s="95">
         <v>44561</v>
@@ -18106,7 +18106,7 @@
       <c r="B372" s="115"/>
       <c r="C372" s="115"/>
       <c r="D372" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F372" t="s">
         <v>65</v>
@@ -18136,7 +18136,7 @@
       <c r="B373" s="115"/>
       <c r="C373" s="115"/>
       <c r="D373" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G373" s="95"/>
       <c r="H373" s="101"/>
@@ -18157,10 +18157,10 @@
         <v>241</v>
       </c>
       <c r="D374" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F374" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G374" s="95">
         <v>44561</v>
@@ -18187,13 +18187,13 @@
       <c r="B375" s="115"/>
       <c r="C375" s="115"/>
       <c r="D375" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E375" t="s">
         <v>421</v>
       </c>
-      <c r="E375" t="s">
-        <v>422</v>
-      </c>
       <c r="F375" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G375" s="95">
         <v>44561</v>
@@ -18220,13 +18220,13 @@
       <c r="B376" s="115"/>
       <c r="C376" s="115"/>
       <c r="D376" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E376" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F376" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G376" s="95">
         <v>44561</v>
@@ -18253,13 +18253,13 @@
       <c r="B377" s="115"/>
       <c r="C377" s="115"/>
       <c r="D377" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E377" t="s">
         <v>424</v>
       </c>
-      <c r="E377" t="s">
-        <v>425</v>
-      </c>
       <c r="F377" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G377" s="95">
         <v>44561</v>
@@ -18276,7 +18276,7 @@
       <c r="B378" s="115"/>
       <c r="C378" s="115"/>
       <c r="D378" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F378" t="s">
         <v>65</v>
@@ -18306,7 +18306,7 @@
       <c r="B379" s="115"/>
       <c r="C379" s="115"/>
       <c r="D379" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G379" s="95"/>
       <c r="H379" s="101"/>
@@ -18327,10 +18327,10 @@
         <v>244</v>
       </c>
       <c r="D380" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F380" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G380" s="95">
         <v>44561</v>
@@ -18357,13 +18357,13 @@
       <c r="B381" s="115"/>
       <c r="C381" s="115"/>
       <c r="D381" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E381" t="s">
         <v>421</v>
       </c>
-      <c r="E381" t="s">
-        <v>422</v>
-      </c>
       <c r="F381" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G381" s="95">
         <v>44561</v>
@@ -18390,13 +18390,13 @@
       <c r="B382" s="115"/>
       <c r="C382" s="115"/>
       <c r="D382" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E382" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F382" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G382" s="95">
         <v>44561</v>
@@ -18423,13 +18423,13 @@
       <c r="B383" s="115"/>
       <c r="C383" s="115"/>
       <c r="D383" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E383" t="s">
         <v>424</v>
       </c>
-      <c r="E383" t="s">
-        <v>425</v>
-      </c>
       <c r="F383" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G383" s="95">
         <v>44561</v>
@@ -18446,7 +18446,7 @@
       <c r="B384" s="115"/>
       <c r="C384" s="115"/>
       <c r="D384" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F384" t="s">
         <v>65</v>
@@ -18476,7 +18476,7 @@
       <c r="B385" s="115"/>
       <c r="C385" s="115"/>
       <c r="D385" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G385" s="95"/>
       <c r="H385" s="101"/>
@@ -18497,10 +18497,10 @@
         <v>247</v>
       </c>
       <c r="D386" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F386" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G386" s="95">
         <v>44561</v>
@@ -18525,13 +18525,13 @@
       <c r="B387" s="115"/>
       <c r="C387" s="115"/>
       <c r="D387" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E387" t="s">
         <v>421</v>
       </c>
-      <c r="E387" t="s">
-        <v>422</v>
-      </c>
       <c r="F387" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G387" s="95">
         <v>44561</v>
@@ -18556,13 +18556,13 @@
       <c r="B388" s="115"/>
       <c r="C388" s="115"/>
       <c r="D388" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E388" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F388" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G388" s="95">
         <v>44561</v>
@@ -18587,13 +18587,13 @@
       <c r="B389" s="115"/>
       <c r="C389" s="115"/>
       <c r="D389" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E389" t="s">
         <v>424</v>
       </c>
-      <c r="E389" t="s">
-        <v>425</v>
-      </c>
       <c r="F389" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G389" s="95">
         <v>44561</v>
@@ -18618,7 +18618,7 @@
       <c r="B390" s="115"/>
       <c r="C390" s="115"/>
       <c r="D390" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F390" t="s">
         <v>188</v>
@@ -18646,7 +18646,7 @@
       <c r="B391" s="115"/>
       <c r="C391" s="115"/>
       <c r="D391" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G391" s="95"/>
       <c r="H391" s="101"/>
@@ -18667,10 +18667,10 @@
         <v>251</v>
       </c>
       <c r="D392" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F392" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G392" s="95">
         <v>44561</v>
@@ -18697,13 +18697,13 @@
       <c r="B393" s="115"/>
       <c r="C393" s="115"/>
       <c r="D393" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E393" t="s">
         <v>421</v>
       </c>
-      <c r="E393" t="s">
-        <v>422</v>
-      </c>
       <c r="F393" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G393" s="95">
         <v>44561</v>
@@ -18730,13 +18730,13 @@
       <c r="B394" s="115"/>
       <c r="C394" s="115"/>
       <c r="D394" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E394" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F394" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G394" s="95">
         <v>44561</v>
@@ -18763,13 +18763,13 @@
       <c r="B395" s="115"/>
       <c r="C395" s="115"/>
       <c r="D395" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E395" t="s">
         <v>424</v>
       </c>
-      <c r="E395" t="s">
-        <v>425</v>
-      </c>
       <c r="F395" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G395" s="95">
         <v>44561</v>
@@ -18786,7 +18786,7 @@
       <c r="B396" s="115"/>
       <c r="C396" s="115"/>
       <c r="D396" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F396" t="s">
         <v>65</v>
@@ -18816,7 +18816,7 @@
       <c r="B397" s="115"/>
       <c r="C397" s="115"/>
       <c r="D397" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G397" s="95"/>
       <c r="H397" s="101"/>
@@ -18837,10 +18837,10 @@
         <v>254</v>
       </c>
       <c r="D398" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F398" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G398" s="95">
         <v>44561</v>
@@ -18869,13 +18869,13 @@
       <c r="B399" s="115"/>
       <c r="C399" s="115"/>
       <c r="D399" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E399" t="s">
         <v>421</v>
       </c>
-      <c r="E399" t="s">
-        <v>422</v>
-      </c>
       <c r="F399" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G399" s="95">
         <v>44561</v>
@@ -18902,13 +18902,13 @@
       <c r="B400" s="115"/>
       <c r="C400" s="115"/>
       <c r="D400" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E400" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F400" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G400" s="95">
         <v>44561</v>
@@ -18937,13 +18937,13 @@
       <c r="B401" s="115"/>
       <c r="C401" s="115"/>
       <c r="D401" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E401" t="s">
         <v>424</v>
       </c>
-      <c r="E401" t="s">
-        <v>425</v>
-      </c>
       <c r="F401" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G401" s="95">
         <v>44561</v>
@@ -18972,7 +18972,7 @@
       <c r="B402" s="115"/>
       <c r="C402" s="115"/>
       <c r="D402" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F402" t="s">
         <v>255</v>
@@ -19004,7 +19004,7 @@
       <c r="B403" s="115"/>
       <c r="C403" s="115"/>
       <c r="D403" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G403" s="95"/>
       <c r="H403" s="101"/>
@@ -19025,10 +19025,10 @@
         <v>258</v>
       </c>
       <c r="D404" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F404" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G404" s="95">
         <v>44561</v>
@@ -19051,13 +19051,13 @@
       <c r="B405" s="115"/>
       <c r="C405" s="115"/>
       <c r="D405" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E405" t="s">
         <v>421</v>
       </c>
-      <c r="E405" t="s">
-        <v>422</v>
-      </c>
       <c r="F405" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G405" s="95">
         <v>44561</v>
@@ -19080,13 +19080,13 @@
       <c r="B406" s="115"/>
       <c r="C406" s="115"/>
       <c r="D406" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E406" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F406" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G406" s="95">
         <v>44561</v>
@@ -19109,13 +19109,13 @@
       <c r="B407" s="115"/>
       <c r="C407" s="115"/>
       <c r="D407" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E407" t="s">
         <v>424</v>
       </c>
-      <c r="E407" t="s">
-        <v>425</v>
-      </c>
       <c r="F407" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G407" s="95">
         <v>44561</v>
@@ -19138,7 +19138,7 @@
       <c r="B408" s="115"/>
       <c r="C408" s="115"/>
       <c r="D408" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F408" t="s">
         <v>188</v>
@@ -19164,7 +19164,7 @@
       <c r="B409" s="115"/>
       <c r="C409" s="115"/>
       <c r="D409" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G409" s="95"/>
       <c r="H409" s="101"/>
@@ -19185,10 +19185,10 @@
         <v>262</v>
       </c>
       <c r="D410" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F410" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G410" s="95">
         <v>44561</v>
@@ -19215,13 +19215,13 @@
       <c r="B411" s="115"/>
       <c r="C411" s="115"/>
       <c r="D411" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E411" t="s">
         <v>421</v>
       </c>
-      <c r="E411" t="s">
-        <v>422</v>
-      </c>
       <c r="F411" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G411" s="95">
         <v>44561</v>
@@ -19248,13 +19248,13 @@
       <c r="B412" s="115"/>
       <c r="C412" s="115"/>
       <c r="D412" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E412" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F412" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G412" s="95">
         <v>44561</v>
@@ -19281,13 +19281,13 @@
       <c r="B413" s="115"/>
       <c r="C413" s="115"/>
       <c r="D413" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E413" t="s">
         <v>424</v>
       </c>
-      <c r="E413" t="s">
-        <v>425</v>
-      </c>
       <c r="F413" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G413" s="95">
         <v>44561</v>
@@ -19314,7 +19314,7 @@
       <c r="B414" s="115"/>
       <c r="C414" s="115"/>
       <c r="D414" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F414" t="s">
         <v>263</v>
@@ -19344,7 +19344,7 @@
       <c r="B415" s="115"/>
       <c r="C415" s="115"/>
       <c r="D415" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G415" s="95"/>
       <c r="H415" s="101"/>
@@ -19365,10 +19365,10 @@
         <v>266</v>
       </c>
       <c r="D416" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F416" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G416" s="95">
         <v>44561</v>
@@ -19395,13 +19395,13 @@
       <c r="B417" s="115"/>
       <c r="C417" s="115"/>
       <c r="D417" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E417" t="s">
         <v>421</v>
       </c>
-      <c r="E417" t="s">
-        <v>422</v>
-      </c>
       <c r="F417" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G417" s="95">
         <v>44561</v>
@@ -19428,13 +19428,13 @@
       <c r="B418" s="115"/>
       <c r="C418" s="115"/>
       <c r="D418" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E418" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F418" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G418" s="95">
         <v>44561</v>
@@ -19461,13 +19461,13 @@
       <c r="B419" s="115"/>
       <c r="C419" s="115"/>
       <c r="D419" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E419" t="s">
         <v>424</v>
       </c>
-      <c r="E419" t="s">
-        <v>425</v>
-      </c>
       <c r="F419" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G419" s="95">
         <v>44561</v>
@@ -19484,7 +19484,7 @@
       <c r="B420" s="115"/>
       <c r="C420" s="115"/>
       <c r="D420" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F420" t="s">
         <v>65</v>
@@ -19514,7 +19514,7 @@
       <c r="B421" s="115"/>
       <c r="C421" s="115"/>
       <c r="D421" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G421" s="95"/>
       <c r="H421" s="101"/>
@@ -19535,10 +19535,10 @@
         <v>269</v>
       </c>
       <c r="D422" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F422" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G422" s="95">
         <v>44561</v>
@@ -19565,13 +19565,13 @@
       <c r="B423" s="115"/>
       <c r="C423" s="115"/>
       <c r="D423" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E423" t="s">
         <v>421</v>
       </c>
-      <c r="E423" t="s">
-        <v>422</v>
-      </c>
       <c r="F423" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G423" s="95">
         <v>44561</v>
@@ -19598,13 +19598,13 @@
       <c r="B424" s="115"/>
       <c r="C424" s="115"/>
       <c r="D424" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E424" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F424" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G424" s="95">
         <v>44561</v>
@@ -19631,13 +19631,13 @@
       <c r="B425" s="115"/>
       <c r="C425" s="115"/>
       <c r="D425" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E425" t="s">
         <v>424</v>
       </c>
-      <c r="E425" t="s">
-        <v>425</v>
-      </c>
       <c r="F425" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G425" s="95">
         <v>44561</v>
@@ -19654,7 +19654,7 @@
       <c r="B426" s="115"/>
       <c r="C426" s="115"/>
       <c r="D426" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F426" t="s">
         <v>102</v>
@@ -19684,7 +19684,7 @@
       <c r="B427" s="115"/>
       <c r="C427" s="115"/>
       <c r="D427" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G427" s="95"/>
       <c r="H427" s="101"/>
@@ -19705,10 +19705,10 @@
         <v>272</v>
       </c>
       <c r="D428" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F428" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G428" s="95">
         <v>44561</v>
@@ -19735,13 +19735,13 @@
       <c r="B429" s="115"/>
       <c r="C429" s="115"/>
       <c r="D429" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E429" t="s">
         <v>421</v>
       </c>
-      <c r="E429" t="s">
-        <v>422</v>
-      </c>
       <c r="F429" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G429" s="95">
         <v>44561</v>
@@ -19768,13 +19768,13 @@
       <c r="B430" s="115"/>
       <c r="C430" s="115"/>
       <c r="D430" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E430" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F430" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G430" s="95">
         <v>44561</v>
@@ -19801,13 +19801,13 @@
       <c r="B431" s="115"/>
       <c r="C431" s="115"/>
       <c r="D431" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E431" t="s">
         <v>424</v>
       </c>
-      <c r="E431" t="s">
-        <v>425</v>
-      </c>
       <c r="F431" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G431" s="95">
         <v>44561</v>
@@ -19824,7 +19824,7 @@
       <c r="B432" s="115"/>
       <c r="C432" s="115"/>
       <c r="D432" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F432" t="s">
         <v>65</v>
@@ -19854,7 +19854,7 @@
       <c r="B433" s="115"/>
       <c r="C433" s="115"/>
       <c r="D433" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G433" s="95"/>
       <c r="H433" s="101"/>
@@ -19875,10 +19875,10 @@
         <v>275</v>
       </c>
       <c r="D434" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F434" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G434" s="95">
         <v>44561</v>
@@ -19905,13 +19905,13 @@
       <c r="B435" s="115"/>
       <c r="C435" s="115"/>
       <c r="D435" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E435" t="s">
         <v>421</v>
       </c>
-      <c r="E435" t="s">
-        <v>422</v>
-      </c>
       <c r="F435" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G435" s="95">
         <v>44561</v>
@@ -19938,13 +19938,13 @@
       <c r="B436" s="115"/>
       <c r="C436" s="115"/>
       <c r="D436" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E436" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F436" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G436" s="95">
         <v>44561</v>
@@ -19971,13 +19971,13 @@
       <c r="B437" s="115"/>
       <c r="C437" s="115"/>
       <c r="D437" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E437" t="s">
         <v>424</v>
       </c>
-      <c r="E437" t="s">
-        <v>425</v>
-      </c>
       <c r="F437" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G437" s="95">
         <v>44561</v>
@@ -20004,7 +20004,7 @@
       <c r="B438" s="115"/>
       <c r="C438" s="115"/>
       <c r="D438" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F438" t="s">
         <v>102</v>
@@ -20034,7 +20034,7 @@
       <c r="B439" s="115"/>
       <c r="C439" s="115"/>
       <c r="D439" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G439" s="95"/>
       <c r="H439" s="101"/>
@@ -20055,10 +20055,10 @@
         <v>279</v>
       </c>
       <c r="D440" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F440" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G440" s="95">
         <v>44561</v>
@@ -20083,13 +20083,13 @@
       <c r="B441" s="115"/>
       <c r="C441" s="115"/>
       <c r="D441" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E441" t="s">
         <v>421</v>
       </c>
-      <c r="E441" t="s">
-        <v>422</v>
-      </c>
       <c r="F441" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G441" s="95">
         <v>44561</v>
@@ -20114,13 +20114,13 @@
       <c r="B442" s="115"/>
       <c r="C442" s="115"/>
       <c r="D442" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E442" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F442" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G442" s="95">
         <v>44561</v>
@@ -20145,13 +20145,13 @@
       <c r="B443" s="115"/>
       <c r="C443" s="115"/>
       <c r="D443" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E443" t="s">
         <v>424</v>
       </c>
-      <c r="E443" t="s">
-        <v>425</v>
-      </c>
       <c r="F443" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G443" s="95">
         <v>44561</v>
@@ -20176,7 +20176,7 @@
       <c r="B444" s="115"/>
       <c r="C444" s="115"/>
       <c r="D444" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F444" t="s">
         <v>59</v>
@@ -20204,7 +20204,7 @@
       <c r="B445" s="115"/>
       <c r="C445" s="115"/>
       <c r="D445" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G445" s="95"/>
       <c r="H445" s="101"/>
@@ -20225,10 +20225,10 @@
         <v>282</v>
       </c>
       <c r="D446" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F446" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G446" s="95">
         <v>44561</v>
@@ -20255,13 +20255,13 @@
       <c r="B447" s="115"/>
       <c r="C447" s="115"/>
       <c r="D447" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E447" t="s">
         <v>421</v>
       </c>
-      <c r="E447" t="s">
-        <v>422</v>
-      </c>
       <c r="F447" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G447" s="95">
         <v>44561</v>
@@ -20288,13 +20288,13 @@
       <c r="B448" s="115"/>
       <c r="C448" s="115"/>
       <c r="D448" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E448" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F448" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G448" s="95">
         <v>44561</v>
@@ -20321,13 +20321,13 @@
       <c r="B449" s="115"/>
       <c r="C449" s="115"/>
       <c r="D449" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E449" t="s">
         <v>424</v>
       </c>
-      <c r="E449" t="s">
-        <v>425</v>
-      </c>
       <c r="F449" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G449" s="95">
         <v>44561</v>
@@ -20354,7 +20354,7 @@
       <c r="B450" s="115"/>
       <c r="C450" s="115"/>
       <c r="D450" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F450" t="s">
         <v>102</v>
@@ -20384,7 +20384,7 @@
       <c r="B451" s="115"/>
       <c r="C451" s="115"/>
       <c r="D451" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G451" s="95"/>
       <c r="H451" s="101"/>
@@ -20405,10 +20405,10 @@
         <v>285</v>
       </c>
       <c r="D452" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F452" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G452" s="95">
         <v>44561</v>
@@ -20435,13 +20435,13 @@
       <c r="B453" s="115"/>
       <c r="C453" s="115"/>
       <c r="D453" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E453" t="s">
         <v>421</v>
       </c>
-      <c r="E453" t="s">
-        <v>422</v>
-      </c>
       <c r="F453" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G453" s="95">
         <v>44561</v>
@@ -20468,13 +20468,13 @@
       <c r="B454" s="115"/>
       <c r="C454" s="115"/>
       <c r="D454" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E454" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F454" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G454" s="95">
         <v>44561</v>
@@ -20501,13 +20501,13 @@
       <c r="B455" s="115"/>
       <c r="C455" s="115"/>
       <c r="D455" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E455" t="s">
         <v>424</v>
       </c>
-      <c r="E455" t="s">
-        <v>425</v>
-      </c>
       <c r="F455" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G455" s="95">
         <v>44561</v>
@@ -20534,7 +20534,7 @@
       <c r="B456" s="115"/>
       <c r="C456" s="115"/>
       <c r="D456" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F456" t="s">
         <v>90</v>
@@ -20564,7 +20564,7 @@
       <c r="B457" s="115"/>
       <c r="C457" s="115"/>
       <c r="D457" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G457" s="95"/>
       <c r="H457" s="101"/>
@@ -20585,10 +20585,10 @@
         <v>288</v>
       </c>
       <c r="D458" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F458" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G458" s="95">
         <v>44561</v>
@@ -20615,13 +20615,13 @@
       <c r="B459" s="115"/>
       <c r="C459" s="115"/>
       <c r="D459" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E459" t="s">
         <v>421</v>
       </c>
-      <c r="E459" t="s">
-        <v>422</v>
-      </c>
       <c r="F459" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G459" s="95">
         <v>44561</v>
@@ -20648,13 +20648,13 @@
       <c r="B460" s="115"/>
       <c r="C460" s="115"/>
       <c r="D460" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E460" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F460" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G460" s="95">
         <v>44561</v>
@@ -20681,13 +20681,13 @@
       <c r="B461" s="115"/>
       <c r="C461" s="115"/>
       <c r="D461" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E461" t="s">
         <v>424</v>
       </c>
-      <c r="E461" t="s">
-        <v>425</v>
-      </c>
       <c r="F461" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G461" s="95">
         <v>44561</v>
@@ -20714,7 +20714,7 @@
       <c r="B462" s="115"/>
       <c r="C462" s="115"/>
       <c r="D462" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F462" t="s">
         <v>102</v>
@@ -20744,7 +20744,7 @@
       <c r="B463" s="115"/>
       <c r="C463" s="115"/>
       <c r="D463" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G463" s="95"/>
       <c r="H463" s="101"/>
@@ -20765,10 +20765,10 @@
         <v>291</v>
       </c>
       <c r="D464" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F464" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G464" s="95">
         <v>44561</v>
@@ -20793,13 +20793,13 @@
       <c r="B465" s="115"/>
       <c r="C465" s="115"/>
       <c r="D465" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E465" t="s">
         <v>421</v>
       </c>
-      <c r="E465" t="s">
-        <v>422</v>
-      </c>
       <c r="F465" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G465" s="95">
         <v>44561</v>
@@ -20824,13 +20824,13 @@
       <c r="B466" s="115"/>
       <c r="C466" s="115"/>
       <c r="D466" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E466" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F466" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G466" s="95">
         <v>44561</v>
@@ -20855,13 +20855,13 @@
       <c r="B467" s="115"/>
       <c r="C467" s="115"/>
       <c r="D467" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E467" t="s">
         <v>424</v>
       </c>
-      <c r="E467" t="s">
-        <v>425</v>
-      </c>
       <c r="F467" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G467" s="95">
         <v>44561</v>
@@ -20886,7 +20886,7 @@
       <c r="B468" s="115"/>
       <c r="C468" s="115"/>
       <c r="D468" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F468" t="s">
         <v>292</v>
@@ -20914,7 +20914,7 @@
       <c r="B469" s="115"/>
       <c r="C469" s="115"/>
       <c r="D469" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G469" s="95"/>
       <c r="H469" s="101"/>
@@ -20935,10 +20935,10 @@
         <v>295</v>
       </c>
       <c r="D470" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F470" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G470" s="95">
         <v>44561</v>
@@ -20965,13 +20965,13 @@
       <c r="B471" s="115"/>
       <c r="C471" s="115"/>
       <c r="D471" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E471" t="s">
         <v>421</v>
       </c>
-      <c r="E471" t="s">
-        <v>422</v>
-      </c>
       <c r="F471" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G471" s="95">
         <v>44561</v>
@@ -20998,13 +20998,13 @@
       <c r="B472" s="115"/>
       <c r="C472" s="115"/>
       <c r="D472" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E472" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F472" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G472" s="95">
         <v>44561</v>
@@ -21031,13 +21031,13 @@
       <c r="B473" s="115"/>
       <c r="C473" s="115"/>
       <c r="D473" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E473" t="s">
         <v>424</v>
       </c>
-      <c r="E473" t="s">
-        <v>425</v>
-      </c>
       <c r="F473" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G473" s="95">
         <v>44561</v>
@@ -21054,7 +21054,7 @@
       <c r="B474" s="115"/>
       <c r="C474" s="115"/>
       <c r="D474" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F474" t="s">
         <v>102</v>
@@ -21084,7 +21084,7 @@
       <c r="B475" s="115"/>
       <c r="C475" s="115"/>
       <c r="D475" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G475" s="95"/>
       <c r="H475" s="101"/>
@@ -21105,10 +21105,10 @@
         <v>298</v>
       </c>
       <c r="D476" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F476" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G476" s="95">
         <v>44561</v>
@@ -21131,13 +21131,13 @@
       <c r="B477" s="115"/>
       <c r="C477" s="115"/>
       <c r="D477" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E477" t="s">
         <v>421</v>
       </c>
-      <c r="E477" t="s">
-        <v>422</v>
-      </c>
       <c r="F477" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G477" s="95">
         <v>44561</v>
@@ -21160,13 +21160,13 @@
       <c r="B478" s="115"/>
       <c r="C478" s="115"/>
       <c r="D478" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E478" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F478" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G478" s="95">
         <v>44561</v>
@@ -21189,13 +21189,13 @@
       <c r="B479" s="115"/>
       <c r="C479" s="115"/>
       <c r="D479" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E479" t="s">
         <v>424</v>
       </c>
-      <c r="E479" t="s">
-        <v>425</v>
-      </c>
       <c r="F479" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G479" s="95">
         <v>44561</v>
@@ -21218,7 +21218,7 @@
       <c r="B480" s="115"/>
       <c r="C480" s="115"/>
       <c r="D480" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F480" t="s">
         <v>59</v>
@@ -21244,7 +21244,7 @@
       <c r="B481" s="115"/>
       <c r="C481" s="115"/>
       <c r="D481" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G481" s="95"/>
       <c r="H481" s="101"/>
@@ -21265,10 +21265,10 @@
         <v>302</v>
       </c>
       <c r="D482" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F482" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G482" s="95">
         <v>44561</v>
@@ -21295,13 +21295,13 @@
       <c r="B483" s="115"/>
       <c r="C483" s="115"/>
       <c r="D483" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E483" t="s">
         <v>421</v>
       </c>
-      <c r="E483" t="s">
-        <v>422</v>
-      </c>
       <c r="F483" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G483" s="95">
         <v>44561</v>
@@ -21328,13 +21328,13 @@
       <c r="B484" s="115"/>
       <c r="C484" s="115"/>
       <c r="D484" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E484" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F484" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G484" s="95">
         <v>44561</v>
@@ -21361,13 +21361,13 @@
       <c r="B485" s="115"/>
       <c r="C485" s="115"/>
       <c r="D485" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E485" t="s">
         <v>424</v>
       </c>
-      <c r="E485" t="s">
-        <v>425</v>
-      </c>
       <c r="F485" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G485" s="95">
         <v>44561</v>
@@ -21384,7 +21384,7 @@
       <c r="B486" s="115"/>
       <c r="C486" s="115"/>
       <c r="D486" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F486" t="s">
         <v>65</v>
@@ -21414,7 +21414,7 @@
       <c r="B487" s="115"/>
       <c r="C487" s="115"/>
       <c r="D487" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G487" s="95"/>
       <c r="H487" s="101"/>
@@ -21435,10 +21435,10 @@
         <v>305</v>
       </c>
       <c r="D488" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F488" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G488" s="95">
         <v>44561</v>
@@ -21461,13 +21461,13 @@
       <c r="B489" s="115"/>
       <c r="C489" s="115"/>
       <c r="D489" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E489" t="s">
         <v>421</v>
       </c>
-      <c r="E489" t="s">
-        <v>422</v>
-      </c>
       <c r="F489" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G489" s="95">
         <v>44561</v>
@@ -21490,13 +21490,13 @@
       <c r="B490" s="115"/>
       <c r="C490" s="115"/>
       <c r="D490" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E490" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F490" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G490" s="95">
         <v>44561</v>
@@ -21519,13 +21519,13 @@
       <c r="B491" s="115"/>
       <c r="C491" s="115"/>
       <c r="D491" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E491" t="s">
         <v>424</v>
       </c>
-      <c r="E491" t="s">
-        <v>425</v>
-      </c>
       <c r="F491" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G491" s="95">
         <v>44561</v>
@@ -21548,7 +21548,7 @@
       <c r="B492" s="115"/>
       <c r="C492" s="115"/>
       <c r="D492" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F492" t="s">
         <v>65</v>
@@ -21574,7 +21574,7 @@
       <c r="B493" s="115"/>
       <c r="C493" s="115"/>
       <c r="D493" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G493" s="95"/>
       <c r="H493" s="101"/>
@@ -21595,10 +21595,10 @@
         <v>308</v>
       </c>
       <c r="D494" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F494" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G494" s="95">
         <v>44561</v>
@@ -21625,13 +21625,13 @@
       <c r="B495" s="115"/>
       <c r="C495" s="115"/>
       <c r="D495" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E495" t="s">
         <v>421</v>
       </c>
-      <c r="E495" t="s">
-        <v>422</v>
-      </c>
       <c r="F495" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G495" s="95">
         <v>44561</v>
@@ -21658,13 +21658,13 @@
       <c r="B496" s="115"/>
       <c r="C496" s="115"/>
       <c r="D496" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E496" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F496" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G496" s="95">
         <v>44561</v>
@@ -21691,13 +21691,13 @@
       <c r="B497" s="115"/>
       <c r="C497" s="115"/>
       <c r="D497" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E497" t="s">
         <v>424</v>
       </c>
-      <c r="E497" t="s">
-        <v>425</v>
-      </c>
       <c r="F497" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G497" s="95">
         <v>44561</v>
@@ -21714,7 +21714,7 @@
       <c r="B498" s="115"/>
       <c r="C498" s="115"/>
       <c r="D498" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F498" t="s">
         <v>65</v>
@@ -21744,7 +21744,7 @@
       <c r="B499" s="115"/>
       <c r="C499" s="115"/>
       <c r="D499" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G499" s="95"/>
       <c r="H499" s="101"/>
@@ -21765,10 +21765,10 @@
         <v>311</v>
       </c>
       <c r="D500" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F500" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G500" s="95">
         <v>44561</v>
@@ -21795,13 +21795,13 @@
       <c r="B501" s="115"/>
       <c r="C501" s="115"/>
       <c r="D501" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E501" t="s">
         <v>421</v>
       </c>
-      <c r="E501" t="s">
-        <v>422</v>
-      </c>
       <c r="F501" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G501" s="95">
         <v>44561</v>
@@ -21828,13 +21828,13 @@
       <c r="B502" s="115"/>
       <c r="C502" s="115"/>
       <c r="D502" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E502" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F502" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G502" s="95">
         <v>44561</v>
@@ -21861,13 +21861,13 @@
       <c r="B503" s="115"/>
       <c r="C503" s="115"/>
       <c r="D503" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E503" t="s">
         <v>424</v>
       </c>
-      <c r="E503" t="s">
-        <v>425</v>
-      </c>
       <c r="F503" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G503" s="95">
         <v>44561</v>
@@ -21884,7 +21884,7 @@
       <c r="B504" s="115"/>
       <c r="C504" s="115"/>
       <c r="D504" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F504" t="s">
         <v>102</v>
@@ -21914,7 +21914,7 @@
       <c r="B505" s="115"/>
       <c r="C505" s="115"/>
       <c r="D505" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G505" s="95"/>
       <c r="H505" s="101"/>
@@ -21935,10 +21935,10 @@
         <v>314</v>
       </c>
       <c r="D506" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F506" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G506" s="95">
         <v>44561</v>
@@ -21965,13 +21965,13 @@
       <c r="B507" s="115"/>
       <c r="C507" s="115"/>
       <c r="D507" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E507" t="s">
         <v>421</v>
       </c>
-      <c r="E507" t="s">
-        <v>422</v>
-      </c>
       <c r="F507" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G507" s="95">
         <v>44561</v>
@@ -21998,13 +21998,13 @@
       <c r="B508" s="115"/>
       <c r="C508" s="115"/>
       <c r="D508" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E508" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F508" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G508" s="95">
         <v>44561</v>
@@ -22031,13 +22031,13 @@
       <c r="B509" s="115"/>
       <c r="C509" s="115"/>
       <c r="D509" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E509" t="s">
         <v>424</v>
       </c>
-      <c r="E509" t="s">
-        <v>425</v>
-      </c>
       <c r="F509" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G509" s="95">
         <v>44561</v>
@@ -22054,7 +22054,7 @@
       <c r="B510" s="115"/>
       <c r="C510" s="115"/>
       <c r="D510" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F510" t="s">
         <v>65</v>
@@ -22084,7 +22084,7 @@
       <c r="B511" s="115"/>
       <c r="C511" s="115"/>
       <c r="D511" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G511" s="95"/>
       <c r="H511" s="101"/>
@@ -22105,10 +22105,10 @@
         <v>317</v>
       </c>
       <c r="D512" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F512" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G512" s="95">
         <v>44561</v>
@@ -22135,13 +22135,13 @@
       <c r="B513" s="115"/>
       <c r="C513" s="115"/>
       <c r="D513" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E513" t="s">
         <v>421</v>
       </c>
-      <c r="E513" t="s">
-        <v>422</v>
-      </c>
       <c r="F513" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G513" s="95">
         <v>44561</v>
@@ -22168,13 +22168,13 @@
       <c r="B514" s="115"/>
       <c r="C514" s="115"/>
       <c r="D514" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E514" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F514" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G514" s="95">
         <v>44561</v>
@@ -22201,13 +22201,13 @@
       <c r="B515" s="115"/>
       <c r="C515" s="115"/>
       <c r="D515" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E515" t="s">
         <v>424</v>
       </c>
-      <c r="E515" t="s">
-        <v>425</v>
-      </c>
       <c r="F515" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G515" s="95">
         <v>44561</v>
@@ -22224,7 +22224,7 @@
       <c r="B516" s="115"/>
       <c r="C516" s="115"/>
       <c r="D516" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F516" t="s">
         <v>57</v>
@@ -22254,7 +22254,7 @@
       <c r="B517" s="115"/>
       <c r="C517" s="115"/>
       <c r="D517" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G517" s="95"/>
       <c r="H517" s="101"/>
@@ -22275,10 +22275,10 @@
         <v>321</v>
       </c>
       <c r="D518" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F518" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G518" s="95">
         <v>44561</v>
@@ -22307,13 +22307,13 @@
       <c r="B519" s="115"/>
       <c r="C519" s="115"/>
       <c r="D519" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E519" t="s">
         <v>421</v>
       </c>
-      <c r="E519" t="s">
-        <v>422</v>
-      </c>
       <c r="F519" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G519" s="95">
         <v>44561</v>
@@ -22342,13 +22342,13 @@
       <c r="B520" s="115"/>
       <c r="C520" s="115"/>
       <c r="D520" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E520" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F520" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G520" s="95">
         <v>44561</v>
@@ -22377,13 +22377,13 @@
       <c r="B521" s="115"/>
       <c r="C521" s="115"/>
       <c r="D521" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E521" t="s">
         <v>424</v>
       </c>
-      <c r="E521" t="s">
-        <v>425</v>
-      </c>
       <c r="F521" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G521" s="95">
         <v>44561</v>
@@ -22412,7 +22412,7 @@
       <c r="B522" s="115"/>
       <c r="C522" s="115"/>
       <c r="D522" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F522" t="s">
         <v>323</v>
@@ -22444,7 +22444,7 @@
       <c r="B523" s="115"/>
       <c r="C523" s="115"/>
       <c r="D523" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G523" s="95"/>
       <c r="H523" s="101"/>
@@ -32704,7 +32704,7 @@
         <v>0.67400000000000004</v>
       </c>
       <c r="K2" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L2" s="62">
         <v>2040</v>
@@ -32745,7 +32745,7 @@
         <v>70457</v>
       </c>
       <c r="K3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L3">
         <v>2050</v>
@@ -32786,7 +32786,7 @@
         <v>0.67</v>
       </c>
       <c r="K4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L4">
         <v>2030</v>
@@ -32825,7 +32825,7 @@
         <v>10178945</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L5" s="17">
         <v>2050</v>
@@ -32864,7 +32864,7 @@
         <v>0.436</v>
       </c>
       <c r="K6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L6">
         <v>2030</v>
@@ -32902,7 +32902,7 @@
         <v>38113792</v>
       </c>
       <c r="K7" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L7">
         <v>2030</v>
@@ -32940,7 +32940,7 @@
         <v>38113792</v>
       </c>
       <c r="K8" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L8">
         <v>2040</v>
@@ -32978,7 +32978,7 @@
         <v>167000000</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L9">
         <v>2030</v>
@@ -33016,7 +33016,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L10">
         <v>2025</v>
@@ -33054,7 +33054,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L11">
         <v>2025</v>
@@ -33089,7 +33089,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L12">
         <v>2030</v>
@@ -33124,7 +33124,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L13">
         <v>2040</v>
@@ -33165,7 +33165,7 @@
         <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L14">
         <v>2030</v>
@@ -33206,7 +33206,7 @@
         <v>834562</v>
       </c>
       <c r="K15" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L15">
         <v>2030</v>
@@ -33248,7 +33248,7 @@
         <v>946.27100840336141</v>
       </c>
       <c r="K16" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L16">
         <v>2030</v>
@@ -33284,7 +33284,7 @@
         <v>2.0768237659574469</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L17">
         <v>2050</v>
@@ -33322,7 +33322,7 @@
         <v>73.8</v>
       </c>
       <c r="K18" s="62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L18">
         <v>2028</v>
@@ -33362,7 +33362,7 @@
         <v>0.40564327681114409</v>
       </c>
       <c r="K19" s="62" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L19">
         <v>2030</v>
@@ -33400,7 +33400,7 @@
         <v>25218000</v>
       </c>
       <c r="K20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L20">
         <v>2040</v>
@@ -33438,7 +33438,7 @@
         <v>0.48099999999999998</v>
       </c>
       <c r="K21" s="62" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L21">
         <v>2030</v>
@@ -33476,7 +33476,7 @@
         <v>24000000</v>
       </c>
       <c r="K22" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L22">
         <v>2030</v>
@@ -33517,7 +33517,7 @@
         <v>1.32787923872953</v>
       </c>
       <c r="K23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L23">
         <v>2040</v>
@@ -33558,7 +33558,7 @@
         <v>37700000</v>
       </c>
       <c r="K24" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L24">
         <v>2030</v>
@@ -33599,7 +33599,7 @@
         <v>37700000</v>
       </c>
       <c r="K25" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L25">
         <v>2040</v>
@@ -33637,7 +33637,7 @@
         <v>59.347999999999999</v>
       </c>
       <c r="K26" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L26">
         <v>2030</v>
@@ -33675,7 +33675,7 @@
         <v>153000000</v>
       </c>
       <c r="K27" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L27">
         <v>2030</v>
@@ -33716,7 +33716,7 @@
         <v>51</v>
       </c>
       <c r="K28" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L28">
         <v>2023</v>
@@ -33757,7 +33757,7 @@
         <v>119</v>
       </c>
       <c r="K29" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L29">
         <v>2023</v>
@@ -33798,7 +33798,7 @@
         <v>51</v>
       </c>
       <c r="K30" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L30">
         <v>2030</v>
@@ -33839,7 +33839,7 @@
         <v>119</v>
       </c>
       <c r="K31" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L31">
         <v>2030</v>
@@ -33880,7 +33880,7 @@
         <v>0.23</v>
       </c>
       <c r="K32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L32">
         <v>2030</v>
@@ -33921,7 +33921,7 @@
         <v>125</v>
       </c>
       <c r="K33" s="62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L33">
         <v>2030</v>
@@ -33962,7 +33962,7 @@
         <v>49960899</v>
       </c>
       <c r="K34" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L34">
         <v>2050</v>
@@ -34003,7 +34003,7 @@
         <v>0.4826223</v>
       </c>
       <c r="K35" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L35">
         <v>2030</v>
@@ -34041,7 +34041,7 @@
         <v>48455198</v>
       </c>
       <c r="K36" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L36">
         <v>2030</v>
@@ -34082,7 +34082,7 @@
         <v>828107</v>
       </c>
       <c r="K37" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L37">
         <v>2030</v>
@@ -34123,7 +34123,7 @@
         <v>1100</v>
       </c>
       <c r="K38" s="62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L38">
         <v>2030</v>
@@ -34164,7 +34164,7 @@
         <v>125</v>
       </c>
       <c r="K39" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L39">
         <v>2025</v>
@@ -34202,7 +34202,7 @@
         <v>86403130</v>
       </c>
       <c r="K40" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L40">
         <v>2045</v>
@@ -34240,7 +34240,7 @@
         <v>309</v>
       </c>
       <c r="K41" s="62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L41">
         <v>2035</v>
@@ -34278,7 +34278,7 @@
         <v>3480</v>
       </c>
       <c r="K42" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L42">
         <v>2035</v>
@@ -34316,7 +34316,7 @@
         <v>11925000</v>
       </c>
       <c r="K43" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L43">
         <v>2035</v>
@@ -34357,7 +34357,7 @@
         <v>309</v>
       </c>
       <c r="K44" s="75" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L44" s="70">
         <v>2040</v>
@@ -34398,7 +34398,7 @@
         <v>3813946</v>
       </c>
       <c r="K45" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L45">
         <v>2040</v>
@@ -34439,7 +34439,7 @@
         <v>0.93</v>
       </c>
       <c r="K46" s="62" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L46">
         <v>2031</v>
@@ -34477,7 +34477,7 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="K47" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L47">
         <v>2030</v>
@@ -34518,7 +34518,7 @@
         <v>96</v>
       </c>
       <c r="K48" s="62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L48">
         <v>2030</v>
@@ -34557,7 +34557,7 @@
         <v>30</v>
       </c>
       <c r="K49" s="62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L49">
         <v>2030</v>
@@ -34595,7 +34595,7 @@
         <v>425</v>
       </c>
       <c r="K50" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L50">
         <v>2030</v>
@@ -34631,7 +34631,7 @@
         <v>1.325</v>
       </c>
       <c r="K51" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L51">
         <v>2030</v>
@@ -34673,7 +34673,7 @@
         <v>21875000.000000004</v>
       </c>
       <c r="K52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L52">
         <v>2030</v>
@@ -34715,7 +34715,7 @@
         <v>21875000.000000004</v>
       </c>
       <c r="K53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L53">
         <v>2040</v>
@@ -34756,7 +34756,7 @@
         <v>843</v>
       </c>
       <c r="K54" s="62" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L54">
         <v>2025</v>
@@ -34798,7 +34798,7 @@
         <v>17116164.864864863</v>
       </c>
       <c r="K55" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L55">
         <v>2030</v>
@@ -34839,7 +34839,7 @@
         <v>3734024</v>
       </c>
       <c r="K56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L56">
         <v>2045</v>
@@ -34880,7 +34880,7 @@
         <v>102</v>
       </c>
       <c r="K57" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L57">
         <v>2030</v>
@@ -34918,7 +34918,7 @@
         <v>0.82</v>
       </c>
       <c r="K58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L58">
         <v>2030</v>
@@ -34956,7 +34956,7 @@
         <v>21445571</v>
       </c>
       <c r="K59" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L59">
         <v>2030</v>
@@ -34994,7 +34994,7 @@
         <v>21445571</v>
       </c>
       <c r="K60" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L60">
         <v>2050</v>
@@ -35035,7 +35035,7 @@
         <v>78</v>
       </c>
       <c r="K61" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L61">
         <v>2030</v>
@@ -35077,7 +35077,7 @@
         <v>0.70281445911698004</v>
       </c>
       <c r="K62" s="70" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L62" s="70">
         <v>2030</v>
@@ -35118,7 +35118,7 @@
         <v>53.8</v>
       </c>
       <c r="K63" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L63">
         <v>2024</v>
@@ -35160,7 +35160,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="70" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L64" s="70">
         <v>2024</v>
@@ -35201,7 +35201,7 @@
         <v>2.2165439930000002</v>
       </c>
       <c r="K65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L65">
         <v>2045</v>
@@ -35242,7 +35242,7 @@
         <v>6976930.1319702603</v>
       </c>
       <c r="K66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L66">
         <v>2040</v>
@@ -35283,7 +35283,7 @@
         <v>2.06</v>
       </c>
       <c r="K67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L67">
         <v>2030</v>
@@ -35324,7 +35324,7 @@
         <v>2.06</v>
       </c>
       <c r="K68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L68">
         <v>2040</v>
@@ -35366,7 +35366,7 @@
         <v>62333243</v>
       </c>
       <c r="K69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L69">
         <v>2035</v>
@@ -35408,7 +35408,7 @@
         <v>62333243</v>
       </c>
       <c r="K70" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L70">
         <v>2040</v>
@@ -35449,7 +35449,7 @@
         <v>16557441</v>
       </c>
       <c r="K71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L71">
         <v>2030</v>
@@ -35490,7 +35490,7 @@
         <v>0.47</v>
       </c>
       <c r="K72" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L72">
         <v>2030</v>
@@ -35531,7 +35531,7 @@
         <v>26566330</v>
       </c>
       <c r="K73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L73">
         <v>2030</v>
@@ -35569,7 +35569,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L74">
         <v>2035</v>
@@ -35610,7 +35610,7 @@
         <v>0.80243130614229896</v>
       </c>
       <c r="K75" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L75">
         <v>2030</v>
@@ -35651,7 +35651,7 @@
         <v>68</v>
       </c>
       <c r="K76" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L76">
         <v>2030</v>
@@ -35692,7 +35692,7 @@
         <v>171.52</v>
       </c>
       <c r="K77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L77">
         <v>2023</v>
@@ -35734,7 +35734,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="70" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L78" s="70">
         <v>2023</v>
@@ -35775,7 +35775,7 @@
         <v>1243</v>
       </c>
       <c r="K79" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L79">
         <v>2025</v>
@@ -35817,7 +35817,7 @@
         <v>1243</v>
       </c>
       <c r="K80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L80">
         <v>2030</v>
@@ -35859,7 +35859,7 @@
         <v>1243</v>
       </c>
       <c r="K81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L81">
         <v>2040</v>
@@ -35901,7 +35901,7 @@
         <v>1243</v>
       </c>
       <c r="K82" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L82">
         <v>2050</v>
@@ -35942,7 +35942,7 @@
         <v>15063</v>
       </c>
       <c r="K83" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L83">
         <v>2025</v>
@@ -35984,7 +35984,7 @@
         <v>15063</v>
       </c>
       <c r="K84" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L84">
         <v>2030</v>
@@ -36026,7 +36026,7 @@
         <v>15063</v>
       </c>
       <c r="K85" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L85">
         <v>2040</v>
@@ -36068,7 +36068,7 @@
         <v>15063</v>
       </c>
       <c r="K86" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L86">
         <v>2050</v>
@@ -36110,7 +36110,7 @@
         <v>0.98420553538837796</v>
       </c>
       <c r="K87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L87">
         <v>2030</v>
@@ -36151,7 +36151,7 @@
         <v>5.162928</v>
       </c>
       <c r="K88" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L88">
         <v>2025</v>
@@ -36192,7 +36192,7 @@
         <v>5.162928</v>
       </c>
       <c r="K89" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L89">
         <v>2030</v>
@@ -36233,7 +36233,7 @@
         <v>0.46760301224943002</v>
       </c>
       <c r="K90" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L90">
         <v>2030</v>
@@ -36271,7 +36271,7 @@
         <v>2.9</v>
       </c>
       <c r="K91" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L91">
         <v>2030</v>
@@ -36312,7 +36312,7 @@
         <v>0.75</v>
       </c>
       <c r="K92" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L92">
         <v>2030</v>
@@ -36350,7 +36350,7 @@
         <v>1.69</v>
       </c>
       <c r="K93" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L93">
         <v>2030</v>
@@ -36392,7 +36392,7 @@
         <v>14.583333333333334</v>
       </c>
       <c r="K94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L94">
         <v>2030</v>
@@ -36434,7 +36434,7 @@
         <v>14.583333333333334</v>
       </c>
       <c r="K95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L95">
         <v>2030</v>
@@ -36472,7 +36472,7 @@
         <v>0.42172199999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L96">
         <v>2030</v>
@@ -36513,7 +36513,7 @@
         <v>130</v>
       </c>
       <c r="K97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L97">
         <v>2030</v>
@@ -36551,7 +36551,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K98" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L98">
         <v>2030</v>
@@ -36589,7 +36589,7 @@
         <v>0.315911</v>
       </c>
       <c r="K99" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L99">
         <v>2030</v>
@@ -36630,7 +36630,7 @@
         <v>1.8</v>
       </c>
       <c r="K100" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L100">
         <v>2030</v>
@@ -36671,7 +36671,7 @@
         <v>3.7</v>
       </c>
       <c r="K101" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L101">
         <v>2030</v>
@@ -36713,7 +36713,7 @@
         <v>11.6416389602593</v>
       </c>
       <c r="K102" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L102" s="40">
         <v>2050</v>
@@ -36754,7 +36754,7 @@
         <v>173</v>
       </c>
       <c r="K103" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L103">
         <v>2030</v>
@@ -36795,7 +36795,7 @@
         <v>0.78</v>
       </c>
       <c r="K104" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L104">
         <v>2025</v>
@@ -36836,7 +36836,7 @@
         <v>0.78</v>
       </c>
       <c r="K105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L105">
         <v>2030</v>
@@ -36877,7 +36877,7 @@
         <v>0.315911</v>
       </c>
       <c r="K106" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L106">
         <v>2030</v>
@@ -36918,7 +36918,7 @@
         <v>0.88086205923584704</v>
       </c>
       <c r="K107" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L107">
         <v>2030</v>
@@ -36959,7 +36959,7 @@
         <v>357983</v>
       </c>
       <c r="K108" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L108">
         <v>2030</v>
@@ -37000,7 +37000,7 @@
         <v>87198</v>
       </c>
       <c r="K109" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L109">
         <v>2035</v>
@@ -37042,7 +37042,7 @@
         <v>18.649999999999999</v>
       </c>
       <c r="K110" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L110">
         <v>2035</v>
@@ -38293,8 +38293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -38318,7 +38318,7 @@
         <v>413</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -38335,8 +38335,7 @@
         <v>53</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>214773416</v>
+        <v>53754932</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -38353,8 +38352,7 @@
         <v>62</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>181448040</v>
+        <v>269631356</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -38371,8 +38369,7 @@
         <v>68</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>71428560</v>
+        <v>195856118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -38389,8 +38386,7 @@
         <v>71</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>117569794</v>
+        <v>93011236</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -38407,8 +38403,7 @@
         <v>74</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>111539475</v>
+        <v>176602242</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -38422,11 +38417,10 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>53781268</v>
+        <v>116116800</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -38440,11 +38434,10 @@
         <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>84412300</v>
+        <v>52696016</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -38461,8 +38454,7 @@
         <v>83</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>150935750</v>
+        <v>243360405</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -38479,8 +38471,7 @@
         <v>87</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>134773100</v>
+        <v>176726535</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -38497,8 +38488,7 @@
         <v>93</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>81165952</v>
+        <v>168382918</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -38515,8 +38505,7 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>145745582</v>
+        <v>166855240</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -38533,8 +38522,7 @@
         <v>105</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>237588897</v>
+        <v>110898346</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -38551,8 +38539,7 @@
         <v>108</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>151329360</v>
+        <v>186741118</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -38569,8 +38556,7 @@
         <v>111</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>213215343</v>
+        <v>120827925</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -38587,8 +38573,7 @@
         <v>114</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>157737645</v>
+        <v>103573044</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -38605,8 +38590,7 @@
         <v>117</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>104526692</v>
+        <v>202777551</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -38623,8 +38607,7 @@
         <v>120</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>139210929</v>
+        <v>175585595</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -38641,8 +38624,7 @@
         <v>123</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>68530541</v>
+        <v>136659250</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -38659,8 +38641,7 @@
         <v>126</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>71957448</v>
+        <v>146501082</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -38677,8 +38658,7 @@
         <v>129</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>116403003</v>
+        <v>115925268</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -38695,8 +38675,7 @@
         <v>132</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>257337938</v>
+        <v>190510040</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -38713,8 +38692,7 @@
         <v>136</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>83565312</v>
+        <v>166656528</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -38731,8 +38709,7 @@
         <v>139</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>97831608</v>
+        <v>105279378</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -38749,8 +38726,7 @@
         <v>145</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>182844158</v>
+        <v>196018400</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -38767,8 +38743,7 @@
         <v>148</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>142826838</v>
+        <v>47505810</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -38785,8 +38760,7 @@
         <v>151</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>184974760</v>
+        <v>73205668</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -38803,8 +38777,7 @@
         <v>154</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="0"/>
-        <v>171511230</v>
+        <v>213692871</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -38821,8 +38794,7 @@
         <v>157</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>187365165</v>
+        <v>83905045</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -38839,8 +38811,7 @@
         <v>161</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>108576174</v>
+        <v>129177782</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -38857,8 +38828,7 @@
         <v>164</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>79142650</v>
+        <v>234229192</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -38875,8 +38845,7 @@
         <v>168</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>101499200</v>
+        <v>142496028</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -38893,8 +38862,7 @@
         <v>172</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="0"/>
-        <v>182797020</v>
+        <v>199022010</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -38911,8 +38879,7 @@
         <v>176</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>110499252</v>
+        <v>99445320</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -38929,8 +38896,7 @@
         <v>180</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>134784594</v>
+        <v>63644256</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -38947,8 +38913,7 @@
         <v>183</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>120433287</v>
+        <v>138378114</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -38965,8 +38930,7 @@
         <v>187</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>63694991</v>
+        <v>155480054</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -38983,8 +38947,7 @@
         <v>191</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>156065148</v>
+        <v>84898865</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -39001,8 +38964,7 @@
         <v>211</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>51949491</v>
+        <v>116314425</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -39019,8 +38981,7 @@
         <v>194</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>63458178</v>
+        <v>71104363</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -39037,8 +38998,7 @@
         <v>197</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>125155090</v>
+        <v>157927280</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -39055,8 +39015,7 @@
         <v>200</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>98420000</v>
+        <v>162437640</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -39073,8 +39032,7 @@
         <v>205</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>269815200</v>
+        <v>145931695</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -39091,8 +39049,7 @@
         <v>208</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>82893216</v>
+        <v>119715232</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -39109,8 +39066,7 @@
         <v>214</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>218844223</v>
+        <v>94289416</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -39127,8 +39083,7 @@
         <v>217</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>119512080</v>
+        <v>73959300</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -39145,8 +39100,7 @@
         <v>220</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>121469770</v>
+        <v>250015957</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -39163,8 +39117,7 @@
         <v>225</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>124822296</v>
+        <v>110975067</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -39181,8 +39134,7 @@
         <v>228</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>55363375</v>
+        <v>84068718</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -39199,8 +39151,7 @@
         <v>231</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>60626889</v>
+        <v>82221696</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -39217,8 +39168,7 @@
         <v>235</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>57269252</v>
+        <v>205713830</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -39235,8 +39185,7 @@
         <v>238</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="1"/>
-        <v>172821528</v>
+        <v>146411528</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -39253,8 +39202,7 @@
         <v>241</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>152698770</v>
+        <v>191408244</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -39271,8 +39219,7 @@
         <v>244</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="1"/>
-        <v>48523690</v>
+        <v>117158276</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -39289,8 +39236,7 @@
         <v>247</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>171749925</v>
+        <v>150702300</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -39307,8 +39253,7 @@
         <v>251</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="1"/>
-        <v>200687650</v>
+        <v>175262934</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -39325,8 +39270,7 @@
         <v>254</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="1"/>
-        <v>112351254</v>
+        <v>284730892</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -39343,8 +39287,7 @@
         <v>258</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="1"/>
-        <v>129956785</v>
+        <v>117758609</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -39361,8 +39304,7 @@
         <v>262</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>98396130</v>
+        <v>140567680</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -39379,8 +39321,7 @@
         <v>266</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="1"/>
-        <v>124050544</v>
+        <v>75148477</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -39397,8 +39338,7 @@
         <v>269</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="1"/>
-        <v>96211500</v>
+        <v>48527232</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -39415,8 +39355,7 @@
         <v>272</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="1"/>
-        <v>153990564</v>
+        <v>119808972</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -39433,8 +39372,7 @@
         <v>275</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="1"/>
-        <v>175511518</v>
+        <v>138260850</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -39451,8 +39389,7 @@
         <v>279</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>83718432</v>
+        <v>131846600</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -39469,8 +39406,7 @@
         <v>282</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>103349929</v>
+        <v>74093328</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -39487,8 +39423,7 @@
         <v>285</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E77" ca="1" si="2">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>178682819</v>
+        <v>52642360</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -39505,8 +39440,7 @@
         <v>288</v>
       </c>
       <c r="E67">
-        <f t="shared" ca="1" si="2"/>
-        <v>109476846</v>
+        <v>232975492</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -39523,8 +39457,7 @@
         <v>291</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="2"/>
-        <v>139921008</v>
+        <v>122806016</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -39541,8 +39474,7 @@
         <v>295</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="2"/>
-        <v>120378501</v>
+        <v>188291947</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -39559,8 +39491,7 @@
         <v>298</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="2"/>
-        <v>201029192</v>
+        <v>122785152</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -39577,8 +39508,7 @@
         <v>302</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="2"/>
-        <v>158919820</v>
+        <v>298233265</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -39595,8 +39525,7 @@
         <v>305</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="2"/>
-        <v>171693620</v>
+        <v>141152100</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -39613,8 +39542,7 @@
         <v>308</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="2"/>
-        <v>112368300</v>
+        <v>156078372</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -39631,8 +39559,7 @@
         <v>311</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="2"/>
-        <v>229073405</v>
+        <v>150599095</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -39649,8 +39576,7 @@
         <v>314</v>
       </c>
       <c r="E75">
-        <f t="shared" ca="1" si="2"/>
-        <v>205970452</v>
+        <v>145984384</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -39667,8 +39593,7 @@
         <v>317</v>
       </c>
       <c r="E76">
-        <f t="shared" ca="1" si="2"/>
-        <v>60436806</v>
+        <v>94590720</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -39685,8 +39610,7 @@
         <v>321</v>
       </c>
       <c r="E77">
-        <f t="shared" ca="1" si="2"/>
-        <v>112306194</v>
+        <v>50391328</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/20220927 ITR V2 Sample Data.xlsx
+++ b/examples/data/20220927 ITR V2 Sample Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5DF3C8-3D1D-9540-A4A8-AD0BF5F7984D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDB86B2-23D5-D540-8374-B23B24CAF070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -22456,6 +22456,225 @@
     </row>
   </sheetData>
   <mergeCells count="243">
+    <mergeCell ref="A109:A121"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A122:A127"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A182:A187"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="A194:A199"/>
+    <mergeCell ref="A200:A205"/>
+    <mergeCell ref="A206:A211"/>
+    <mergeCell ref="A212:A217"/>
+    <mergeCell ref="A218:A223"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="A230:A235"/>
+    <mergeCell ref="A236:A241"/>
+    <mergeCell ref="A242:A247"/>
+    <mergeCell ref="A248:A253"/>
+    <mergeCell ref="A254:A259"/>
+    <mergeCell ref="A260:A265"/>
+    <mergeCell ref="A266:A271"/>
+    <mergeCell ref="A272:A277"/>
+    <mergeCell ref="A278:A283"/>
+    <mergeCell ref="A284:A289"/>
+    <mergeCell ref="A290:A295"/>
+    <mergeCell ref="A296:A301"/>
+    <mergeCell ref="A302:A307"/>
+    <mergeCell ref="A308:A313"/>
+    <mergeCell ref="A314:A319"/>
+    <mergeCell ref="A320:A325"/>
+    <mergeCell ref="A326:A331"/>
+    <mergeCell ref="A332:A337"/>
+    <mergeCell ref="A338:A343"/>
+    <mergeCell ref="A344:A349"/>
+    <mergeCell ref="A350:A355"/>
+    <mergeCell ref="A356:A361"/>
+    <mergeCell ref="A362:A367"/>
+    <mergeCell ref="A368:A373"/>
+    <mergeCell ref="A374:A379"/>
+    <mergeCell ref="A380:A385"/>
+    <mergeCell ref="A386:A391"/>
+    <mergeCell ref="A392:A397"/>
+    <mergeCell ref="A398:A403"/>
+    <mergeCell ref="A404:A409"/>
+    <mergeCell ref="A410:A415"/>
+    <mergeCell ref="A416:A421"/>
+    <mergeCell ref="A422:A427"/>
+    <mergeCell ref="A428:A433"/>
+    <mergeCell ref="A434:A439"/>
+    <mergeCell ref="A440:A445"/>
+    <mergeCell ref="A446:A451"/>
+    <mergeCell ref="A452:A457"/>
+    <mergeCell ref="A458:A463"/>
+    <mergeCell ref="A464:A469"/>
+    <mergeCell ref="A470:A475"/>
+    <mergeCell ref="A476:A481"/>
+    <mergeCell ref="A482:A487"/>
+    <mergeCell ref="A488:A493"/>
+    <mergeCell ref="A494:A499"/>
+    <mergeCell ref="A500:A505"/>
+    <mergeCell ref="A506:A511"/>
+    <mergeCell ref="A512:A517"/>
+    <mergeCell ref="A518:A523"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="B122:B127"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="B134:B139"/>
+    <mergeCell ref="B140:B145"/>
+    <mergeCell ref="B146:B151"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="B170:B175"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="B182:B187"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="B194:B199"/>
+    <mergeCell ref="B200:B205"/>
+    <mergeCell ref="B206:B211"/>
+    <mergeCell ref="B212:B217"/>
+    <mergeCell ref="B218:B223"/>
+    <mergeCell ref="B224:B229"/>
+    <mergeCell ref="B230:B235"/>
+    <mergeCell ref="B236:B241"/>
+    <mergeCell ref="B242:B247"/>
+    <mergeCell ref="B248:B253"/>
+    <mergeCell ref="B254:B259"/>
+    <mergeCell ref="B260:B265"/>
+    <mergeCell ref="B266:B271"/>
+    <mergeCell ref="B272:B277"/>
+    <mergeCell ref="B278:B283"/>
+    <mergeCell ref="B284:B289"/>
+    <mergeCell ref="B290:B295"/>
+    <mergeCell ref="B296:B301"/>
+    <mergeCell ref="B302:B307"/>
+    <mergeCell ref="B308:B313"/>
+    <mergeCell ref="B314:B319"/>
+    <mergeCell ref="B320:B325"/>
+    <mergeCell ref="B326:B331"/>
+    <mergeCell ref="B332:B337"/>
+    <mergeCell ref="B338:B343"/>
+    <mergeCell ref="B344:B349"/>
+    <mergeCell ref="B350:B355"/>
+    <mergeCell ref="B356:B361"/>
+    <mergeCell ref="B362:B367"/>
+    <mergeCell ref="B368:B373"/>
+    <mergeCell ref="B374:B379"/>
+    <mergeCell ref="B380:B385"/>
+    <mergeCell ref="B386:B391"/>
+    <mergeCell ref="B392:B397"/>
+    <mergeCell ref="B398:B403"/>
+    <mergeCell ref="B404:B409"/>
+    <mergeCell ref="B410:B415"/>
+    <mergeCell ref="B416:B421"/>
+    <mergeCell ref="B422:B427"/>
+    <mergeCell ref="B428:B433"/>
+    <mergeCell ref="B434:B439"/>
+    <mergeCell ref="B440:B445"/>
+    <mergeCell ref="B446:B451"/>
+    <mergeCell ref="B452:B457"/>
+    <mergeCell ref="B458:B463"/>
+    <mergeCell ref="B464:B469"/>
+    <mergeCell ref="B470:B475"/>
+    <mergeCell ref="B476:B481"/>
+    <mergeCell ref="B482:B487"/>
+    <mergeCell ref="B488:B493"/>
+    <mergeCell ref="B494:B499"/>
+    <mergeCell ref="B500:B505"/>
+    <mergeCell ref="B506:B511"/>
+    <mergeCell ref="B512:B517"/>
+    <mergeCell ref="B518:B523"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="C122:C127"/>
+    <mergeCell ref="C128:C133"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="C140:C145"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="C158:C163"/>
+    <mergeCell ref="C164:C169"/>
+    <mergeCell ref="C170:C175"/>
+    <mergeCell ref="C176:C181"/>
+    <mergeCell ref="C182:C187"/>
+    <mergeCell ref="C188:C193"/>
+    <mergeCell ref="C194:C199"/>
+    <mergeCell ref="C200:C205"/>
+    <mergeCell ref="C206:C211"/>
+    <mergeCell ref="C212:C217"/>
+    <mergeCell ref="C218:C223"/>
+    <mergeCell ref="C224:C229"/>
+    <mergeCell ref="C230:C235"/>
+    <mergeCell ref="C236:C241"/>
+    <mergeCell ref="C242:C247"/>
+    <mergeCell ref="C248:C253"/>
+    <mergeCell ref="C254:C259"/>
+    <mergeCell ref="C260:C265"/>
+    <mergeCell ref="C266:C271"/>
+    <mergeCell ref="C272:C277"/>
+    <mergeCell ref="C278:C283"/>
+    <mergeCell ref="C284:C289"/>
+    <mergeCell ref="C290:C295"/>
+    <mergeCell ref="C296:C301"/>
+    <mergeCell ref="C302:C307"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="C320:C325"/>
+    <mergeCell ref="C326:C331"/>
+    <mergeCell ref="C332:C337"/>
+    <mergeCell ref="C338:C343"/>
+    <mergeCell ref="C344:C349"/>
+    <mergeCell ref="C350:C355"/>
+    <mergeCell ref="C356:C361"/>
+    <mergeCell ref="C362:C367"/>
+    <mergeCell ref="C368:C373"/>
+    <mergeCell ref="C374:C379"/>
+    <mergeCell ref="C380:C385"/>
+    <mergeCell ref="C386:C391"/>
+    <mergeCell ref="C392:C397"/>
+    <mergeCell ref="C398:C403"/>
+    <mergeCell ref="C404:C409"/>
+    <mergeCell ref="C410:C415"/>
+    <mergeCell ref="C416:C421"/>
+    <mergeCell ref="C422:C427"/>
+    <mergeCell ref="C428:C433"/>
+    <mergeCell ref="C434:C439"/>
+    <mergeCell ref="C440:C445"/>
+    <mergeCell ref="C446:C451"/>
+    <mergeCell ref="C452:C457"/>
+    <mergeCell ref="C458:C463"/>
+    <mergeCell ref="C464:C469"/>
+    <mergeCell ref="C470:C475"/>
+    <mergeCell ref="C476:C481"/>
+    <mergeCell ref="C482:C487"/>
+    <mergeCell ref="C488:C493"/>
+    <mergeCell ref="C494:C499"/>
+    <mergeCell ref="C500:C505"/>
+    <mergeCell ref="C506:C511"/>
     <mergeCell ref="C512:C517"/>
     <mergeCell ref="C518:C523"/>
     <mergeCell ref="B31:B40"/>
@@ -22480,225 +22699,6 @@
     <mergeCell ref="A65:A70"/>
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A77:A82"/>
-    <mergeCell ref="C458:C463"/>
-    <mergeCell ref="C464:C469"/>
-    <mergeCell ref="C470:C475"/>
-    <mergeCell ref="C476:C481"/>
-    <mergeCell ref="C482:C487"/>
-    <mergeCell ref="C488:C493"/>
-    <mergeCell ref="C494:C499"/>
-    <mergeCell ref="C500:C505"/>
-    <mergeCell ref="C506:C511"/>
-    <mergeCell ref="C404:C409"/>
-    <mergeCell ref="C410:C415"/>
-    <mergeCell ref="C416:C421"/>
-    <mergeCell ref="C422:C427"/>
-    <mergeCell ref="C428:C433"/>
-    <mergeCell ref="C434:C439"/>
-    <mergeCell ref="C440:C445"/>
-    <mergeCell ref="C446:C451"/>
-    <mergeCell ref="C452:C457"/>
-    <mergeCell ref="C350:C355"/>
-    <mergeCell ref="C356:C361"/>
-    <mergeCell ref="C362:C367"/>
-    <mergeCell ref="C368:C373"/>
-    <mergeCell ref="C374:C379"/>
-    <mergeCell ref="C380:C385"/>
-    <mergeCell ref="C386:C391"/>
-    <mergeCell ref="C392:C397"/>
-    <mergeCell ref="C398:C403"/>
-    <mergeCell ref="C296:C301"/>
-    <mergeCell ref="C302:C307"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="C320:C325"/>
-    <mergeCell ref="C326:C331"/>
-    <mergeCell ref="C332:C337"/>
-    <mergeCell ref="C338:C343"/>
-    <mergeCell ref="C344:C349"/>
-    <mergeCell ref="C242:C247"/>
-    <mergeCell ref="C248:C253"/>
-    <mergeCell ref="C254:C259"/>
-    <mergeCell ref="C260:C265"/>
-    <mergeCell ref="C266:C271"/>
-    <mergeCell ref="C272:C277"/>
-    <mergeCell ref="C278:C283"/>
-    <mergeCell ref="C284:C289"/>
-    <mergeCell ref="C290:C295"/>
-    <mergeCell ref="C188:C193"/>
-    <mergeCell ref="C194:C199"/>
-    <mergeCell ref="C200:C205"/>
-    <mergeCell ref="C206:C211"/>
-    <mergeCell ref="C212:C217"/>
-    <mergeCell ref="C218:C223"/>
-    <mergeCell ref="C224:C229"/>
-    <mergeCell ref="C230:C235"/>
-    <mergeCell ref="C236:C241"/>
-    <mergeCell ref="B500:B505"/>
-    <mergeCell ref="B506:B511"/>
-    <mergeCell ref="B512:B517"/>
-    <mergeCell ref="B518:B523"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="C122:C127"/>
-    <mergeCell ref="C128:C133"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="C140:C145"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="C158:C163"/>
-    <mergeCell ref="C164:C169"/>
-    <mergeCell ref="C170:C175"/>
-    <mergeCell ref="C176:C181"/>
-    <mergeCell ref="C182:C187"/>
-    <mergeCell ref="B446:B451"/>
-    <mergeCell ref="B452:B457"/>
-    <mergeCell ref="B458:B463"/>
-    <mergeCell ref="B464:B469"/>
-    <mergeCell ref="B470:B475"/>
-    <mergeCell ref="B476:B481"/>
-    <mergeCell ref="B482:B487"/>
-    <mergeCell ref="B488:B493"/>
-    <mergeCell ref="B494:B499"/>
-    <mergeCell ref="B392:B397"/>
-    <mergeCell ref="B398:B403"/>
-    <mergeCell ref="B404:B409"/>
-    <mergeCell ref="B410:B415"/>
-    <mergeCell ref="B416:B421"/>
-    <mergeCell ref="B422:B427"/>
-    <mergeCell ref="B428:B433"/>
-    <mergeCell ref="B434:B439"/>
-    <mergeCell ref="B440:B445"/>
-    <mergeCell ref="B338:B343"/>
-    <mergeCell ref="B344:B349"/>
-    <mergeCell ref="B350:B355"/>
-    <mergeCell ref="B356:B361"/>
-    <mergeCell ref="B362:B367"/>
-    <mergeCell ref="B368:B373"/>
-    <mergeCell ref="B374:B379"/>
-    <mergeCell ref="B380:B385"/>
-    <mergeCell ref="B386:B391"/>
-    <mergeCell ref="B284:B289"/>
-    <mergeCell ref="B290:B295"/>
-    <mergeCell ref="B296:B301"/>
-    <mergeCell ref="B302:B307"/>
-    <mergeCell ref="B308:B313"/>
-    <mergeCell ref="B314:B319"/>
-    <mergeCell ref="B320:B325"/>
-    <mergeCell ref="B326:B331"/>
-    <mergeCell ref="B332:B337"/>
-    <mergeCell ref="B230:B235"/>
-    <mergeCell ref="B236:B241"/>
-    <mergeCell ref="B242:B247"/>
-    <mergeCell ref="B248:B253"/>
-    <mergeCell ref="B254:B259"/>
-    <mergeCell ref="B260:B265"/>
-    <mergeCell ref="B266:B271"/>
-    <mergeCell ref="B272:B277"/>
-    <mergeCell ref="B278:B283"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B182:B187"/>
-    <mergeCell ref="B188:B193"/>
-    <mergeCell ref="B194:B199"/>
-    <mergeCell ref="B200:B205"/>
-    <mergeCell ref="B206:B211"/>
-    <mergeCell ref="B212:B217"/>
-    <mergeCell ref="B218:B223"/>
-    <mergeCell ref="B224:B229"/>
-    <mergeCell ref="A488:A493"/>
-    <mergeCell ref="A494:A499"/>
-    <mergeCell ref="A500:A505"/>
-    <mergeCell ref="A506:A511"/>
-    <mergeCell ref="A512:A517"/>
-    <mergeCell ref="A518:A523"/>
-    <mergeCell ref="B21:B30"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="B122:B127"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="B134:B139"/>
-    <mergeCell ref="B140:B145"/>
-    <mergeCell ref="B146:B151"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="B164:B169"/>
-    <mergeCell ref="B170:B175"/>
-    <mergeCell ref="A434:A439"/>
-    <mergeCell ref="A440:A445"/>
-    <mergeCell ref="A446:A451"/>
-    <mergeCell ref="A452:A457"/>
-    <mergeCell ref="A458:A463"/>
-    <mergeCell ref="A464:A469"/>
-    <mergeCell ref="A470:A475"/>
-    <mergeCell ref="A476:A481"/>
-    <mergeCell ref="A482:A487"/>
-    <mergeCell ref="A380:A385"/>
-    <mergeCell ref="A386:A391"/>
-    <mergeCell ref="A392:A397"/>
-    <mergeCell ref="A398:A403"/>
-    <mergeCell ref="A404:A409"/>
-    <mergeCell ref="A410:A415"/>
-    <mergeCell ref="A416:A421"/>
-    <mergeCell ref="A422:A427"/>
-    <mergeCell ref="A428:A433"/>
-    <mergeCell ref="A326:A331"/>
-    <mergeCell ref="A332:A337"/>
-    <mergeCell ref="A338:A343"/>
-    <mergeCell ref="A344:A349"/>
-    <mergeCell ref="A350:A355"/>
-    <mergeCell ref="A356:A361"/>
-    <mergeCell ref="A362:A367"/>
-    <mergeCell ref="A368:A373"/>
-    <mergeCell ref="A374:A379"/>
-    <mergeCell ref="A272:A277"/>
-    <mergeCell ref="A278:A283"/>
-    <mergeCell ref="A284:A289"/>
-    <mergeCell ref="A290:A295"/>
-    <mergeCell ref="A296:A301"/>
-    <mergeCell ref="A302:A307"/>
-    <mergeCell ref="A308:A313"/>
-    <mergeCell ref="A314:A319"/>
-    <mergeCell ref="A320:A325"/>
-    <mergeCell ref="A218:A223"/>
-    <mergeCell ref="A224:A229"/>
-    <mergeCell ref="A230:A235"/>
-    <mergeCell ref="A236:A241"/>
-    <mergeCell ref="A242:A247"/>
-    <mergeCell ref="A248:A253"/>
-    <mergeCell ref="A254:A259"/>
-    <mergeCell ref="A260:A265"/>
-    <mergeCell ref="A266:A271"/>
-    <mergeCell ref="A164:A169"/>
-    <mergeCell ref="A170:A175"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A182:A187"/>
-    <mergeCell ref="A188:A193"/>
-    <mergeCell ref="A194:A199"/>
-    <mergeCell ref="A200:A205"/>
-    <mergeCell ref="A206:A211"/>
-    <mergeCell ref="A212:A217"/>
-    <mergeCell ref="A109:A121"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A122:A127"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="A134:A139"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A152:A157"/>
-    <mergeCell ref="A158:A163"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L30" r:id="rId1" xr:uid="{0B00E541-600E-124F-8530-7CF03623D698}"/>
@@ -32609,11 +32609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -33994,7 +33994,7 @@
         <v>338</v>
       </c>
       <c r="H35">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="I35" s="84">
         <v>2000</v>
@@ -38293,7 +38293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
